--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD5981EE-444D-42FD-8AE8-802F532E18CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eligibility-estimator\__tests__\utils\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7615C55E-CEB7-46EE-B430-FDEC5B1F67DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations Scenarios" sheetId="1" r:id="rId1"/>
@@ -5503,7 +5508,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6096,10 +6101,350 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="160">
+  <dxfs count="156">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -6333,46 +6678,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -6801,116 +7106,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
@@ -7337,76 +7532,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -7439,16 +7564,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <top style="medium">
           <color theme="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
+        <bottom style="medium">
           <color theme="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -7485,66 +7610,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -7781,46 +7846,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -7853,16 +7878,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <top style="medium">
           <color theme="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
+        <bottom style="medium">
           <color theme="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -7899,66 +7924,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -8014,192 +7979,192 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1594DF54-73E1-4303-803F-CD8A657E19BB}" name="Table1" displayName="Table1" ref="A2:X174" totalsRowShown="0" headerRowDxfId="153" headerRowBorderDxfId="151" tableBorderDxfId="152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1594DF54-73E1-4303-803F-CD8A657E19BB}" name="Table1" displayName="Table1" ref="A2:X174" totalsRowShown="0" headerRowDxfId="155" headerRowBorderDxfId="154" tableBorderDxfId="153">
   <autoFilter ref="A2:X174" xr:uid="{1594DF54-73E1-4303-803F-CD8A657E19BB}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{B9F2B46B-5A97-48AB-B8E9-21C169D8386A}" name="Scenario"/>
     <tableColumn id="2" xr3:uid="{457E8C35-5534-4380-91E2-697D8E7569C8}" name="Age "/>
     <tableColumn id="3" xr3:uid="{7301E753-6BCA-4C3B-9D4C-68E2713736A6}" name="Rec'ing OAS (Yes / No)"/>
     <tableColumn id="4" xr3:uid="{9B5193B1-A67B-406F-87E7-BE9DE7C728B9}" name="Delay (# of Years and Months)"/>
-    <tableColumn id="5" xr3:uid="{AEC39609-A032-45D9-A7D0-2F6C644770EA}" name="User's Net Worldwide Income" dataDxfId="150"/>
+    <tableColumn id="5" xr3:uid="{AEC39609-A032-45D9-A7D0-2F6C644770EA}" name="User's Net Worldwide Income" dataDxfId="152"/>
     <tableColumn id="6" xr3:uid="{EA86E4A2-E63C-4492-9883-D6173BE6C16A}" name="Legal Status (Yes / No)"/>
     <tableColumn id="7" xr3:uid="{A17A3B31-ED1D-4B62-8394-23C0BC693138}" name="Country of Residence_x000a_(Canada, Not Canada)"/>
     <tableColumn id="8" xr3:uid="{6A987781-9565-421B-A2F2-A9E410F513BE}" name="# of years resided in Canada after age 18 (Full, 40, 10, etc.)"/>
     <tableColumn id="9" xr3:uid="{B9AF6FE3-398F-4E7B-B425-51FA65AFCFC1}" name="Marital Status_x000a_(With or Without Partner, Widowed)"/>
     <tableColumn id="10" xr3:uid="{DE7A6F9C-3BAE-472A-8A4B-BB34CB8F86FC}" name="Inv Sep (Yes / No)"/>
     <tableColumn id="11" xr3:uid="{9CF2DE0E-28ED-4130-947F-451FBD2B76C8}" name="Partner's Age (Years and months)"/>
-    <tableColumn id="12" xr3:uid="{396B3ADE-F22B-47C1-A124-21EDB26F9D32}" name="Partner's Net Worldwide Income" dataDxfId="149"/>
-    <tableColumn id="13" xr3:uid="{AAD7BAF6-7FC8-4236-8173-F1DE5113B728}" name="Combined Net Worldwide Income" dataDxfId="148"/>
+    <tableColumn id="12" xr3:uid="{396B3ADE-F22B-47C1-A124-21EDB26F9D32}" name="Partner's Net Worldwide Income" dataDxfId="151"/>
+    <tableColumn id="13" xr3:uid="{AAD7BAF6-7FC8-4236-8173-F1DE5113B728}" name="Combined Net Worldwide Income" dataDxfId="150"/>
     <tableColumn id="14" xr3:uid="{763886D1-5E11-483E-B0C2-38B9C5F5A2EA}" name="Partner's Legal Status (Yes / No)"/>
     <tableColumn id="15" xr3:uid="{2E0BDFB4-F87C-4BCD-9727-BD08E97212E6}" name="Partner's Country of Residence (Canada, Not Canada)"/>
     <tableColumn id="16" xr3:uid="{5052F903-1AB7-4CCD-829F-AFCF4B6A146A}" name="Partner: # of years resided in Canada after age 18 (Full, 40, 10, etc.)"/>
     <tableColumn id="17" xr3:uid="{674C311B-3EEF-4BF5-83F6-62854EE388C5}" name="Partner Rec'ing OAS (Yes / No / IDK)"/>
-    <tableColumn id="18" xr3:uid="{B055C293-D0A5-4617-A311-EEF7E13A0695}" name="Expected Results" dataDxfId="147"/>
-    <tableColumn id="20" xr3:uid="{2A1E3472-89EA-472F-AD54-A5256D19DEF6}" name="Status (Pass / Fail/ Blocked/ N/A)" dataDxfId="146"/>
-    <tableColumn id="23" xr3:uid="{A73CAA1C-112A-4955-9B42-E02AA40102B4}" name="Actual Results" dataDxfId="145"/>
-    <tableColumn id="21" xr3:uid="{6FB72185-F4DE-4057-85E7-35CEAE9432B5}" name="Tested By" dataDxfId="144"/>
-    <tableColumn id="22" xr3:uid="{06E9F9C5-8D4E-4A8E-BA8C-6C70EAB5715C}" name="Tested On" dataDxfId="143"/>
-    <tableColumn id="19" xr3:uid="{D7078FE8-16C3-4E03-A5F0-8DC0B902D0BA}" name="Notes" dataDxfId="142"/>
-    <tableColumn id="24" xr3:uid="{BE48AC22-CB22-4B77-9FD5-B49F9E2311C3}" name="ALEX NOTES" dataDxfId="141"/>
+    <tableColumn id="18" xr3:uid="{B055C293-D0A5-4617-A311-EEF7E13A0695}" name="Expected Results" dataDxfId="149"/>
+    <tableColumn id="20" xr3:uid="{2A1E3472-89EA-472F-AD54-A5256D19DEF6}" name="Status (Pass / Fail/ Blocked/ N/A)" dataDxfId="148"/>
+    <tableColumn id="23" xr3:uid="{A73CAA1C-112A-4955-9B42-E02AA40102B4}" name="Actual Results" dataDxfId="147"/>
+    <tableColumn id="21" xr3:uid="{6FB72185-F4DE-4057-85E7-35CEAE9432B5}" name="Tested By" dataDxfId="146"/>
+    <tableColumn id="22" xr3:uid="{06E9F9C5-8D4E-4A8E-BA8C-6C70EAB5715C}" name="Tested On" dataDxfId="145"/>
+    <tableColumn id="19" xr3:uid="{D7078FE8-16C3-4E03-A5F0-8DC0B902D0BA}" name="Notes" dataDxfId="144"/>
+    <tableColumn id="24" xr3:uid="{BE48AC22-CB22-4B77-9FD5-B49F9E2311C3}" name="ALEX NOTES" dataDxfId="143"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D8BD777D-74F7-4D67-9BBB-08CFFF978D8D}" name="Table26" displayName="Table26" ref="A2:W32" totalsRowShown="0" headerRowDxfId="136" tableBorderDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D8BD777D-74F7-4D67-9BBB-08CFFF978D8D}" name="Table26" displayName="Table26" ref="A2:W32" totalsRowShown="0" headerRowDxfId="142" tableBorderDxfId="141">
   <autoFilter ref="A2:W32" xr:uid="{5A371788-70FA-4637-94D4-60F7A721C2C3}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{6C1CB8E5-C911-44C7-8C50-17447CC27578}" name="Scenario" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{E6AE97BA-6689-4DD6-81EC-5F1A1FF47DC5}" name="Age (Years and months)" dataDxfId="133"/>
-    <tableColumn id="3" xr3:uid="{40EFE7CB-EB7E-4BEE-B021-630B5F3283AB}" name="Rec'ing OAS (Yes / No)" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{3F2F2090-68BD-49AB-A4A1-07000F1A21CF}" name="Delay (# of Years and Months)" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{71391984-FD43-4291-A46D-D935E0EDAC05}" name="User's Net Worldwide Income" dataDxfId="130"/>
-    <tableColumn id="6" xr3:uid="{694AD89E-1A4D-4EC0-BDA5-90F21D448BA7}" name="Legal Status (Yes / No)" dataDxfId="129"/>
-    <tableColumn id="7" xr3:uid="{5A417366-2A1F-4C83-8F92-A383C853404E}" name="Country of Residence_x000a_(Canada, Not Canada)" dataDxfId="128"/>
-    <tableColumn id="8" xr3:uid="{36257DC9-889F-408B-AC44-64B72475211B}" name="# of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="127"/>
-    <tableColumn id="9" xr3:uid="{0D5751BD-B5F9-476D-961A-AC31EB0DED8D}" name="Marital Status_x000a_(With or Without Partner, Widowed)" dataDxfId="126"/>
-    <tableColumn id="10" xr3:uid="{A07E9779-F096-4FF6-8F82-C5AEDE6C8327}" name="Inv Sep (Yes / No)" dataDxfId="125"/>
-    <tableColumn id="11" xr3:uid="{CD2B48CD-9877-4883-96E7-9EEE34FB797B}" name="Partner's Age (Years and months)" dataDxfId="124"/>
-    <tableColumn id="12" xr3:uid="{859774FB-8B52-40C7-B639-432C28BB4E29}" name="Partner's Net Worldwide Income" dataDxfId="123"/>
-    <tableColumn id="13" xr3:uid="{C9A171CD-F47D-4EC4-A3EE-BC24140AA896}" name="Combined Net Worldwide Income" dataDxfId="122"/>
-    <tableColumn id="14" xr3:uid="{A1F1A161-D681-4DE3-A96B-DD645494D30D}" name="Partner's Legal Status (Yes / No)" dataDxfId="121"/>
-    <tableColumn id="15" xr3:uid="{0ABEA1E5-784D-4529-A0E7-EE2F2E61EA33}" name="Partner's Country of Residence (Canada, Not Canada)" dataDxfId="120"/>
-    <tableColumn id="16" xr3:uid="{16A842D1-83EA-4C82-B907-9A6E37A975A2}" name="Partner: # of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="119"/>
-    <tableColumn id="17" xr3:uid="{ED18D164-FEFC-4285-9866-23618241FE4D}" name="Partner Rec'ing OAS (Yes / No / IDK)" dataDxfId="118"/>
-    <tableColumn id="18" xr3:uid="{FA405503-3362-4CFA-9C16-61D178ABB83E}" name="Expected Results" dataDxfId="117"/>
-    <tableColumn id="19" xr3:uid="{F469E079-20EF-4C02-8510-830C1664051C}" name="Pass / Fail/ Blocked" dataDxfId="116"/>
-    <tableColumn id="20" xr3:uid="{EC55C8BF-23B8-47F0-ABDC-C282D2E306F7}" name="Results" dataDxfId="115"/>
-    <tableColumn id="21" xr3:uid="{E97FE0C1-D964-42D5-B267-CCD3965E7117}" name="Tested By" dataDxfId="114"/>
-    <tableColumn id="22" xr3:uid="{905C1FB9-4514-4C7C-8105-B40E16F9AADE}" name="Tested On" dataDxfId="113"/>
-    <tableColumn id="23" xr3:uid="{1B76F515-4DA7-4927-9D66-82BBD381EBE4}" name="Notes" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{6C1CB8E5-C911-44C7-8C50-17447CC27578}" name="Scenario" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{E6AE97BA-6689-4DD6-81EC-5F1A1FF47DC5}" name="Age (Years and months)" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{40EFE7CB-EB7E-4BEE-B021-630B5F3283AB}" name="Rec'ing OAS (Yes / No)" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{3F2F2090-68BD-49AB-A4A1-07000F1A21CF}" name="Delay (# of Years and Months)" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{71391984-FD43-4291-A46D-D935E0EDAC05}" name="User's Net Worldwide Income" dataDxfId="136"/>
+    <tableColumn id="6" xr3:uid="{694AD89E-1A4D-4EC0-BDA5-90F21D448BA7}" name="Legal Status (Yes / No)" dataDxfId="135"/>
+    <tableColumn id="7" xr3:uid="{5A417366-2A1F-4C83-8F92-A383C853404E}" name="Country of Residence_x000a_(Canada, Not Canada)" dataDxfId="134"/>
+    <tableColumn id="8" xr3:uid="{36257DC9-889F-408B-AC44-64B72475211B}" name="# of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="133"/>
+    <tableColumn id="9" xr3:uid="{0D5751BD-B5F9-476D-961A-AC31EB0DED8D}" name="Marital Status_x000a_(With or Without Partner, Widowed)" dataDxfId="132"/>
+    <tableColumn id="10" xr3:uid="{A07E9779-F096-4FF6-8F82-C5AEDE6C8327}" name="Inv Sep (Yes / No)" dataDxfId="131"/>
+    <tableColumn id="11" xr3:uid="{CD2B48CD-9877-4883-96E7-9EEE34FB797B}" name="Partner's Age (Years and months)" dataDxfId="130"/>
+    <tableColumn id="12" xr3:uid="{859774FB-8B52-40C7-B639-432C28BB4E29}" name="Partner's Net Worldwide Income" dataDxfId="129"/>
+    <tableColumn id="13" xr3:uid="{C9A171CD-F47D-4EC4-A3EE-BC24140AA896}" name="Combined Net Worldwide Income" dataDxfId="128"/>
+    <tableColumn id="14" xr3:uid="{A1F1A161-D681-4DE3-A96B-DD645494D30D}" name="Partner's Legal Status (Yes / No)" dataDxfId="127"/>
+    <tableColumn id="15" xr3:uid="{0ABEA1E5-784D-4529-A0E7-EE2F2E61EA33}" name="Partner's Country of Residence (Canada, Not Canada)" dataDxfId="126"/>
+    <tableColumn id="16" xr3:uid="{16A842D1-83EA-4C82-B907-9A6E37A975A2}" name="Partner: # of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="125"/>
+    <tableColumn id="17" xr3:uid="{ED18D164-FEFC-4285-9866-23618241FE4D}" name="Partner Rec'ing OAS (Yes / No / IDK)" dataDxfId="124"/>
+    <tableColumn id="18" xr3:uid="{FA405503-3362-4CFA-9C16-61D178ABB83E}" name="Expected Results" dataDxfId="123"/>
+    <tableColumn id="19" xr3:uid="{F469E079-20EF-4C02-8510-830C1664051C}" name="Pass / Fail/ Blocked" dataDxfId="122"/>
+    <tableColumn id="20" xr3:uid="{EC55C8BF-23B8-47F0-ABDC-C282D2E306F7}" name="Results" dataDxfId="121"/>
+    <tableColumn id="21" xr3:uid="{E97FE0C1-D964-42D5-B267-CCD3965E7117}" name="Tested By" dataDxfId="120"/>
+    <tableColumn id="22" xr3:uid="{905C1FB9-4514-4C7C-8105-B40E16F9AADE}" name="Tested On" dataDxfId="119"/>
+    <tableColumn id="23" xr3:uid="{1B76F515-4DA7-4927-9D66-82BBD381EBE4}" name="Notes" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4187987-9AF5-4D76-904D-AE5791D95D1E}" name="Table14" displayName="Table14" ref="A2:X174" totalsRowShown="0" headerRowDxfId="105" headerRowBorderDxfId="103" tableBorderDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4187987-9AF5-4D76-904D-AE5791D95D1E}" name="Table14" displayName="Table14" ref="A2:X174" totalsRowShown="0" headerRowDxfId="117" headerRowBorderDxfId="116" tableBorderDxfId="115">
   <autoFilter ref="A2:X174" xr:uid="{1594DF54-73E1-4303-803F-CD8A657E19BB}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{8A67DB42-1BEF-424F-A326-0ED15CC5AB32}" name="Scenario"/>
     <tableColumn id="2" xr3:uid="{9635BFBE-8BE0-4723-B70C-E6CBCF6AF893}" name="Age "/>
     <tableColumn id="3" xr3:uid="{D4287847-F332-4512-BA55-FEAA5EB4B4F8}" name="Rec'ing OAS (Yes / No)"/>
     <tableColumn id="4" xr3:uid="{CEAA07BA-6F02-447B-91D3-AA12BB13C106}" name="Delay (# of Years and Months)"/>
-    <tableColumn id="5" xr3:uid="{890BBCBF-6E64-4C33-848A-AEBF9FAD9108}" name="User's Net Worldwide Income" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{890BBCBF-6E64-4C33-848A-AEBF9FAD9108}" name="User's Net Worldwide Income" dataDxfId="114"/>
     <tableColumn id="6" xr3:uid="{7F246856-FF11-4221-98BD-58F74E4B903D}" name="Legal Status (Yes / No)"/>
     <tableColumn id="7" xr3:uid="{2C054247-E23F-432A-AF3B-A8D6DEF6F3C9}" name="Country of Residence_x000a_(Canada, Not Canada)"/>
     <tableColumn id="8" xr3:uid="{4C09BBF5-CBD9-4AC0-977C-4ADF2BE56D6D}" name="# of years resided in Canada after age 18 (Full, 40, 10, etc.)"/>
     <tableColumn id="9" xr3:uid="{60C222A8-01C8-4C85-903E-EF6889CF6053}" name="Marital Status_x000a_(With or Without Partner, Widowed)"/>
     <tableColumn id="10" xr3:uid="{80F7C69D-ED9F-4FF3-A34A-EF5C329E7FBD}" name="Inv Sep (Yes / No)"/>
     <tableColumn id="11" xr3:uid="{3042A211-4F27-4C46-81F4-04F4F1907DDA}" name="Partner's Age (Years and months)"/>
-    <tableColumn id="12" xr3:uid="{21FF5027-4E63-4587-9E55-D3D3D0FCB9A8}" name="Partner's Net Worldwide Income" dataDxfId="101"/>
-    <tableColumn id="13" xr3:uid="{3D6D951C-A538-419B-B24B-21A3C6B92A1E}" name="Combined Net Worldwide Income" dataDxfId="100"/>
+    <tableColumn id="12" xr3:uid="{21FF5027-4E63-4587-9E55-D3D3D0FCB9A8}" name="Partner's Net Worldwide Income" dataDxfId="113"/>
+    <tableColumn id="13" xr3:uid="{3D6D951C-A538-419B-B24B-21A3C6B92A1E}" name="Combined Net Worldwide Income" dataDxfId="112"/>
     <tableColumn id="14" xr3:uid="{76B0B377-877B-4392-BE56-14E1B61D2278}" name="Partner's Legal Status (Yes / No)"/>
     <tableColumn id="15" xr3:uid="{393C6780-A276-4E61-979F-DB1D1084DEEA}" name="Partner's Country of Residence (Canada, Not Canada)"/>
     <tableColumn id="16" xr3:uid="{BC43CA9A-1075-4C7A-A032-F1B94356BBCB}" name="Partner: # of years resided in Canada after age 18 (Full, 40, 10, etc.)"/>
     <tableColumn id="17" xr3:uid="{74C5199B-F674-4E3E-BDF8-9E9DC49FD849}" name="Partner Rec'ing OAS (Yes / No / IDK)"/>
-    <tableColumn id="18" xr3:uid="{8D8233E3-7ABD-4505-976E-3D2C03317A94}" name="Expected Results" dataDxfId="99"/>
-    <tableColumn id="20" xr3:uid="{DA1A7D41-9D2D-40A8-8384-EACA92E7988B}" name="Status (Pass / Fail/ Blocked/ N/A)" dataDxfId="98"/>
-    <tableColumn id="23" xr3:uid="{9F483F09-65B4-40CC-B921-0B9BE4F343BC}" name="Actual Results" dataDxfId="97"/>
-    <tableColumn id="21" xr3:uid="{5BF5815C-330A-4D4E-8B64-D5ABD8AF8287}" name="Tested By" dataDxfId="96"/>
-    <tableColumn id="22" xr3:uid="{5DBC0D15-D129-4F4B-9311-086F9E1240EB}" name="Tested On" dataDxfId="95"/>
-    <tableColumn id="19" xr3:uid="{786B0933-5251-4D4D-ADCA-81634F68A33C}" name="Notes" dataDxfId="94"/>
-    <tableColumn id="24" xr3:uid="{4B751E57-CC1C-4147-BE98-D91094CC2906}" name="ALEX NOTES" dataDxfId="93"/>
+    <tableColumn id="18" xr3:uid="{8D8233E3-7ABD-4505-976E-3D2C03317A94}" name="Expected Results" dataDxfId="111"/>
+    <tableColumn id="20" xr3:uid="{DA1A7D41-9D2D-40A8-8384-EACA92E7988B}" name="Status (Pass / Fail/ Blocked/ N/A)" dataDxfId="110"/>
+    <tableColumn id="23" xr3:uid="{9F483F09-65B4-40CC-B921-0B9BE4F343BC}" name="Actual Results" dataDxfId="109"/>
+    <tableColumn id="21" xr3:uid="{5BF5815C-330A-4D4E-8B64-D5ABD8AF8287}" name="Tested By" dataDxfId="108"/>
+    <tableColumn id="22" xr3:uid="{5DBC0D15-D129-4F4B-9311-086F9E1240EB}" name="Tested On" dataDxfId="107"/>
+    <tableColumn id="19" xr3:uid="{786B0933-5251-4D4D-ADCA-81634F68A33C}" name="Notes" dataDxfId="106"/>
+    <tableColumn id="24" xr3:uid="{4B751E57-CC1C-4147-BE98-D91094CC2906}" name="ALEX NOTES" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4DC6DEFC-81E5-41A5-BFF0-5C54BF6FB278}" name="Table4" displayName="Table4" ref="A2:V174" totalsRowShown="0" headerRowDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4DC6DEFC-81E5-41A5-BFF0-5C54BF6FB278}" name="Table4" displayName="Table4" ref="A2:V174" totalsRowShown="0" headerRowDxfId="104">
   <autoFilter ref="A2:V174" xr:uid="{4DC6DEFC-81E5-41A5-BFF0-5C54BF6FB278}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{195A1032-6332-4E24-AD67-A45518CD45AB}" name="Scenario" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{AB26C4C1-0291-403A-8AF5-06B5C1C4BB61}" name="Age " dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{63C3F745-AAC9-4F44-B420-319797628129}" name="Rec'ing OAS (Yes / No)" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{305B6542-D031-4A05-B22B-D2DCB9868602}" name="Delay (# of Years)" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{3E5CF363-66FA-4EA9-A899-9C94F3242F5E}" name="User's Net Worldwide Income" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{5641BFA1-0DF7-479F-9682-F93DCEAAB16D}" name="Legal Status (Yes / No)" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{3B8AD9FC-205B-41A2-97B3-BD2578B19931}" name="Country of Residence_x000a_(Canada, Not Canada)" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{A8405324-AE4E-4D6F-87BD-AE9C16B6B72B}" name="# of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="77"/>
-    <tableColumn id="9" xr3:uid="{3D39D1B4-D722-4B4D-AD89-A4DC2ADB4274}" name="Marital Status_x000a_(With or Without Partner, Widowed)" dataDxfId="76"/>
-    <tableColumn id="10" xr3:uid="{E0215F10-64D5-4145-B17F-5959E7E69A98}" name="Inv Sep (Yes / No)" dataDxfId="75"/>
-    <tableColumn id="11" xr3:uid="{2A5CE5EF-3F85-406E-8B00-C5CF97529F5E}" name="Partner's Age" dataDxfId="74"/>
-    <tableColumn id="12" xr3:uid="{2F5A957B-BE4D-4194-A51C-C7FFA4F7306F}" name="Partner's Net Worldwide Income" dataDxfId="73"/>
-    <tableColumn id="13" xr3:uid="{EFE4BBB9-EB84-403B-B11F-22B5BC202828}" name="Combined Net Worldwide Income" dataDxfId="72"/>
-    <tableColumn id="14" xr3:uid="{8F2A8372-024F-45C5-96F7-8ED301CE6213}" name="Partner's Legal Status (Yes / No)" dataDxfId="71"/>
-    <tableColumn id="15" xr3:uid="{FB035B77-0648-491F-85A7-E546B63B6177}" name="Partner's Country of Residence (Canada, Not Canada)" dataDxfId="70"/>
-    <tableColumn id="16" xr3:uid="{B6C015DB-5465-45B8-BEF8-23D90F5F9ED5}" name="Partner: # of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="69"/>
-    <tableColumn id="17" xr3:uid="{F0D675E8-9D82-44B9-8B36-A235FC85F511}" name="Partner Rec'ing OAS (Yes / No / IDK)" dataDxfId="68"/>
-    <tableColumn id="18" xr3:uid="{CBE9F151-BCF9-4EDD-9C30-73D6547D7DF1}" name="Expected Results" dataDxfId="67"/>
-    <tableColumn id="19" xr3:uid="{3FB19CAC-C150-4437-8673-77D7509B80D9}" name="Status (Pass / Fail/ Blocked/ N/A)" dataDxfId="66"/>
-    <tableColumn id="20" xr3:uid="{DB3470A4-69FB-4D10-9FE5-087A457E6D41}" name="Actual Results" dataDxfId="65"/>
-    <tableColumn id="21" xr3:uid="{262DCFE5-F7D8-48A3-9039-6CD309215FAE}" name="Tested By" dataDxfId="64"/>
-    <tableColumn id="22" xr3:uid="{5FE292C0-A94C-44C7-A792-987673A26FFF}" name="Notes" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{195A1032-6332-4E24-AD67-A45518CD45AB}" name="Scenario" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{AB26C4C1-0291-403A-8AF5-06B5C1C4BB61}" name="Age " dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{63C3F745-AAC9-4F44-B420-319797628129}" name="Rec'ing OAS (Yes / No)" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{305B6542-D031-4A05-B22B-D2DCB9868602}" name="Delay (# of Years)" dataDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{3E5CF363-66FA-4EA9-A899-9C94F3242F5E}" name="User's Net Worldwide Income" dataDxfId="99"/>
+    <tableColumn id="6" xr3:uid="{5641BFA1-0DF7-479F-9682-F93DCEAAB16D}" name="Legal Status (Yes / No)" dataDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{3B8AD9FC-205B-41A2-97B3-BD2578B19931}" name="Country of Residence_x000a_(Canada, Not Canada)" dataDxfId="97"/>
+    <tableColumn id="8" xr3:uid="{A8405324-AE4E-4D6F-87BD-AE9C16B6B72B}" name="# of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="96"/>
+    <tableColumn id="9" xr3:uid="{3D39D1B4-D722-4B4D-AD89-A4DC2ADB4274}" name="Marital Status_x000a_(With or Without Partner, Widowed)" dataDxfId="95"/>
+    <tableColumn id="10" xr3:uid="{E0215F10-64D5-4145-B17F-5959E7E69A98}" name="Inv Sep (Yes / No)" dataDxfId="94"/>
+    <tableColumn id="11" xr3:uid="{2A5CE5EF-3F85-406E-8B00-C5CF97529F5E}" name="Partner's Age" dataDxfId="93"/>
+    <tableColumn id="12" xr3:uid="{2F5A957B-BE4D-4194-A51C-C7FFA4F7306F}" name="Partner's Net Worldwide Income" dataDxfId="92"/>
+    <tableColumn id="13" xr3:uid="{EFE4BBB9-EB84-403B-B11F-22B5BC202828}" name="Combined Net Worldwide Income" dataDxfId="91"/>
+    <tableColumn id="14" xr3:uid="{8F2A8372-024F-45C5-96F7-8ED301CE6213}" name="Partner's Legal Status (Yes / No)" dataDxfId="90"/>
+    <tableColumn id="15" xr3:uid="{FB035B77-0648-491F-85A7-E546B63B6177}" name="Partner's Country of Residence (Canada, Not Canada)" dataDxfId="89"/>
+    <tableColumn id="16" xr3:uid="{B6C015DB-5465-45B8-BEF8-23D90F5F9ED5}" name="Partner: # of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="88"/>
+    <tableColumn id="17" xr3:uid="{F0D675E8-9D82-44B9-8B36-A235FC85F511}" name="Partner Rec'ing OAS (Yes / No / IDK)" dataDxfId="87"/>
+    <tableColumn id="18" xr3:uid="{CBE9F151-BCF9-4EDD-9C30-73D6547D7DF1}" name="Expected Results" dataDxfId="86"/>
+    <tableColumn id="19" xr3:uid="{3FB19CAC-C150-4437-8673-77D7509B80D9}" name="Status (Pass / Fail/ Blocked/ N/A)" dataDxfId="85"/>
+    <tableColumn id="20" xr3:uid="{DB3470A4-69FB-4D10-9FE5-087A457E6D41}" name="Actual Results" dataDxfId="84"/>
+    <tableColumn id="21" xr3:uid="{262DCFE5-F7D8-48A3-9039-6CD309215FAE}" name="Tested By" dataDxfId="83"/>
+    <tableColumn id="22" xr3:uid="{5FE292C0-A94C-44C7-A792-987673A26FFF}" name="Notes" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0D07D72F-061B-47D4-A498-BA9D3F9E3E56}" name="Table47" displayName="Table47" ref="A2:V174" totalsRowShown="0" headerRowDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0D07D72F-061B-47D4-A498-BA9D3F9E3E56}" name="Table47" displayName="Table47" ref="A2:V174" totalsRowShown="0" headerRowDxfId="81">
   <autoFilter ref="A2:V174" xr:uid="{4DC6DEFC-81E5-41A5-BFF0-5C54BF6FB278}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{01178161-8D27-43FD-9FE0-4B3AC199444E}" name="Scenario" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{C8DDAA4D-EC1C-4979-97FC-E894F5318D95}" name="Age " dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{480A412C-5D1B-498C-996E-B7477304F29C}" name="Rec'ing OAS (Yes / No)" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{1B4AFF77-4806-4C3B-96BA-9DDDCDB49AB8}" name="Delay (# of Years)" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{9967C785-E633-4E26-A652-B011B18E45CF}" name="User's Net Worldwide Income" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{FD907283-9F31-4B32-A60A-2B1B088AD755}" name="Legal Status (Yes / No)" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{22FEF1A1-368B-4FAA-A00C-B505A3A63010}" name="Country of Residence_x000a_(Canada, Not Canada)" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{9C6A9099-6205-4A36-ADEC-55D72FF847BF}" name="# of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{2A78FD24-93BC-4948-BD9C-A91AAED8C859}" name="Marital Status_x000a_(With or Without Partner, Widowed)" dataDxfId="42"/>
-    <tableColumn id="10" xr3:uid="{785C9E6B-F825-4D45-B466-F4CCBF56544C}" name="Inv Sep (Yes / No)" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{B2920F5C-B031-4BE1-815D-E147A96AC3DF}" name="Partner's Age" dataDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{612F9C9D-5C6B-43F0-8116-5CD8C1714E11}" name="Partner's Net Worldwide Income" dataDxfId="39"/>
-    <tableColumn id="13" xr3:uid="{B57E7A6C-A9F1-4CFB-AD9C-0F77CAA6A636}" name="Combined Net Worldwide Income" dataDxfId="38"/>
-    <tableColumn id="14" xr3:uid="{ACF79481-3305-4B1F-AA4F-E8F73D2ED049}" name="Partner's Legal Status (Yes / No)" dataDxfId="37"/>
-    <tableColumn id="15" xr3:uid="{A1769738-40D4-42F9-959F-77D3B1F594B2}" name="Partner's Country of Residence (Canada, Not Canada)" dataDxfId="36"/>
-    <tableColumn id="16" xr3:uid="{F0E4E8A3-5BE3-418C-AA3B-0CAAA6807FAB}" name="Partner: # of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="35"/>
-    <tableColumn id="17" xr3:uid="{85CF617A-356A-4542-8541-44D5B09E3721}" name="Partner Rec'ing OAS (Yes / No / IDK)" dataDxfId="34"/>
-    <tableColumn id="18" xr3:uid="{3AABF23A-0921-46D5-A864-7270FFF9027D}" name="Expected Results" dataDxfId="33"/>
-    <tableColumn id="19" xr3:uid="{C293EEAD-C17C-4880-8079-E70C6329FE3E}" name="Status (Pass / Fail/ Blocked/ N/A)" dataDxfId="32"/>
-    <tableColumn id="20" xr3:uid="{AFC4EF91-F74C-4983-85EE-7CB81DB029BD}" name="Actual Results" dataDxfId="31"/>
-    <tableColumn id="21" xr3:uid="{7705407D-C6FA-448F-B3FB-10894081CE90}" name="Tested By" dataDxfId="30"/>
-    <tableColumn id="22" xr3:uid="{E98906F6-FB9B-46EC-B950-D002E1CBFFDA}" name="Notes" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{01178161-8D27-43FD-9FE0-4B3AC199444E}" name="Scenario" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{C8DDAA4D-EC1C-4979-97FC-E894F5318D95}" name="Age " dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{480A412C-5D1B-498C-996E-B7477304F29C}" name="Rec'ing OAS (Yes / No)" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{1B4AFF77-4806-4C3B-96BA-9DDDCDB49AB8}" name="Delay (# of Years)" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{9967C785-E633-4E26-A652-B011B18E45CF}" name="User's Net Worldwide Income" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{FD907283-9F31-4B32-A60A-2B1B088AD755}" name="Legal Status (Yes / No)" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{22FEF1A1-368B-4FAA-A00C-B505A3A63010}" name="Country of Residence_x000a_(Canada, Not Canada)" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{9C6A9099-6205-4A36-ADEC-55D72FF847BF}" name="# of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{2A78FD24-93BC-4948-BD9C-A91AAED8C859}" name="Marital Status_x000a_(With or Without Partner, Widowed)" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{785C9E6B-F825-4D45-B466-F4CCBF56544C}" name="Inv Sep (Yes / No)" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{B2920F5C-B031-4BE1-815D-E147A96AC3DF}" name="Partner's Age" dataDxfId="70"/>
+    <tableColumn id="12" xr3:uid="{612F9C9D-5C6B-43F0-8116-5CD8C1714E11}" name="Partner's Net Worldwide Income" dataDxfId="69"/>
+    <tableColumn id="13" xr3:uid="{B57E7A6C-A9F1-4CFB-AD9C-0F77CAA6A636}" name="Combined Net Worldwide Income" dataDxfId="68"/>
+    <tableColumn id="14" xr3:uid="{ACF79481-3305-4B1F-AA4F-E8F73D2ED049}" name="Partner's Legal Status (Yes / No)" dataDxfId="67"/>
+    <tableColumn id="15" xr3:uid="{A1769738-40D4-42F9-959F-77D3B1F594B2}" name="Partner's Country of Residence (Canada, Not Canada)" dataDxfId="66"/>
+    <tableColumn id="16" xr3:uid="{F0E4E8A3-5BE3-418C-AA3B-0CAAA6807FAB}" name="Partner: # of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="65"/>
+    <tableColumn id="17" xr3:uid="{85CF617A-356A-4542-8541-44D5B09E3721}" name="Partner Rec'ing OAS (Yes / No / IDK)" dataDxfId="64"/>
+    <tableColumn id="18" xr3:uid="{3AABF23A-0921-46D5-A864-7270FFF9027D}" name="Expected Results" dataDxfId="63"/>
+    <tableColumn id="19" xr3:uid="{C293EEAD-C17C-4880-8079-E70C6329FE3E}" name="Status (Pass / Fail/ Blocked/ N/A)" dataDxfId="62"/>
+    <tableColumn id="20" xr3:uid="{AFC4EF91-F74C-4983-85EE-7CB81DB029BD}" name="Actual Results" dataDxfId="61"/>
+    <tableColumn id="21" xr3:uid="{7705407D-C6FA-448F-B3FB-10894081CE90}" name="Tested By" dataDxfId="60"/>
+    <tableColumn id="22" xr3:uid="{E98906F6-FB9B-46EC-B950-D002E1CBFFDA}" name="Notes" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5A371788-70FA-4637-94D4-60F7A721C2C3}" name="Table2" displayName="Table2" ref="A2:W32" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5A371788-70FA-4637-94D4-60F7A721C2C3}" name="Table2" displayName="Table2" ref="A2:W32" totalsRowShown="0" headerRowDxfId="58" tableBorderDxfId="57">
   <autoFilter ref="A2:W32" xr:uid="{5A371788-70FA-4637-94D4-60F7A721C2C3}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{658EBFAA-559A-4977-B1E4-A8D2F30F2E8F}" name="Scenario" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{BE1D10B8-E44C-4148-8FE7-48134B523BBE}" name="Age (Years and months)" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{9A041BB2-34CA-4414-9316-D4D7AB4E08EF}" name="Rec'ing OAS (Yes / No)" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{D6D2A044-2526-4722-912D-98389B2E7CD6}" name="Delay (# of Years and Months)" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{55DDC1E4-563F-4410-BB28-7C0BCA504422}" name="User's Net Worldwide Income" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{1219CF7B-C334-4484-B8D3-A4B0809585E5}" name="Legal Status (Yes / No)" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{0BC79D1E-D7E0-4861-AA84-E5C113C2B5CB}" name="Country of Residence_x000a_(Canada, Not Canada)" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{CDE6EC35-B8CE-4822-91A1-8BB0A1DA8A7F}" name="# of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{41F93EE9-F3D5-4596-B06A-4FC84EE865B3}" name="Marital Status_x000a_(With or Without Partner, Widowed)" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{BACF8624-586E-49B9-93AA-88E00F67A450}" name="Inv Sep (Yes / No)" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{C7A42E75-E3FE-45BB-A532-043927AE7D70}" name="Partner's Age (Years and months)" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{99E0E89C-62AE-4DDE-A6EA-F01DCE8A47B9}" name="Partner's Net Worldwide Income" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{1A905904-AB5B-4ED1-84CF-488C45E9A0DB}" name="Combined Net Worldwide Income" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{36987FBE-F61E-422B-8892-5C353F412643}" name="Partner's Legal Status (Yes / No)" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{8218B86A-C3E5-45CE-A248-D5714EC74993}" name="Partner's Country of Residence (Canada, Not Canada)" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{BEBF3AA5-1C18-4D25-AEA2-7AA25C8CD062}" name="Partner: # of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{77BA4A14-E2DB-41EF-ABED-B7181A314200}" name="Partner Rec'ing OAS (Yes / No / IDK)" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{92E898DC-2737-464B-81AC-C00E403CD942}" name="Expected Results" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{7FB285BF-D8C1-4AB3-866A-780D37594BDD}" name="Pass / Fail/ Blocked" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{07F8FA24-15F7-4E24-8D10-58A64598BBBE}" name="Results" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{05C37768-C606-4281-8D16-638E72341901}" name="Tested By" dataDxfId="2"/>
-    <tableColumn id="22" xr3:uid="{1FD1FE2D-2490-4245-AA1A-D37B413C9328}" name="Tested On" dataDxfId="1"/>
-    <tableColumn id="23" xr3:uid="{32DA10D8-0490-4E4A-9774-BEA7EDC404EB}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{658EBFAA-559A-4977-B1E4-A8D2F30F2E8F}" name="Scenario" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{BE1D10B8-E44C-4148-8FE7-48134B523BBE}" name="Age (Years and months)" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{9A041BB2-34CA-4414-9316-D4D7AB4E08EF}" name="Rec'ing OAS (Yes / No)" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{D6D2A044-2526-4722-912D-98389B2E7CD6}" name="Delay (# of Years and Months)" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{55DDC1E4-563F-4410-BB28-7C0BCA504422}" name="User's Net Worldwide Income" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{1219CF7B-C334-4484-B8D3-A4B0809585E5}" name="Legal Status (Yes / No)" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{0BC79D1E-D7E0-4861-AA84-E5C113C2B5CB}" name="Country of Residence_x000a_(Canada, Not Canada)" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{CDE6EC35-B8CE-4822-91A1-8BB0A1DA8A7F}" name="# of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{41F93EE9-F3D5-4596-B06A-4FC84EE865B3}" name="Marital Status_x000a_(With or Without Partner, Widowed)" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{BACF8624-586E-49B9-93AA-88E00F67A450}" name="Inv Sep (Yes / No)" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{C7A42E75-E3FE-45BB-A532-043927AE7D70}" name="Partner's Age (Years and months)" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{99E0E89C-62AE-4DDE-A6EA-F01DCE8A47B9}" name="Partner's Net Worldwide Income" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{1A905904-AB5B-4ED1-84CF-488C45E9A0DB}" name="Combined Net Worldwide Income" dataDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{36987FBE-F61E-422B-8892-5C353F412643}" name="Partner's Legal Status (Yes / No)" dataDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{8218B86A-C3E5-45CE-A248-D5714EC74993}" name="Partner's Country of Residence (Canada, Not Canada)" dataDxfId="42"/>
+    <tableColumn id="16" xr3:uid="{BEBF3AA5-1C18-4D25-AEA2-7AA25C8CD062}" name="Partner: # of years resided in Canada after age 18 (Full, 40, 10, etc.)" dataDxfId="41"/>
+    <tableColumn id="17" xr3:uid="{77BA4A14-E2DB-41EF-ABED-B7181A314200}" name="Partner Rec'ing OAS (Yes / No / IDK)" dataDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{92E898DC-2737-464B-81AC-C00E403CD942}" name="Expected Results" dataDxfId="39"/>
+    <tableColumn id="19" xr3:uid="{7FB285BF-D8C1-4AB3-866A-780D37594BDD}" name="Pass / Fail/ Blocked" dataDxfId="38"/>
+    <tableColumn id="20" xr3:uid="{07F8FA24-15F7-4E24-8D10-58A64598BBBE}" name="Results" dataDxfId="37"/>
+    <tableColumn id="21" xr3:uid="{05C37768-C606-4281-8D16-638E72341901}" name="Tested By" dataDxfId="36"/>
+    <tableColumn id="22" xr3:uid="{1FD1FE2D-2490-4245-AA1A-D37B413C9328}" name="Tested On" dataDxfId="35"/>
+    <tableColumn id="23" xr3:uid="{32DA10D8-0490-4E4A-9774-BEA7EDC404EB}" name="Notes" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8520,44 +8485,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="22" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" style="22" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" customWidth="1"/>
     <col min="18" max="18" width="52" style="16" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" style="16" customWidth="1"/>
-    <col min="20" max="20" width="44.140625" style="16" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="16" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="16" customWidth="1"/>
-    <col min="23" max="23" width="26.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" style="16" customWidth="1"/>
+    <col min="20" max="20" width="44.109375" style="16" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" style="16" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" style="16" customWidth="1"/>
+    <col min="23" max="23" width="26.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="106.5">
+    <row r="2" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -8631,7 +8596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -8659,7 +8624,7 @@
       <c r="W3" s="53"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:24" ht="152.25">
+    <row r="4" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
         <v>26</v>
       </c>
@@ -8728,7 +8693,7 @@
       </c>
       <c r="X4" s="17"/>
     </row>
-    <row r="5" spans="1:24" ht="60.75">
+    <row r="5" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>37</v>
       </c>
@@ -8791,7 +8756,7 @@
       <c r="V5" s="17"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:24" ht="76.5">
+    <row r="6" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -8860,7 +8825,7 @@
       </c>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:24" ht="137.25">
+    <row r="7" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -8932,7 +8897,7 @@
       </c>
       <c r="X7" s="17"/>
     </row>
-    <row r="8" spans="1:24" ht="152.25">
+    <row r="8" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -9002,7 +8967,7 @@
       <c r="W8" s="61"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:24" ht="76.5">
+    <row r="9" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -9071,7 +9036,7 @@
       </c>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:24" ht="167.25">
+    <row r="10" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -9143,7 +9108,7 @@
       </c>
       <c r="X10" s="17"/>
     </row>
-    <row r="11" spans="1:24" ht="137.25">
+    <row r="11" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -9206,7 +9171,7 @@
       <c r="V11" s="17"/>
       <c r="X11" s="17"/>
     </row>
-    <row r="12" spans="1:24" ht="60.75">
+    <row r="12" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -9267,7 +9232,7 @@
       <c r="V12" s="17"/>
       <c r="X12" s="17"/>
     </row>
-    <row r="13" spans="1:24" ht="60.75">
+    <row r="13" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -9330,7 +9295,7 @@
       <c r="V13" s="17"/>
       <c r="X13" s="17"/>
     </row>
-    <row r="14" spans="1:24" ht="60.75">
+    <row r="14" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -9393,7 +9358,7 @@
       <c r="V14" s="17"/>
       <c r="X14" s="17"/>
     </row>
-    <row r="15" spans="1:24" ht="60.75">
+    <row r="15" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -9456,7 +9421,7 @@
       <c r="V15" s="17"/>
       <c r="X15" s="17"/>
     </row>
-    <row r="16" spans="1:24" ht="60.75">
+    <row r="16" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -9519,7 +9484,7 @@
       <c r="V16" s="17"/>
       <c r="X16" s="17"/>
     </row>
-    <row r="17" spans="1:24" ht="137.25">
+    <row r="17" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
@@ -9582,7 +9547,7 @@
       <c r="V17" s="17"/>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:24" ht="60.75">
+    <row r="18" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -9645,7 +9610,7 @@
       <c r="V18" s="17"/>
       <c r="X18" s="17"/>
     </row>
-    <row r="19" spans="1:24" ht="229.5">
+    <row r="19" spans="1:24" ht="216" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -9706,7 +9671,7 @@
       <c r="V19" s="17"/>
       <c r="X19" s="17"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
@@ -9734,7 +9699,7 @@
       <c r="W20" s="53"/>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" spans="1:24" ht="167.25">
+    <row r="21" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
@@ -9797,7 +9762,7 @@
       <c r="V21" s="17"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" spans="1:24" ht="167.25">
+    <row r="22" spans="1:24" ht="158.4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
@@ -9860,7 +9825,7 @@
       <c r="V22" s="17"/>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:24" ht="167.25">
+    <row r="23" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
@@ -9923,7 +9888,7 @@
       <c r="V23" s="17"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" spans="1:24" ht="167.25">
+    <row r="24" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -9986,7 +9951,7 @@
       <c r="V24" s="17"/>
       <c r="X24" s="17"/>
     </row>
-    <row r="25" spans="1:24" ht="167.25">
+    <row r="25" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
@@ -10049,7 +10014,7 @@
       <c r="V25" s="17"/>
       <c r="X25" s="17"/>
     </row>
-    <row r="26" spans="1:24" ht="183">
+    <row r="26" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>95</v>
       </c>
@@ -10112,7 +10077,7 @@
       <c r="V26" s="17"/>
       <c r="X26" s="17"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
@@ -10140,7 +10105,7 @@
       <c r="W27" s="53"/>
       <c r="X27" s="17"/>
     </row>
-    <row r="28" spans="1:24" ht="137.25">
+    <row r="28" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>98</v>
       </c>
@@ -10209,7 +10174,7 @@
       </c>
       <c r="X28" s="17"/>
     </row>
-    <row r="29" spans="1:24" ht="137.25">
+    <row r="29" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>101</v>
       </c>
@@ -10278,7 +10243,7 @@
       </c>
       <c r="X29" s="17"/>
     </row>
-    <row r="30" spans="1:24" ht="152.25">
+    <row r="30" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
@@ -10349,7 +10314,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="152.25">
+    <row r="31" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
@@ -10420,7 +10385,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="152.25">
+    <row r="32" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>114</v>
       </c>
@@ -10491,7 +10456,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="137.25">
+    <row r="33" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>118</v>
       </c>
@@ -10563,7 +10528,7 @@
       </c>
       <c r="X33" s="17"/>
     </row>
-    <row r="34" spans="1:24" ht="183">
+    <row r="34" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>125</v>
       </c>
@@ -10635,7 +10600,7 @@
       </c>
       <c r="X34" s="17"/>
     </row>
-    <row r="35" spans="1:24" ht="198">
+    <row r="35" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A35" s="64" t="s">
         <v>129</v>
       </c>
@@ -10707,7 +10672,7 @@
       </c>
       <c r="X35" s="17"/>
     </row>
-    <row r="36" spans="1:24" ht="183">
+    <row r="36" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>132</v>
       </c>
@@ -10777,7 +10742,7 @@
       </c>
       <c r="X36" s="17"/>
     </row>
-    <row r="37" spans="1:24" ht="259.5">
+    <row r="37" spans="1:24" ht="216" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>135</v>
       </c>
@@ -10848,7 +10813,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="167.25">
+    <row r="38" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>138</v>
       </c>
@@ -10915,7 +10880,7 @@
       </c>
       <c r="X38" s="17"/>
     </row>
-    <row r="39" spans="1:24" ht="167.25">
+    <row r="39" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A39" s="64" t="s">
         <v>140</v>
       </c>
@@ -10982,7 +10947,7 @@
       </c>
       <c r="X39" s="17"/>
     </row>
-    <row r="40" spans="1:24" ht="137.25">
+    <row r="40" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
@@ -11049,7 +11014,7 @@
       <c r="V40" s="17"/>
       <c r="X40" s="17"/>
     </row>
-    <row r="41" spans="1:24" ht="137.25">
+    <row r="41" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>145</v>
       </c>
@@ -11112,7 +11077,7 @@
       <c r="V41" s="17"/>
       <c r="X41" s="17"/>
     </row>
-    <row r="42" spans="1:24" ht="137.25">
+    <row r="42" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>147</v>
       </c>
@@ -11173,7 +11138,7 @@
       <c r="V42" s="17"/>
       <c r="X42" s="17"/>
     </row>
-    <row r="43" spans="1:24" ht="137.25">
+    <row r="43" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>149</v>
       </c>
@@ -11234,7 +11199,7 @@
       <c r="V43" s="17"/>
       <c r="X43" s="17"/>
     </row>
-    <row r="44" spans="1:24" ht="121.5">
+    <row r="44" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>151</v>
       </c>
@@ -11295,7 +11260,7 @@
       <c r="V44" s="17"/>
       <c r="X44" s="17"/>
     </row>
-    <row r="45" spans="1:24" ht="137.25">
+    <row r="45" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>153</v>
       </c>
@@ -11362,7 +11327,7 @@
       <c r="V45" s="17"/>
       <c r="X45" s="17"/>
     </row>
-    <row r="46" spans="1:24" ht="152.25">
+    <row r="46" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>157</v>
       </c>
@@ -11429,7 +11394,7 @@
       <c r="V46" s="17"/>
       <c r="X46" s="17"/>
     </row>
-    <row r="47" spans="1:24" ht="183">
+    <row r="47" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="s">
         <v>160</v>
       </c>
@@ -11496,7 +11461,7 @@
       <c r="V47" s="17"/>
       <c r="X47" s="17"/>
     </row>
-    <row r="48" spans="1:24" ht="198">
+    <row r="48" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>164</v>
       </c>
@@ -11565,7 +11530,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="183">
+    <row r="49" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>167</v>
       </c>
@@ -11628,7 +11593,7 @@
       <c r="V49" s="17"/>
       <c r="X49" s="17"/>
     </row>
-    <row r="50" spans="1:24" ht="183">
+    <row r="50" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>169</v>
       </c>
@@ -11691,7 +11656,7 @@
       <c r="V50" s="17"/>
       <c r="X50" s="17"/>
     </row>
-    <row r="51" spans="1:24" ht="152.25">
+    <row r="51" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A51" s="64" t="s">
         <v>171</v>
       </c>
@@ -11754,7 +11719,7 @@
       <c r="V51" s="17"/>
       <c r="X51" s="17"/>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>173</v>
       </c>
@@ -11782,7 +11747,7 @@
       <c r="W52" s="53"/>
       <c r="X52" s="17"/>
     </row>
-    <row r="53" spans="1:24" ht="137.25">
+    <row r="53" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>174</v>
       </c>
@@ -11851,7 +11816,7 @@
       </c>
       <c r="X53" s="17"/>
     </row>
-    <row r="54" spans="1:24" ht="137.25">
+    <row r="54" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>179</v>
       </c>
@@ -11923,7 +11888,7 @@
       </c>
       <c r="X54" s="17"/>
     </row>
-    <row r="55" spans="1:24" ht="244.5">
+    <row r="55" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A55" s="65" t="s">
         <v>184</v>
       </c>
@@ -11995,7 +11960,7 @@
       </c>
       <c r="X55" s="17"/>
     </row>
-    <row r="56" spans="1:24" ht="106.5">
+    <row r="56" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>189</v>
       </c>
@@ -12064,7 +12029,7 @@
       </c>
       <c r="X56" s="17"/>
     </row>
-    <row r="57" spans="1:24" ht="290.25">
+    <row r="57" spans="1:24" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>193</v>
       </c>
@@ -12136,7 +12101,7 @@
       </c>
       <c r="X57" s="17"/>
     </row>
-    <row r="58" spans="1:24" ht="106.5">
+    <row r="58" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>198</v>
       </c>
@@ -12208,7 +12173,7 @@
       </c>
       <c r="X58" s="17"/>
     </row>
-    <row r="59" spans="1:24" ht="336">
+    <row r="59" spans="1:24" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>203</v>
       </c>
@@ -12277,7 +12242,7 @@
       </c>
       <c r="X59" s="17"/>
     </row>
-    <row r="60" spans="1:24" ht="305.25">
+    <row r="60" spans="1:24" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>206</v>
       </c>
@@ -12346,7 +12311,7 @@
       </c>
       <c r="X60" s="17"/>
     </row>
-    <row r="61" spans="1:24" ht="305.25">
+    <row r="61" spans="1:24" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>210</v>
       </c>
@@ -12417,7 +12382,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="305.25">
+    <row r="62" spans="1:24" ht="288" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>214</v>
       </c>
@@ -12478,7 +12443,7 @@
       <c r="V62" s="17"/>
       <c r="X62" s="17"/>
     </row>
-    <row r="63" spans="1:24" ht="275.25">
+    <row r="63" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>216</v>
       </c>
@@ -12539,7 +12504,7 @@
       <c r="V63" s="17"/>
       <c r="X63" s="17"/>
     </row>
-    <row r="64" spans="1:24" ht="198">
+    <row r="64" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>218</v>
       </c>
@@ -12600,7 +12565,7 @@
       <c r="V64" s="17"/>
       <c r="X64" s="17"/>
     </row>
-    <row r="65" spans="1:24" ht="213">
+    <row r="65" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>220</v>
       </c>
@@ -12661,7 +12626,7 @@
       <c r="V65" s="17"/>
       <c r="X65" s="17"/>
     </row>
-    <row r="66" spans="1:24" ht="290.25">
+    <row r="66" spans="1:24" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>222</v>
       </c>
@@ -12722,7 +12687,7 @@
       <c r="V66" s="17"/>
       <c r="X66" s="17"/>
     </row>
-    <row r="67" spans="1:24" ht="244.5">
+    <row r="67" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>224</v>
       </c>
@@ -12783,7 +12748,7 @@
       <c r="V67" s="17"/>
       <c r="X67" s="17"/>
     </row>
-    <row r="68" spans="1:24" ht="321">
+    <row r="68" spans="1:24" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>226</v>
       </c>
@@ -12857,7 +12822,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="336">
+    <row r="69" spans="1:24" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>231</v>
       </c>
@@ -12929,7 +12894,7 @@
       </c>
       <c r="X69" s="17"/>
     </row>
-    <row r="70" spans="1:24" ht="336">
+    <row r="70" spans="1:24" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>236</v>
       </c>
@@ -13001,7 +12966,7 @@
       </c>
       <c r="X70" s="17"/>
     </row>
-    <row r="71" spans="1:24" ht="152.25">
+    <row r="71" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>240</v>
       </c>
@@ -13073,7 +13038,7 @@
       </c>
       <c r="X71" s="17"/>
     </row>
-    <row r="72" spans="1:24" ht="167.25">
+    <row r="72" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -13145,7 +13110,7 @@
       </c>
       <c r="X72" s="17"/>
     </row>
-    <row r="73" spans="1:24" ht="244.5">
+    <row r="73" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A73" s="65" t="s">
         <v>247</v>
       </c>
@@ -13217,7 +13182,7 @@
       </c>
       <c r="X73" s="17"/>
     </row>
-    <row r="74" spans="1:24" ht="290.25">
+    <row r="74" spans="1:24" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>251</v>
       </c>
@@ -13278,7 +13243,7 @@
       <c r="V74" s="17"/>
       <c r="X74" s="17"/>
     </row>
-    <row r="75" spans="1:24" ht="152.25">
+    <row r="75" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>253</v>
       </c>
@@ -13339,7 +13304,7 @@
       <c r="V75" s="17"/>
       <c r="X75" s="17"/>
     </row>
-    <row r="76" spans="1:24" ht="91.5">
+    <row r="76" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>255</v>
       </c>
@@ -13400,7 +13365,7 @@
       <c r="V76" s="17"/>
       <c r="X76" s="17"/>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>257</v>
       </c>
@@ -13428,7 +13393,7 @@
       <c r="W77" s="53"/>
       <c r="X77" s="17"/>
     </row>
-    <row r="78" spans="1:24" ht="213">
+    <row r="78" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>258</v>
       </c>
@@ -13489,7 +13454,7 @@
       <c r="V78" s="17"/>
       <c r="X78" s="17"/>
     </row>
-    <row r="79" spans="1:24" ht="213">
+    <row r="79" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>260</v>
       </c>
@@ -13550,7 +13515,7 @@
       <c r="V79" s="17"/>
       <c r="X79" s="17"/>
     </row>
-    <row r="80" spans="1:24" ht="244.5">
+    <row r="80" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>262</v>
       </c>
@@ -13611,7 +13576,7 @@
       <c r="V80" s="17"/>
       <c r="X80" s="17"/>
     </row>
-    <row r="81" spans="1:24" ht="259.5">
+    <row r="81" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>264</v>
       </c>
@@ -13672,7 +13637,7 @@
       <c r="V81" s="17"/>
       <c r="X81" s="17"/>
     </row>
-    <row r="82" spans="1:24" ht="259.5">
+    <row r="82" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>266</v>
       </c>
@@ -13733,7 +13698,7 @@
       <c r="V82" s="17"/>
       <c r="X82" s="17"/>
     </row>
-    <row r="83" spans="1:24" ht="259.5">
+    <row r="83" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>269</v>
       </c>
@@ -13794,7 +13759,7 @@
       <c r="V83" s="17"/>
       <c r="X83" s="17"/>
     </row>
-    <row r="84" spans="1:24" ht="183">
+    <row r="84" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>272</v>
       </c>
@@ -13855,7 +13820,7 @@
       <c r="V84" s="17"/>
       <c r="X84" s="17"/>
     </row>
-    <row r="85" spans="1:24" ht="259.5">
+    <row r="85" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>275</v>
       </c>
@@ -13916,7 +13881,7 @@
       <c r="V85" s="17"/>
       <c r="X85" s="17"/>
     </row>
-    <row r="86" spans="1:24" ht="198">
+    <row r="86" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>278</v>
       </c>
@@ -13977,7 +13942,7 @@
       <c r="V86" s="17"/>
       <c r="X86" s="17"/>
     </row>
-    <row r="87" spans="1:24" ht="229.5">
+    <row r="87" spans="1:24" ht="216" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>282</v>
       </c>
@@ -14038,7 +14003,7 @@
       <c r="V87" s="17"/>
       <c r="X87" s="17"/>
     </row>
-    <row r="88" spans="1:24" ht="167.25">
+    <row r="88" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>285</v>
       </c>
@@ -14099,7 +14064,7 @@
       <c r="V88" s="17"/>
       <c r="X88" s="17"/>
     </row>
-    <row r="89" spans="1:24" ht="183">
+    <row r="89" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>287</v>
       </c>
@@ -14160,7 +14125,7 @@
       <c r="V89" s="17"/>
       <c r="X89" s="17"/>
     </row>
-    <row r="90" spans="1:24" ht="275.25">
+    <row r="90" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>289</v>
       </c>
@@ -14221,7 +14186,7 @@
       <c r="V90" s="17"/>
       <c r="X90" s="17"/>
     </row>
-    <row r="91" spans="1:24" ht="275.25">
+    <row r="91" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>291</v>
       </c>
@@ -14282,7 +14247,7 @@
       <c r="V91" s="17"/>
       <c r="X91" s="17"/>
     </row>
-    <row r="92" spans="1:24" ht="275.25">
+    <row r="92" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>293</v>
       </c>
@@ -14343,7 +14308,7 @@
       <c r="V92" s="17"/>
       <c r="X92" s="17"/>
     </row>
-    <row r="93" spans="1:24" ht="213">
+    <row r="93" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>295</v>
       </c>
@@ -14404,7 +14369,7 @@
       <c r="V93" s="17"/>
       <c r="X93" s="17"/>
     </row>
-    <row r="94" spans="1:24" ht="198">
+    <row r="94" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>297</v>
       </c>
@@ -14465,7 +14430,7 @@
       <c r="V94" s="17"/>
       <c r="X94" s="17"/>
     </row>
-    <row r="95" spans="1:24" ht="198">
+    <row r="95" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>299</v>
       </c>
@@ -14526,7 +14491,7 @@
       <c r="V95" s="17"/>
       <c r="X95" s="17"/>
     </row>
-    <row r="96" spans="1:24" ht="275.25">
+    <row r="96" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>301</v>
       </c>
@@ -14587,7 +14552,7 @@
       <c r="V96" s="17"/>
       <c r="X96" s="17"/>
     </row>
-    <row r="97" spans="1:24" ht="275.25">
+    <row r="97" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>303</v>
       </c>
@@ -14648,7 +14613,7 @@
       <c r="V97" s="17"/>
       <c r="X97" s="17"/>
     </row>
-    <row r="98" spans="1:24" ht="198">
+    <row r="98" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>305</v>
       </c>
@@ -14709,7 +14674,7 @@
       <c r="V98" s="17"/>
       <c r="X98" s="17"/>
     </row>
-    <row r="99" spans="1:24" ht="259.5">
+    <row r="99" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>307</v>
       </c>
@@ -14770,7 +14735,7 @@
       <c r="V99" s="17"/>
       <c r="X99" s="17"/>
     </row>
-    <row r="100" spans="1:24" ht="290.25">
+    <row r="100" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>309</v>
       </c>
@@ -14831,7 +14796,7 @@
       <c r="V100" s="17"/>
       <c r="X100" s="17"/>
     </row>
-    <row r="101" spans="1:24" ht="213">
+    <row r="101" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>311</v>
       </c>
@@ -14892,7 +14857,7 @@
       <c r="V101" s="17"/>
       <c r="X101" s="17"/>
     </row>
-    <row r="102" spans="1:24" ht="290.25">
+    <row r="102" spans="1:24" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>313</v>
       </c>
@@ -14953,7 +14918,7 @@
       <c r="V102" s="17"/>
       <c r="X102" s="17"/>
     </row>
-    <row r="103" spans="1:24" ht="290.25">
+    <row r="103" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>315</v>
       </c>
@@ -15014,7 +14979,7 @@
       <c r="V103" s="17"/>
       <c r="X103" s="17"/>
     </row>
-    <row r="104" spans="1:24" ht="229.5">
+    <row r="104" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>317</v>
       </c>
@@ -15075,7 +15040,7 @@
       <c r="V104" s="17"/>
       <c r="X104" s="17"/>
     </row>
-    <row r="105" spans="1:24" ht="290.25">
+    <row r="105" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>319</v>
       </c>
@@ -15136,7 +15101,7 @@
       <c r="V105" s="17"/>
       <c r="X105" s="17"/>
     </row>
-    <row r="106" spans="1:24" ht="213">
+    <row r="106" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>322</v>
       </c>
@@ -15197,7 +15162,7 @@
       <c r="V106" s="17"/>
       <c r="X106" s="17"/>
     </row>
-    <row r="107" spans="1:24" ht="229.5">
+    <row r="107" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>324</v>
       </c>
@@ -15258,7 +15223,7 @@
       <c r="V107" s="17"/>
       <c r="X107" s="17"/>
     </row>
-    <row r="108" spans="1:24" ht="275.25">
+    <row r="108" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>326</v>
       </c>
@@ -15319,7 +15284,7 @@
       <c r="V108" s="17"/>
       <c r="X108" s="17"/>
     </row>
-    <row r="109" spans="1:24" ht="259.5">
+    <row r="109" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>328</v>
       </c>
@@ -15380,7 +15345,7 @@
       <c r="V109" s="17"/>
       <c r="X109" s="17"/>
     </row>
-    <row r="110" spans="1:24" ht="259.5">
+    <row r="110" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>330</v>
       </c>
@@ -15441,7 +15406,7 @@
       <c r="V110" s="17"/>
       <c r="X110" s="17"/>
     </row>
-    <row r="111" spans="1:24" ht="229.5">
+    <row r="111" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>333</v>
       </c>
@@ -15502,7 +15467,7 @@
       <c r="V111" s="58"/>
       <c r="X111" s="17"/>
     </row>
-    <row r="112" spans="1:24" ht="183">
+    <row r="112" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>335</v>
       </c>
@@ -15563,7 +15528,7 @@
       <c r="V112" s="58"/>
       <c r="X112" s="17"/>
     </row>
-    <row r="113" spans="1:24" ht="259.5">
+    <row r="113" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>337</v>
       </c>
@@ -15624,7 +15589,7 @@
       <c r="V113" s="58"/>
       <c r="X113" s="17"/>
     </row>
-    <row r="114" spans="1:24" ht="244.5">
+    <row r="114" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>339</v>
       </c>
@@ -15685,7 +15650,7 @@
       <c r="V114" s="58"/>
       <c r="X114" s="17"/>
     </row>
-    <row r="115" spans="1:24" ht="244.5">
+    <row r="115" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>341</v>
       </c>
@@ -15746,7 +15711,7 @@
       <c r="V115" s="58"/>
       <c r="X115" s="17"/>
     </row>
-    <row r="116" spans="1:24" ht="244.5">
+    <row r="116" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>343</v>
       </c>
@@ -15807,7 +15772,7 @@
       <c r="V116" s="95"/>
       <c r="X116" s="17"/>
     </row>
-    <row r="117" spans="1:24" ht="244.5">
+    <row r="117" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>345</v>
       </c>
@@ -15868,7 +15833,7 @@
       <c r="V117" s="17"/>
       <c r="X117" s="17"/>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>347</v>
       </c>
@@ -15896,7 +15861,7 @@
       <c r="W118" s="53"/>
       <c r="X118" s="17"/>
     </row>
-    <row r="119" spans="1:24" ht="60.75">
+    <row r="119" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>348</v>
       </c>
@@ -15957,7 +15922,7 @@
       <c r="V119" s="17"/>
       <c r="X119" s="17"/>
     </row>
-    <row r="120" spans="1:24" ht="60.75">
+    <row r="120" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>350</v>
       </c>
@@ -16018,7 +15983,7 @@
       <c r="V120" s="17"/>
       <c r="X120" s="17"/>
     </row>
-    <row r="121" spans="1:24" ht="60.75">
+    <row r="121" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>352</v>
       </c>
@@ -16079,7 +16044,7 @@
       <c r="V121" s="17"/>
       <c r="X121" s="17"/>
     </row>
-    <row r="122" spans="1:24" ht="60.75">
+    <row r="122" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>355</v>
       </c>
@@ -16140,7 +16105,7 @@
       <c r="V122" s="17"/>
       <c r="X122" s="17"/>
     </row>
-    <row r="123" spans="1:24" ht="60.75">
+    <row r="123" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>358</v>
       </c>
@@ -16201,7 +16166,7 @@
       <c r="V123" s="17"/>
       <c r="X123" s="17"/>
     </row>
-    <row r="124" spans="1:24" ht="60.75">
+    <row r="124" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>360</v>
       </c>
@@ -16262,7 +16227,7 @@
       <c r="V124" s="17"/>
       <c r="X124" s="17"/>
     </row>
-    <row r="125" spans="1:24" ht="60.75">
+    <row r="125" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>362</v>
       </c>
@@ -16323,7 +16288,7 @@
       <c r="V125" s="17"/>
       <c r="X125" s="17"/>
     </row>
-    <row r="126" spans="1:24" ht="60.75">
+    <row r="126" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>364</v>
       </c>
@@ -16384,7 +16349,7 @@
       <c r="V126" s="17"/>
       <c r="X126" s="17"/>
     </row>
-    <row r="127" spans="1:24" ht="60.75">
+    <row r="127" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>366</v>
       </c>
@@ -16445,7 +16410,7 @@
       <c r="V127" s="17"/>
       <c r="X127" s="17"/>
     </row>
-    <row r="128" spans="1:24" ht="60.75">
+    <row r="128" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>368</v>
       </c>
@@ -16506,7 +16471,7 @@
       <c r="V128" s="17"/>
       <c r="X128" s="17"/>
     </row>
-    <row r="129" spans="1:24" ht="60.75">
+    <row r="129" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>370</v>
       </c>
@@ -16567,7 +16532,7 @@
       <c r="V129" s="17"/>
       <c r="X129" s="17"/>
     </row>
-    <row r="130" spans="1:24" ht="60.75">
+    <row r="130" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>372</v>
       </c>
@@ -16628,7 +16593,7 @@
       <c r="V130" s="17"/>
       <c r="X130" s="17"/>
     </row>
-    <row r="131" spans="1:24" ht="60.75">
+    <row r="131" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>374</v>
       </c>
@@ -16689,7 +16654,7 @@
       <c r="V131" s="17"/>
       <c r="X131" s="17"/>
     </row>
-    <row r="132" spans="1:24" ht="60.75">
+    <row r="132" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>376</v>
       </c>
@@ -16750,7 +16715,7 @@
       <c r="V132" s="17"/>
       <c r="X132" s="17"/>
     </row>
-    <row r="133" spans="1:24" ht="60.75">
+    <row r="133" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>378</v>
       </c>
@@ -16811,7 +16776,7 @@
       <c r="V133" s="17"/>
       <c r="X133" s="17"/>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>381</v>
       </c>
@@ -16839,7 +16804,7 @@
       <c r="W134" s="54"/>
       <c r="X134" s="17"/>
     </row>
-    <row r="135" spans="1:24" ht="76.5">
+    <row r="135" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>382</v>
       </c>
@@ -16900,7 +16865,7 @@
       <c r="V135" s="17"/>
       <c r="X135" s="17"/>
     </row>
-    <row r="136" spans="1:24" ht="76.5">
+    <row r="136" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>384</v>
       </c>
@@ -16961,7 +16926,7 @@
       <c r="V136" s="17"/>
       <c r="X136" s="17"/>
     </row>
-    <row r="137" spans="1:24" ht="76.5">
+    <row r="137" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>386</v>
       </c>
@@ -17022,7 +16987,7 @@
       <c r="V137" s="17"/>
       <c r="X137" s="17"/>
     </row>
-    <row r="138" spans="1:24" ht="60.75">
+    <row r="138" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>388</v>
       </c>
@@ -17083,7 +17048,7 @@
       <c r="V138" s="17"/>
       <c r="X138" s="17"/>
     </row>
-    <row r="139" spans="1:24" ht="60.75">
+    <row r="139" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>390</v>
       </c>
@@ -17144,7 +17109,7 @@
       <c r="V139" s="17"/>
       <c r="X139" s="17"/>
     </row>
-    <row r="140" spans="1:24" ht="60.75">
+    <row r="140" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>392</v>
       </c>
@@ -17205,7 +17170,7 @@
       <c r="V140" s="24"/>
       <c r="X140" s="17"/>
     </row>
-    <row r="141" spans="1:24" ht="60.75">
+    <row r="141" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>394</v>
       </c>
@@ -17266,7 +17231,7 @@
       <c r="V141" s="17"/>
       <c r="X141" s="17"/>
     </row>
-    <row r="142" spans="1:24" ht="76.5">
+    <row r="142" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>396</v>
       </c>
@@ -17327,7 +17292,7 @@
       <c r="V142" s="17"/>
       <c r="X142" s="17"/>
     </row>
-    <row r="143" spans="1:24" ht="60.75">
+    <row r="143" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>398</v>
       </c>
@@ -17388,7 +17353,7 @@
       <c r="V143" s="17"/>
       <c r="X143" s="17"/>
     </row>
-    <row r="144" spans="1:24" ht="366">
+    <row r="144" spans="1:24" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>400</v>
       </c>
@@ -17449,7 +17414,7 @@
       <c r="V144" s="17"/>
       <c r="X144" s="17"/>
     </row>
-    <row r="145" spans="1:24" ht="351">
+    <row r="145" spans="1:24" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>402</v>
       </c>
@@ -17510,7 +17475,7 @@
       <c r="V145" s="17"/>
       <c r="X145" s="17"/>
     </row>
-    <row r="146" spans="1:24" ht="336">
+    <row r="146" spans="1:24" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>404</v>
       </c>
@@ -17571,7 +17536,7 @@
       <c r="V146" s="17"/>
       <c r="X146" s="17"/>
     </row>
-    <row r="147" spans="1:24" ht="351">
+    <row r="147" spans="1:24" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>406</v>
       </c>
@@ -17632,7 +17597,7 @@
       <c r="V147" s="17"/>
       <c r="X147" s="17"/>
     </row>
-    <row r="148" spans="1:24" ht="336">
+    <row r="148" spans="1:24" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>408</v>
       </c>
@@ -17693,7 +17658,7 @@
       <c r="V148" s="17"/>
       <c r="X148" s="17"/>
     </row>
-    <row r="149" spans="1:24" ht="336">
+    <row r="149" spans="1:24" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>410</v>
       </c>
@@ -17754,7 +17719,7 @@
       <c r="V149" s="17"/>
       <c r="X149" s="17"/>
     </row>
-    <row r="150" spans="1:24" ht="396.75">
+    <row r="150" spans="1:24" ht="360" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>412</v>
       </c>
@@ -17815,7 +17780,7 @@
       <c r="V150" s="17"/>
       <c r="X150" s="17"/>
     </row>
-    <row r="151" spans="1:24" ht="381.75">
+    <row r="151" spans="1:24" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>414</v>
       </c>
@@ -17876,7 +17841,7 @@
       <c r="V151" s="17"/>
       <c r="X151" s="17"/>
     </row>
-    <row r="152" spans="1:24" ht="381.75">
+    <row r="152" spans="1:24" ht="360" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>416</v>
       </c>
@@ -17939,7 +17904,7 @@
       <c r="V152" s="17"/>
       <c r="X152" s="17"/>
     </row>
-    <row r="153" spans="1:24" ht="321">
+    <row r="153" spans="1:24" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>418</v>
       </c>
@@ -18000,7 +17965,7 @@
       <c r="V153" s="17"/>
       <c r="X153" s="17"/>
     </row>
-    <row r="154" spans="1:24" ht="259.5">
+    <row r="154" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>420</v>
       </c>
@@ -18062,7 +18027,7 @@
       <c r="W154" s="67"/>
       <c r="X154" s="17"/>
     </row>
-    <row r="155" spans="1:24" ht="366">
+    <row r="155" spans="1:24" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>422</v>
       </c>
@@ -18123,7 +18088,7 @@
       <c r="V155" s="17"/>
       <c r="X155" s="17"/>
     </row>
-    <row r="156" spans="1:24" ht="244.5">
+    <row r="156" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>424</v>
       </c>
@@ -18184,7 +18149,7 @@
       <c r="V156" s="17"/>
       <c r="X156" s="17"/>
     </row>
-    <row r="157" spans="1:24" ht="275.25">
+    <row r="157" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>426</v>
       </c>
@@ -18245,7 +18210,7 @@
       <c r="V157" s="17"/>
       <c r="X157" s="17"/>
     </row>
-    <row r="158" spans="1:24" ht="244.5">
+    <row r="158" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>428</v>
       </c>
@@ -18306,7 +18271,7 @@
       <c r="V158" s="17"/>
       <c r="X158" s="17"/>
     </row>
-    <row r="159" spans="1:24" ht="244.5">
+    <row r="159" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>430</v>
       </c>
@@ -18367,7 +18332,7 @@
       <c r="V159" s="17"/>
       <c r="X159" s="17"/>
     </row>
-    <row r="160" spans="1:24" ht="244.5">
+    <row r="160" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>432</v>
       </c>
@@ -18428,7 +18393,7 @@
       <c r="V160" s="17"/>
       <c r="X160" s="17"/>
     </row>
-    <row r="161" spans="1:24" ht="244.5">
+    <row r="161" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>434</v>
       </c>
@@ -18489,7 +18454,7 @@
       <c r="V161" s="17"/>
       <c r="X161" s="17"/>
     </row>
-    <row r="162" spans="1:24" ht="167.25">
+    <row r="162" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>435</v>
       </c>
@@ -18550,7 +18515,7 @@
       <c r="V162" s="17"/>
       <c r="X162" s="17"/>
     </row>
-    <row r="163" spans="1:24" ht="152.25">
+    <row r="163" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>437</v>
       </c>
@@ -18611,7 +18576,7 @@
       <c r="V163" s="17"/>
       <c r="X163" s="17"/>
     </row>
-    <row r="164" spans="1:24" ht="106.5">
+    <row r="164" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>439</v>
       </c>
@@ -18672,7 +18637,7 @@
       <c r="V164" s="17"/>
       <c r="X164" s="17"/>
     </row>
-    <row r="165" spans="1:24" ht="396.75">
+    <row r="165" spans="1:24" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>441</v>
       </c>
@@ -18733,7 +18698,7 @@
       <c r="V165" s="17"/>
       <c r="X165" s="17"/>
     </row>
-    <row r="166" spans="1:24" ht="396.75">
+    <row r="166" spans="1:24" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>443</v>
       </c>
@@ -18794,7 +18759,7 @@
       <c r="V166" s="17"/>
       <c r="X166" s="17"/>
     </row>
-    <row r="167" spans="1:24" ht="381.75">
+    <row r="167" spans="1:24" ht="360" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>445</v>
       </c>
@@ -18855,7 +18820,7 @@
       <c r="V167" s="17"/>
       <c r="X167" s="17"/>
     </row>
-    <row r="168" spans="1:24" ht="198">
+    <row r="168" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>447</v>
       </c>
@@ -18916,7 +18881,7 @@
       <c r="V168" s="17"/>
       <c r="X168" s="17"/>
     </row>
-    <row r="169" spans="1:24" ht="167.25">
+    <row r="169" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>449</v>
       </c>
@@ -18977,7 +18942,7 @@
       <c r="V169" s="17"/>
       <c r="X169" s="17"/>
     </row>
-    <row r="170" spans="1:24" ht="183">
+    <row r="170" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>451</v>
       </c>
@@ -19038,7 +19003,7 @@
       <c r="V170" s="17"/>
       <c r="X170" s="17"/>
     </row>
-    <row r="171" spans="1:24" ht="213">
+    <row r="171" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>453</v>
       </c>
@@ -19099,7 +19064,7 @@
       <c r="V171" s="17"/>
       <c r="X171" s="17"/>
     </row>
-    <row r="172" spans="1:24" ht="152.25">
+    <row r="172" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>455</v>
       </c>
@@ -19160,7 +19125,7 @@
       <c r="V172" s="17"/>
       <c r="X172" s="17"/>
     </row>
-    <row r="173" spans="1:24" ht="167.25">
+    <row r="173" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>457</v>
       </c>
@@ -19221,7 +19186,7 @@
       <c r="V173" s="17"/>
       <c r="X173" s="17"/>
     </row>
-    <row r="174" spans="1:24" ht="121.5">
+    <row r="174" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>459</v>
       </c>
@@ -19283,18 +19248,18 @@
       <c r="X174" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertColumns="0"/>
+  <sheetProtection insertColumns="0"/>
   <protectedRanges>
     <protectedRange sqref="S4:X174" name="Range1"/>
   </protectedRanges>
-  <conditionalFormatting sqref="S4:S19 S135:S174 S119:S133 S78:S117 S21:S26 S53:S68 S28:S51 S71:S76">
-    <cfRule type="containsText" dxfId="159" priority="5" operator="containsText" text="Blocked">
+  <conditionalFormatting sqref="S4:S19 S21:S26 S28:S51 S53:S68 S71:S76 S78:S117 S119:S133 S135:S174">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH("Blocked",S4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",S4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",S4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19311,17 +19276,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7">
-    <cfRule type="containsText" dxfId="156" priority="1" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH("Blocked",T7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",T7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",T7)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -19356,39 +19319,39 @@
       <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="22" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="22" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="25.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="48.5703125" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.109375" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" customWidth="1"/>
+    <col min="18" max="18" width="48.5546875" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="35" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="31.5703125" style="78" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="31.5546875" style="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="76.5">
+    <row r="2" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -19459,7 +19422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="137.25">
+    <row r="3" spans="1:23" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
         <v>465</v>
       </c>
@@ -19528,7 +19491,7 @@
       </c>
       <c r="W3" s="15"/>
     </row>
-    <row r="4" spans="1:23" ht="106.5">
+    <row r="4" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="74" t="s">
         <v>469</v>
       </c>
@@ -19599,7 +19562,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="137.25">
+    <row r="5" spans="1:23" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
         <v>474</v>
       </c>
@@ -19668,7 +19631,7 @@
       </c>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="137.25">
+    <row r="6" spans="1:23" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
         <v>477</v>
       </c>
@@ -19737,7 +19700,7 @@
       </c>
       <c r="W6" s="15"/>
     </row>
-    <row r="7" spans="1:23" ht="137.25">
+    <row r="7" spans="1:23" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
         <v>479</v>
       </c>
@@ -19806,7 +19769,7 @@
       </c>
       <c r="W7" s="15"/>
     </row>
-    <row r="8" spans="1:23" ht="259.5">
+    <row r="8" spans="1:23" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A8" s="74" t="s">
         <v>482</v>
       </c>
@@ -19877,7 +19840,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="336">
+    <row r="9" spans="1:23" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
         <v>486</v>
       </c>
@@ -19946,7 +19909,7 @@
       </c>
       <c r="W9" s="15"/>
     </row>
-    <row r="10" spans="1:23" ht="213">
+    <row r="10" spans="1:23" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A10" s="74" t="s">
         <v>488</v>
       </c>
@@ -20015,7 +19978,7 @@
       </c>
       <c r="W10" s="15"/>
     </row>
-    <row r="11" spans="1:23" ht="336">
+    <row r="11" spans="1:23" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A11" s="74" t="s">
         <v>491</v>
       </c>
@@ -20084,7 +20047,7 @@
       </c>
       <c r="W11" s="15"/>
     </row>
-    <row r="12" spans="1:23" ht="275.25">
+    <row r="12" spans="1:23" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
         <v>493</v>
       </c>
@@ -20153,7 +20116,7 @@
       </c>
       <c r="W12" s="15"/>
     </row>
-    <row r="13" spans="1:23" ht="259.5">
+    <row r="13" spans="1:23" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
         <v>496</v>
       </c>
@@ -20222,7 +20185,7 @@
       </c>
       <c r="W13" s="15"/>
     </row>
-    <row r="14" spans="1:23" ht="396.75">
+    <row r="14" spans="1:23" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A14" s="74" t="s">
         <v>499</v>
       </c>
@@ -20291,7 +20254,7 @@
       </c>
       <c r="W14" s="15"/>
     </row>
-    <row r="15" spans="1:23" ht="259.5">
+    <row r="15" spans="1:23" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A15" s="74" t="s">
         <v>501</v>
       </c>
@@ -20360,7 +20323,7 @@
       </c>
       <c r="W15" s="15"/>
     </row>
-    <row r="16" spans="1:23" ht="275.25">
+    <row r="16" spans="1:23" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A16" s="74" t="s">
         <v>504</v>
       </c>
@@ -20429,7 +20392,7 @@
       </c>
       <c r="W16" s="15"/>
     </row>
-    <row r="17" spans="1:23" ht="244.5">
+    <row r="17" spans="1:23" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
         <v>506</v>
       </c>
@@ -20498,7 +20461,7 @@
       </c>
       <c r="W17" s="15"/>
     </row>
-    <row r="18" spans="1:23" ht="91.5">
+    <row r="18" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="75" t="s">
         <v>508</v>
       </c>
@@ -20563,7 +20526,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="91.5">
+    <row r="19" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="75" t="s">
         <v>511</v>
       </c>
@@ -20628,7 +20591,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="76.5">
+    <row r="20" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="75" t="s">
         <v>513</v>
       </c>
@@ -20693,7 +20656,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="76.5">
+    <row r="21" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="75" t="s">
         <v>515</v>
       </c>
@@ -20758,7 +20721,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="91.5">
+    <row r="22" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="75" t="s">
         <v>517</v>
       </c>
@@ -20823,7 +20786,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="91.5">
+    <row r="23" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="75" t="s">
         <v>519</v>
       </c>
@@ -20888,7 +20851,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="91.5">
+    <row r="24" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="75" t="s">
         <v>521</v>
       </c>
@@ -20953,7 +20916,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="91.5">
+    <row r="25" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="75" t="s">
         <v>523</v>
       </c>
@@ -21018,7 +20981,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="336">
+    <row r="26" spans="1:23" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A26" s="74" t="s">
         <v>525</v>
       </c>
@@ -21087,7 +21050,7 @@
       </c>
       <c r="W26" s="15"/>
     </row>
-    <row r="27" spans="1:23" ht="229.5">
+    <row r="27" spans="1:23" ht="216" x14ac:dyDescent="0.3">
       <c r="A27" s="74" t="s">
         <v>529</v>
       </c>
@@ -21156,7 +21119,7 @@
       </c>
       <c r="W27" s="15"/>
     </row>
-    <row r="28" spans="1:23" ht="336">
+    <row r="28" spans="1:23" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A28" s="74" t="s">
         <v>533</v>
       </c>
@@ -21221,7 +21184,7 @@
       <c r="V28" s="17"/>
       <c r="W28" s="15"/>
     </row>
-    <row r="29" spans="1:23" ht="351">
+    <row r="29" spans="1:23" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A29" s="74" t="s">
         <v>536</v>
       </c>
@@ -21286,7 +21249,7 @@
       <c r="V29" s="17"/>
       <c r="W29" s="15"/>
     </row>
-    <row r="30" spans="1:23" ht="366">
+    <row r="30" spans="1:23" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A30" s="74" t="s">
         <v>541</v>
       </c>
@@ -21351,7 +21314,7 @@
       <c r="V30" s="17"/>
       <c r="W30" s="15"/>
     </row>
-    <row r="31" spans="1:23" ht="336">
+    <row r="31" spans="1:23" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A31" s="74" t="s">
         <v>546</v>
       </c>
@@ -21420,7 +21383,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="E32" s="14"/>
       <c r="R32" s="15"/>
@@ -21436,20 +21399,18 @@
     <protectedRange sqref="S3:W31" name="Range1"/>
   </protectedRanges>
   <conditionalFormatting sqref="S3:S32">
-    <cfRule type="containsText" dxfId="140" priority="1" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="2" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH("Blocked",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="3" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="4" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",S3)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S32">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -21482,39 +21443,39 @@
       <selection pane="bottomLeft" activeCell="V58" sqref="V58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="22" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" style="22" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" customWidth="1"/>
     <col min="18" max="18" width="52" style="16" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" style="16" customWidth="1"/>
-    <col min="20" max="20" width="44.140625" style="16" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="16" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="16" customWidth="1"/>
-    <col min="23" max="23" width="26.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" style="16" customWidth="1"/>
+    <col min="20" max="20" width="44.109375" style="16" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" style="16" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" style="16" customWidth="1"/>
+    <col min="23" max="23" width="26.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="106.5">
+    <row r="2" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -21588,7 +21549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -21616,7 +21577,7 @@
       <c r="W3" s="53"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:24" ht="137.25">
+    <row r="4" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
         <v>26</v>
       </c>
@@ -21677,7 +21638,7 @@
       <c r="V4" s="17"/>
       <c r="X4" s="17"/>
     </row>
-    <row r="5" spans="1:24" ht="60.75">
+    <row r="5" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>37</v>
       </c>
@@ -21738,7 +21699,7 @@
       <c r="V5" s="17"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:24" ht="60.75">
+    <row r="6" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -21799,7 +21760,7 @@
       <c r="V6" s="17"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:24" ht="137.25">
+    <row r="7" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -21861,7 +21822,7 @@
       <c r="W7" s="61"/>
       <c r="X7" s="17"/>
     </row>
-    <row r="8" spans="1:24" ht="137.25">
+    <row r="8" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -21923,7 +21884,7 @@
       <c r="W8" s="61"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:24" ht="60.75">
+    <row r="9" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -21984,7 +21945,7 @@
       <c r="V9" s="17"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:24" ht="152.25">
+    <row r="10" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -22046,7 +22007,7 @@
       <c r="W10" s="61"/>
       <c r="X10" s="17"/>
     </row>
-    <row r="11" spans="1:24" ht="137.25">
+    <row r="11" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -22107,7 +22068,7 @@
       <c r="V11" s="17"/>
       <c r="X11" s="17"/>
     </row>
-    <row r="12" spans="1:24" ht="60.75">
+    <row r="12" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -22168,7 +22129,7 @@
       <c r="V12" s="17"/>
       <c r="X12" s="17"/>
     </row>
-    <row r="13" spans="1:24" ht="60.75">
+    <row r="13" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -22229,7 +22190,7 @@
       <c r="V13" s="17"/>
       <c r="X13" s="17"/>
     </row>
-    <row r="14" spans="1:24" ht="60.75">
+    <row r="14" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -22290,7 +22251,7 @@
       <c r="V14" s="17"/>
       <c r="X14" s="17"/>
     </row>
-    <row r="15" spans="1:24" ht="60.75">
+    <row r="15" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -22351,7 +22312,7 @@
       <c r="V15" s="17"/>
       <c r="X15" s="17"/>
     </row>
-    <row r="16" spans="1:24" ht="60.75">
+    <row r="16" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -22412,7 +22373,7 @@
       <c r="V16" s="17"/>
       <c r="X16" s="17"/>
     </row>
-    <row r="17" spans="1:24" ht="137.25">
+    <row r="17" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
@@ -22473,7 +22434,7 @@
       <c r="V17" s="17"/>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:24" ht="60.75">
+    <row r="18" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -22534,7 +22495,7 @@
       <c r="V18" s="17"/>
       <c r="X18" s="17"/>
     </row>
-    <row r="19" spans="1:24" ht="229.5">
+    <row r="19" spans="1:24" ht="216" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -22595,7 +22556,7 @@
       <c r="V19" s="17"/>
       <c r="X19" s="17"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
@@ -22623,7 +22584,7 @@
       <c r="W20" s="53"/>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" spans="1:24" ht="167.25">
+    <row r="21" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
@@ -22684,7 +22645,7 @@
       <c r="V21" s="17"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" spans="1:24" ht="167.25">
+    <row r="22" spans="1:24" ht="158.4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
@@ -22745,7 +22706,7 @@
       <c r="V22" s="17"/>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:24" ht="167.25">
+    <row r="23" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
@@ -22806,7 +22767,7 @@
       <c r="V23" s="17"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" spans="1:24" ht="167.25">
+    <row r="24" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -22867,7 +22828,7 @@
       <c r="V24" s="17"/>
       <c r="X24" s="17"/>
     </row>
-    <row r="25" spans="1:24" ht="167.25">
+    <row r="25" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
@@ -22928,7 +22889,7 @@
       <c r="V25" s="17"/>
       <c r="X25" s="17"/>
     </row>
-    <row r="26" spans="1:24" ht="183">
+    <row r="26" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>95</v>
       </c>
@@ -22989,7 +22950,7 @@
       <c r="V26" s="17"/>
       <c r="X26" s="17"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
@@ -23017,7 +22978,7 @@
       <c r="W27" s="53"/>
       <c r="X27" s="17"/>
     </row>
-    <row r="28" spans="1:24" ht="137.25">
+    <row r="28" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>98</v>
       </c>
@@ -23078,7 +23039,7 @@
       <c r="V28" s="58"/>
       <c r="X28" s="17"/>
     </row>
-    <row r="29" spans="1:24" ht="137.25">
+    <row r="29" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>101</v>
       </c>
@@ -23139,7 +23100,7 @@
       <c r="V29" s="58"/>
       <c r="X29" s="17"/>
     </row>
-    <row r="30" spans="1:24" ht="152.25">
+    <row r="30" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
@@ -23202,7 +23163,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="152.25">
+    <row r="31" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
@@ -23265,7 +23226,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="152.25">
+    <row r="32" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>114</v>
       </c>
@@ -23328,7 +23289,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="137.25">
+    <row r="33" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>118</v>
       </c>
@@ -23389,7 +23350,7 @@
       <c r="V33" s="58"/>
       <c r="X33" s="17"/>
     </row>
-    <row r="34" spans="1:24" ht="183">
+    <row r="34" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>125</v>
       </c>
@@ -23450,7 +23411,7 @@
       <c r="V34" s="58"/>
       <c r="X34" s="17"/>
     </row>
-    <row r="35" spans="1:24" ht="198">
+    <row r="35" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A35" s="64" t="s">
         <v>129</v>
       </c>
@@ -23511,7 +23472,7 @@
       <c r="V35" s="58"/>
       <c r="X35" s="17"/>
     </row>
-    <row r="36" spans="1:24" ht="183">
+    <row r="36" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>132</v>
       </c>
@@ -23573,7 +23534,7 @@
       <c r="W36" s="79"/>
       <c r="X36" s="17"/>
     </row>
-    <row r="37" spans="1:24" ht="183">
+    <row r="37" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>135</v>
       </c>
@@ -23636,7 +23597,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="167.25">
+    <row r="38" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>138</v>
       </c>
@@ -23697,7 +23658,7 @@
       <c r="V38" s="58"/>
       <c r="X38" s="17"/>
     </row>
-    <row r="39" spans="1:24" ht="167.25">
+    <row r="39" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A39" s="64" t="s">
         <v>140</v>
       </c>
@@ -23758,7 +23719,7 @@
       <c r="V39" s="58"/>
       <c r="X39" s="17"/>
     </row>
-    <row r="40" spans="1:24" ht="137.25">
+    <row r="40" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
@@ -23819,7 +23780,7 @@
       <c r="V40" s="17"/>
       <c r="X40" s="17"/>
     </row>
-    <row r="41" spans="1:24" ht="137.25">
+    <row r="41" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>145</v>
       </c>
@@ -23880,7 +23841,7 @@
       <c r="V41" s="17"/>
       <c r="X41" s="17"/>
     </row>
-    <row r="42" spans="1:24" ht="137.25">
+    <row r="42" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>147</v>
       </c>
@@ -23941,7 +23902,7 @@
       <c r="V42" s="17"/>
       <c r="X42" s="17"/>
     </row>
-    <row r="43" spans="1:24" ht="137.25">
+    <row r="43" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>149</v>
       </c>
@@ -24002,7 +23963,7 @@
       <c r="V43" s="17"/>
       <c r="X43" s="17"/>
     </row>
-    <row r="44" spans="1:24" ht="121.5">
+    <row r="44" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>151</v>
       </c>
@@ -24063,7 +24024,7 @@
       <c r="V44" s="17"/>
       <c r="X44" s="17"/>
     </row>
-    <row r="45" spans="1:24" ht="137.25">
+    <row r="45" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>153</v>
       </c>
@@ -24124,7 +24085,7 @@
       <c r="V45" s="17"/>
       <c r="X45" s="17"/>
     </row>
-    <row r="46" spans="1:24" ht="152.25">
+    <row r="46" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>157</v>
       </c>
@@ -24185,7 +24146,7 @@
       <c r="V46" s="17"/>
       <c r="X46" s="17"/>
     </row>
-    <row r="47" spans="1:24" ht="183">
+    <row r="47" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="s">
         <v>160</v>
       </c>
@@ -24246,7 +24207,7 @@
       <c r="V47" s="17"/>
       <c r="X47" s="17"/>
     </row>
-    <row r="48" spans="1:24" ht="198">
+    <row r="48" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>164</v>
       </c>
@@ -24309,7 +24270,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="183">
+    <row r="49" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>167</v>
       </c>
@@ -24370,7 +24331,7 @@
       <c r="V49" s="17"/>
       <c r="X49" s="17"/>
     </row>
-    <row r="50" spans="1:24" ht="183">
+    <row r="50" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>169</v>
       </c>
@@ -24431,7 +24392,7 @@
       <c r="V50" s="17"/>
       <c r="X50" s="17"/>
     </row>
-    <row r="51" spans="1:24" ht="152.25">
+    <row r="51" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A51" s="64" t="s">
         <v>171</v>
       </c>
@@ -24492,7 +24453,7 @@
       <c r="V51" s="17"/>
       <c r="X51" s="17"/>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>173</v>
       </c>
@@ -24520,7 +24481,7 @@
       <c r="W52" s="53"/>
       <c r="X52" s="17"/>
     </row>
-    <row r="53" spans="1:24" ht="137.25">
+    <row r="53" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>174</v>
       </c>
@@ -24581,7 +24542,7 @@
       <c r="V53" s="17"/>
       <c r="X53" s="17"/>
     </row>
-    <row r="54" spans="1:24" ht="137.25">
+    <row r="54" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>179</v>
       </c>
@@ -24642,7 +24603,7 @@
       <c r="V54" s="17"/>
       <c r="X54" s="17"/>
     </row>
-    <row r="55" spans="1:24" ht="244.5">
+    <row r="55" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A55" s="65" t="s">
         <v>184</v>
       </c>
@@ -24711,7 +24672,7 @@
       </c>
       <c r="X55" s="17"/>
     </row>
-    <row r="56" spans="1:24" ht="106.5">
+    <row r="56" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>189</v>
       </c>
@@ -24780,7 +24741,7 @@
       </c>
       <c r="X56" s="17"/>
     </row>
-    <row r="57" spans="1:24" ht="305.25">
+    <row r="57" spans="1:24" ht="288" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>193</v>
       </c>
@@ -24849,7 +24810,7 @@
       </c>
       <c r="X57" s="17"/>
     </row>
-    <row r="58" spans="1:24" ht="106.5">
+    <row r="58" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>198</v>
       </c>
@@ -24910,7 +24871,7 @@
       <c r="V58" s="17"/>
       <c r="X58" s="17"/>
     </row>
-    <row r="59" spans="1:24" ht="336">
+    <row r="59" spans="1:24" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>203</v>
       </c>
@@ -24971,7 +24932,7 @@
       <c r="V59" s="17"/>
       <c r="X59" s="17"/>
     </row>
-    <row r="60" spans="1:24" ht="305.25">
+    <row r="60" spans="1:24" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>206</v>
       </c>
@@ -25032,7 +24993,7 @@
       <c r="V60" s="62"/>
       <c r="X60" s="17"/>
     </row>
-    <row r="61" spans="1:24" ht="305.25">
+    <row r="61" spans="1:24" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>210</v>
       </c>
@@ -25095,7 +25056,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="305.25">
+    <row r="62" spans="1:24" ht="288" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>214</v>
       </c>
@@ -25156,7 +25117,7 @@
       <c r="V62" s="17"/>
       <c r="X62" s="17"/>
     </row>
-    <row r="63" spans="1:24" ht="275.25">
+    <row r="63" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>216</v>
       </c>
@@ -25217,7 +25178,7 @@
       <c r="V63" s="17"/>
       <c r="X63" s="17"/>
     </row>
-    <row r="64" spans="1:24" ht="198">
+    <row r="64" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>218</v>
       </c>
@@ -25278,7 +25239,7 @@
       <c r="V64" s="17"/>
       <c r="X64" s="17"/>
     </row>
-    <row r="65" spans="1:24" ht="213">
+    <row r="65" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>220</v>
       </c>
@@ -25339,7 +25300,7 @@
       <c r="V65" s="17"/>
       <c r="X65" s="17"/>
     </row>
-    <row r="66" spans="1:24" ht="290.25">
+    <row r="66" spans="1:24" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>222</v>
       </c>
@@ -25400,7 +25361,7 @@
       <c r="V66" s="17"/>
       <c r="X66" s="17"/>
     </row>
-    <row r="67" spans="1:24" ht="244.5">
+    <row r="67" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>224</v>
       </c>
@@ -25461,7 +25422,7 @@
       <c r="V67" s="17"/>
       <c r="X67" s="17"/>
     </row>
-    <row r="68" spans="1:24" ht="259.5">
+    <row r="68" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>226</v>
       </c>
@@ -25524,7 +25485,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="244.5">
+    <row r="69" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>231</v>
       </c>
@@ -25585,7 +25546,7 @@
       <c r="V69" s="17"/>
       <c r="X69" s="17"/>
     </row>
-    <row r="70" spans="1:24" ht="229.5">
+    <row r="70" spans="1:24" ht="216" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>236</v>
       </c>
@@ -25646,7 +25607,7 @@
       <c r="V70" s="17"/>
       <c r="X70" s="17"/>
     </row>
-    <row r="71" spans="1:24" ht="152.25">
+    <row r="71" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>240</v>
       </c>
@@ -25707,7 +25668,7 @@
       <c r="V71" s="17"/>
       <c r="X71" s="17"/>
     </row>
-    <row r="72" spans="1:24" ht="167.25">
+    <row r="72" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -25768,7 +25729,7 @@
       <c r="V72" s="17"/>
       <c r="X72" s="17"/>
     </row>
-    <row r="73" spans="1:24" ht="244.5">
+    <row r="73" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A73" s="65" t="s">
         <v>247</v>
       </c>
@@ -25829,7 +25790,7 @@
       <c r="V73" s="17"/>
       <c r="X73" s="17"/>
     </row>
-    <row r="74" spans="1:24" ht="290.25">
+    <row r="74" spans="1:24" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>251</v>
       </c>
@@ -25890,7 +25851,7 @@
       <c r="V74" s="17"/>
       <c r="X74" s="17"/>
     </row>
-    <row r="75" spans="1:24" ht="152.25">
+    <row r="75" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>253</v>
       </c>
@@ -25951,7 +25912,7 @@
       <c r="V75" s="17"/>
       <c r="X75" s="17"/>
     </row>
-    <row r="76" spans="1:24" ht="91.5">
+    <row r="76" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>255</v>
       </c>
@@ -26012,7 +25973,7 @@
       <c r="V76" s="17"/>
       <c r="X76" s="17"/>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>257</v>
       </c>
@@ -26040,7 +26001,7 @@
       <c r="W77" s="53"/>
       <c r="X77" s="17"/>
     </row>
-    <row r="78" spans="1:24" ht="213">
+    <row r="78" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>258</v>
       </c>
@@ -26101,7 +26062,7 @@
       <c r="V78" s="17"/>
       <c r="X78" s="17"/>
     </row>
-    <row r="79" spans="1:24" ht="213">
+    <row r="79" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>260</v>
       </c>
@@ -26162,7 +26123,7 @@
       <c r="V79" s="17"/>
       <c r="X79" s="17"/>
     </row>
-    <row r="80" spans="1:24" ht="244.5">
+    <row r="80" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>262</v>
       </c>
@@ -26226,7 +26187,7 @@
       </c>
       <c r="X80" s="17"/>
     </row>
-    <row r="81" spans="1:24" ht="259.5">
+    <row r="81" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>264</v>
       </c>
@@ -26287,7 +26248,7 @@
       <c r="V81" s="17"/>
       <c r="X81" s="17"/>
     </row>
-    <row r="82" spans="1:24" ht="259.5">
+    <row r="82" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>266</v>
       </c>
@@ -26348,7 +26309,7 @@
       <c r="V82" s="17"/>
       <c r="X82" s="17"/>
     </row>
-    <row r="83" spans="1:24" ht="259.5">
+    <row r="83" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>269</v>
       </c>
@@ -26409,7 +26370,7 @@
       <c r="V83" s="17"/>
       <c r="X83" s="17"/>
     </row>
-    <row r="84" spans="1:24" ht="183">
+    <row r="84" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>272</v>
       </c>
@@ -26470,7 +26431,7 @@
       <c r="V84" s="17"/>
       <c r="X84" s="17"/>
     </row>
-    <row r="85" spans="1:24" ht="259.5">
+    <row r="85" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>275</v>
       </c>
@@ -26531,7 +26492,7 @@
       <c r="V85" s="17"/>
       <c r="X85" s="17"/>
     </row>
-    <row r="86" spans="1:24" ht="198">
+    <row r="86" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>278</v>
       </c>
@@ -26592,7 +26553,7 @@
       <c r="V86" s="17"/>
       <c r="X86" s="17"/>
     </row>
-    <row r="87" spans="1:24" ht="229.5">
+    <row r="87" spans="1:24" ht="216" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>282</v>
       </c>
@@ -26653,7 +26614,7 @@
       <c r="V87" s="17"/>
       <c r="X87" s="17"/>
     </row>
-    <row r="88" spans="1:24" ht="167.25">
+    <row r="88" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>285</v>
       </c>
@@ -26714,7 +26675,7 @@
       <c r="V88" s="17"/>
       <c r="X88" s="17"/>
     </row>
-    <row r="89" spans="1:24" ht="183">
+    <row r="89" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>287</v>
       </c>
@@ -26775,7 +26736,7 @@
       <c r="V89" s="17"/>
       <c r="X89" s="17"/>
     </row>
-    <row r="90" spans="1:24" ht="275.25">
+    <row r="90" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>289</v>
       </c>
@@ -26836,7 +26797,7 @@
       <c r="V90" s="17"/>
       <c r="X90" s="17"/>
     </row>
-    <row r="91" spans="1:24" ht="275.25">
+    <row r="91" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>291</v>
       </c>
@@ -26897,7 +26858,7 @@
       <c r="V91" s="17"/>
       <c r="X91" s="17"/>
     </row>
-    <row r="92" spans="1:24" ht="275.25">
+    <row r="92" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>293</v>
       </c>
@@ -26962,7 +26923,7 @@
       <c r="V92" s="17"/>
       <c r="X92" s="17"/>
     </row>
-    <row r="93" spans="1:24" ht="213">
+    <row r="93" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>295</v>
       </c>
@@ -27025,7 +26986,7 @@
       <c r="V93" s="17"/>
       <c r="X93" s="17"/>
     </row>
-    <row r="94" spans="1:24" ht="198">
+    <row r="94" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>297</v>
       </c>
@@ -27086,7 +27047,7 @@
       <c r="V94" s="17"/>
       <c r="X94" s="17"/>
     </row>
-    <row r="95" spans="1:24" ht="198">
+    <row r="95" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>299</v>
       </c>
@@ -27149,7 +27110,7 @@
       <c r="V95" s="17"/>
       <c r="X95" s="17"/>
     </row>
-    <row r="96" spans="1:24" ht="275.25">
+    <row r="96" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>301</v>
       </c>
@@ -27210,7 +27171,7 @@
       <c r="V96" s="17"/>
       <c r="X96" s="17"/>
     </row>
-    <row r="97" spans="1:24" ht="275.25">
+    <row r="97" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>303</v>
       </c>
@@ -27273,7 +27234,7 @@
       <c r="V97" s="17"/>
       <c r="X97" s="17"/>
     </row>
-    <row r="98" spans="1:24" ht="198">
+    <row r="98" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>305</v>
       </c>
@@ -27334,7 +27295,7 @@
       <c r="V98" s="17"/>
       <c r="X98" s="17"/>
     </row>
-    <row r="99" spans="1:24" ht="259.5">
+    <row r="99" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>307</v>
       </c>
@@ -27395,7 +27356,7 @@
       <c r="V99" s="17"/>
       <c r="X99" s="17"/>
     </row>
-    <row r="100" spans="1:24" ht="290.25">
+    <row r="100" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>309</v>
       </c>
@@ -27456,7 +27417,7 @@
       <c r="V100" s="17"/>
       <c r="X100" s="17"/>
     </row>
-    <row r="101" spans="1:24" ht="213">
+    <row r="101" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>311</v>
       </c>
@@ -27517,7 +27478,7 @@
       <c r="V101" s="17"/>
       <c r="X101" s="17"/>
     </row>
-    <row r="102" spans="1:24" ht="290.25">
+    <row r="102" spans="1:24" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>313</v>
       </c>
@@ -27578,7 +27539,7 @@
       <c r="V102" s="17"/>
       <c r="X102" s="17"/>
     </row>
-    <row r="103" spans="1:24" ht="290.25">
+    <row r="103" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>315</v>
       </c>
@@ -27639,7 +27600,7 @@
       <c r="V103" s="17"/>
       <c r="X103" s="17"/>
     </row>
-    <row r="104" spans="1:24" ht="229.5">
+    <row r="104" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>317</v>
       </c>
@@ -27700,7 +27661,7 @@
       <c r="V104" s="17"/>
       <c r="X104" s="17"/>
     </row>
-    <row r="105" spans="1:24" ht="290.25">
+    <row r="105" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>319</v>
       </c>
@@ -27761,7 +27722,7 @@
       <c r="V105" s="17"/>
       <c r="X105" s="17"/>
     </row>
-    <row r="106" spans="1:24" ht="213">
+    <row r="106" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>322</v>
       </c>
@@ -27822,7 +27783,7 @@
       <c r="V106" s="17"/>
       <c r="X106" s="17"/>
     </row>
-    <row r="107" spans="1:24" ht="229.5">
+    <row r="107" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>324</v>
       </c>
@@ -27883,7 +27844,7 @@
       <c r="V107" s="17"/>
       <c r="X107" s="17"/>
     </row>
-    <row r="108" spans="1:24" ht="275.25">
+    <row r="108" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>326</v>
       </c>
@@ -27944,7 +27905,7 @@
       <c r="V108" s="17"/>
       <c r="X108" s="17"/>
     </row>
-    <row r="109" spans="1:24" ht="259.5">
+    <row r="109" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>328</v>
       </c>
@@ -28007,7 +27968,7 @@
       <c r="V109" s="17"/>
       <c r="X109" s="17"/>
     </row>
-    <row r="110" spans="1:24" ht="259.5">
+    <row r="110" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>330</v>
       </c>
@@ -28068,7 +28029,7 @@
       <c r="V110" s="17"/>
       <c r="X110" s="17"/>
     </row>
-    <row r="111" spans="1:24" ht="229.5">
+    <row r="111" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>333</v>
       </c>
@@ -28129,7 +28090,7 @@
       <c r="V111" s="17"/>
       <c r="X111" s="17"/>
     </row>
-    <row r="112" spans="1:24" ht="183">
+    <row r="112" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>335</v>
       </c>
@@ -28190,7 +28151,7 @@
       <c r="V112" s="17"/>
       <c r="X112" s="17"/>
     </row>
-    <row r="113" spans="1:24" ht="259.5">
+    <row r="113" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>337</v>
       </c>
@@ -28251,7 +28212,7 @@
       <c r="V113" s="17"/>
       <c r="X113" s="17"/>
     </row>
-    <row r="114" spans="1:24" ht="244.5">
+    <row r="114" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>339</v>
       </c>
@@ -28312,7 +28273,7 @@
       <c r="V114" s="17"/>
       <c r="X114" s="17"/>
     </row>
-    <row r="115" spans="1:24" ht="244.5">
+    <row r="115" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>341</v>
       </c>
@@ -28373,7 +28334,7 @@
       <c r="V115" s="17"/>
       <c r="X115" s="17"/>
     </row>
-    <row r="116" spans="1:24" ht="244.5">
+    <row r="116" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>343</v>
       </c>
@@ -28436,7 +28397,7 @@
       <c r="V116" s="17"/>
       <c r="X116" s="17"/>
     </row>
-    <row r="117" spans="1:24" ht="244.5">
+    <row r="117" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>345</v>
       </c>
@@ -28504,7 +28465,7 @@
       </c>
       <c r="X117" s="17"/>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>347</v>
       </c>
@@ -28532,7 +28493,7 @@
       <c r="W118" s="53"/>
       <c r="X118" s="17"/>
     </row>
-    <row r="119" spans="1:24" ht="60.75">
+    <row r="119" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>348</v>
       </c>
@@ -28593,7 +28554,7 @@
       <c r="V119" s="17"/>
       <c r="X119" s="17"/>
     </row>
-    <row r="120" spans="1:24" ht="60.75">
+    <row r="120" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>350</v>
       </c>
@@ -28654,7 +28615,7 @@
       <c r="V120" s="17"/>
       <c r="X120" s="17"/>
     </row>
-    <row r="121" spans="1:24" ht="60.75">
+    <row r="121" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>352</v>
       </c>
@@ -28715,7 +28676,7 @@
       <c r="V121" s="17"/>
       <c r="X121" s="17"/>
     </row>
-    <row r="122" spans="1:24" ht="60.75">
+    <row r="122" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>355</v>
       </c>
@@ -28776,7 +28737,7 @@
       <c r="V122" s="17"/>
       <c r="X122" s="17"/>
     </row>
-    <row r="123" spans="1:24" ht="60.75">
+    <row r="123" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>358</v>
       </c>
@@ -28837,7 +28798,7 @@
       <c r="V123" s="17"/>
       <c r="X123" s="17"/>
     </row>
-    <row r="124" spans="1:24" ht="60.75">
+    <row r="124" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>360</v>
       </c>
@@ -28898,7 +28859,7 @@
       <c r="V124" s="17"/>
       <c r="X124" s="17"/>
     </row>
-    <row r="125" spans="1:24" ht="60.75">
+    <row r="125" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>362</v>
       </c>
@@ -28959,7 +28920,7 @@
       <c r="V125" s="17"/>
       <c r="X125" s="17"/>
     </row>
-    <row r="126" spans="1:24" ht="60.75">
+    <row r="126" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>364</v>
       </c>
@@ -29020,7 +28981,7 @@
       <c r="V126" s="17"/>
       <c r="X126" s="17"/>
     </row>
-    <row r="127" spans="1:24" ht="60.75">
+    <row r="127" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>366</v>
       </c>
@@ -29081,7 +29042,7 @@
       <c r="V127" s="17"/>
       <c r="X127" s="17"/>
     </row>
-    <row r="128" spans="1:24" ht="60.75">
+    <row r="128" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>368</v>
       </c>
@@ -29142,7 +29103,7 @@
       <c r="V128" s="17"/>
       <c r="X128" s="17"/>
     </row>
-    <row r="129" spans="1:24" ht="60.75">
+    <row r="129" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>370</v>
       </c>
@@ -29203,7 +29164,7 @@
       <c r="V129" s="17"/>
       <c r="X129" s="17"/>
     </row>
-    <row r="130" spans="1:24" ht="60.75">
+    <row r="130" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>372</v>
       </c>
@@ -29264,7 +29225,7 @@
       <c r="V130" s="17"/>
       <c r="X130" s="17"/>
     </row>
-    <row r="131" spans="1:24" ht="60.75">
+    <row r="131" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>374</v>
       </c>
@@ -29325,7 +29286,7 @@
       <c r="V131" s="17"/>
       <c r="X131" s="17"/>
     </row>
-    <row r="132" spans="1:24" ht="60.75">
+    <row r="132" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>376</v>
       </c>
@@ -29386,7 +29347,7 @@
       <c r="V132" s="17"/>
       <c r="X132" s="17"/>
     </row>
-    <row r="133" spans="1:24" ht="60.75">
+    <row r="133" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>378</v>
       </c>
@@ -29447,7 +29408,7 @@
       <c r="V133" s="17"/>
       <c r="X133" s="17"/>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>381</v>
       </c>
@@ -29475,7 +29436,7 @@
       <c r="W134" s="54"/>
       <c r="X134" s="17"/>
     </row>
-    <row r="135" spans="1:24" ht="76.5">
+    <row r="135" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>382</v>
       </c>
@@ -29536,7 +29497,7 @@
       <c r="V135" s="17"/>
       <c r="X135" s="17"/>
     </row>
-    <row r="136" spans="1:24" ht="76.5">
+    <row r="136" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>384</v>
       </c>
@@ -29597,7 +29558,7 @@
       <c r="V136" s="17"/>
       <c r="X136" s="17"/>
     </row>
-    <row r="137" spans="1:24" ht="76.5">
+    <row r="137" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>386</v>
       </c>
@@ -29658,7 +29619,7 @@
       <c r="V137" s="17"/>
       <c r="X137" s="17"/>
     </row>
-    <row r="138" spans="1:24" ht="60.75">
+    <row r="138" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>388</v>
       </c>
@@ -29719,7 +29680,7 @@
       <c r="V138" s="17"/>
       <c r="X138" s="17"/>
     </row>
-    <row r="139" spans="1:24" ht="60.75">
+    <row r="139" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>390</v>
       </c>
@@ -29780,7 +29741,7 @@
       <c r="V139" s="17"/>
       <c r="X139" s="17"/>
     </row>
-    <row r="140" spans="1:24" ht="60.75">
+    <row r="140" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>392</v>
       </c>
@@ -29841,7 +29802,7 @@
       <c r="V140" s="24"/>
       <c r="X140" s="17"/>
     </row>
-    <row r="141" spans="1:24" ht="60.75">
+    <row r="141" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>394</v>
       </c>
@@ -29902,7 +29863,7 @@
       <c r="V141" s="17"/>
       <c r="X141" s="17"/>
     </row>
-    <row r="142" spans="1:24" ht="76.5">
+    <row r="142" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>396</v>
       </c>
@@ -29963,7 +29924,7 @@
       <c r="V142" s="17"/>
       <c r="X142" s="17"/>
     </row>
-    <row r="143" spans="1:24" ht="60.75">
+    <row r="143" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>398</v>
       </c>
@@ -30024,7 +29985,7 @@
       <c r="V143" s="17"/>
       <c r="X143" s="17"/>
     </row>
-    <row r="144" spans="1:24" ht="366">
+    <row r="144" spans="1:24" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>400</v>
       </c>
@@ -30093,7 +30054,7 @@
       </c>
       <c r="X144" s="17"/>
     </row>
-    <row r="145" spans="1:24" ht="351">
+    <row r="145" spans="1:24" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>402</v>
       </c>
@@ -30162,7 +30123,7 @@
       </c>
       <c r="X145" s="17"/>
     </row>
-    <row r="146" spans="1:24" ht="336">
+    <row r="146" spans="1:24" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>404</v>
       </c>
@@ -30231,7 +30192,7 @@
       </c>
       <c r="X146" s="17"/>
     </row>
-    <row r="147" spans="1:24" ht="351">
+    <row r="147" spans="1:24" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>406</v>
       </c>
@@ -30303,7 +30264,7 @@
       </c>
       <c r="X147" s="17"/>
     </row>
-    <row r="148" spans="1:24" ht="336">
+    <row r="148" spans="1:24" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>408</v>
       </c>
@@ -30372,7 +30333,7 @@
       </c>
       <c r="X148" s="17"/>
     </row>
-    <row r="149" spans="1:24" ht="351">
+    <row r="149" spans="1:24" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>410</v>
       </c>
@@ -30444,7 +30405,7 @@
       </c>
       <c r="X149" s="17"/>
     </row>
-    <row r="150" spans="1:24" ht="409.6">
+    <row r="150" spans="1:24" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>412</v>
       </c>
@@ -30513,7 +30474,7 @@
       </c>
       <c r="X150" s="17"/>
     </row>
-    <row r="151" spans="1:24" ht="396.75">
+    <row r="151" spans="1:24" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>414</v>
       </c>
@@ -30585,7 +30546,7 @@
       </c>
       <c r="X151" s="17"/>
     </row>
-    <row r="152" spans="1:24" ht="381.75">
+    <row r="152" spans="1:24" ht="360" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>416</v>
       </c>
@@ -30657,7 +30618,7 @@
       </c>
       <c r="X152" s="17"/>
     </row>
-    <row r="153" spans="1:24" ht="336">
+    <row r="153" spans="1:24" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>418</v>
       </c>
@@ -30726,7 +30687,7 @@
       </c>
       <c r="X153" s="17"/>
     </row>
-    <row r="154" spans="1:24" ht="259.5">
+    <row r="154" spans="1:24" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>420</v>
       </c>
@@ -30792,7 +30753,7 @@
       <c r="W154" s="67"/>
       <c r="X154" s="17"/>
     </row>
-    <row r="155" spans="1:24" ht="381.75">
+    <row r="155" spans="1:24" ht="360" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>422</v>
       </c>
@@ -30861,7 +30822,7 @@
       </c>
       <c r="X155" s="17"/>
     </row>
-    <row r="156" spans="1:24" ht="244.5">
+    <row r="156" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>424</v>
       </c>
@@ -30930,7 +30891,7 @@
       </c>
       <c r="X156" s="17"/>
     </row>
-    <row r="157" spans="1:24" ht="275.25">
+    <row r="157" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>426</v>
       </c>
@@ -30999,7 +30960,7 @@
       </c>
       <c r="X157" s="17"/>
     </row>
-    <row r="158" spans="1:24" ht="244.5">
+    <row r="158" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>428</v>
       </c>
@@ -31060,7 +31021,7 @@
       <c r="V158" s="17"/>
       <c r="X158" s="17"/>
     </row>
-    <row r="159" spans="1:24" ht="244.5">
+    <row r="159" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>430</v>
       </c>
@@ -31121,7 +31082,7 @@
       <c r="V159" s="17"/>
       <c r="X159" s="17"/>
     </row>
-    <row r="160" spans="1:24" ht="244.5">
+    <row r="160" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>432</v>
       </c>
@@ -31182,7 +31143,7 @@
       <c r="V160" s="17"/>
       <c r="X160" s="17"/>
     </row>
-    <row r="161" spans="1:24" ht="244.5">
+    <row r="161" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>434</v>
       </c>
@@ -31243,7 +31204,7 @@
       <c r="V161" s="17"/>
       <c r="X161" s="17"/>
     </row>
-    <row r="162" spans="1:24" ht="167.25">
+    <row r="162" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>435</v>
       </c>
@@ -31304,7 +31265,7 @@
       <c r="V162" s="17"/>
       <c r="X162" s="17"/>
     </row>
-    <row r="163" spans="1:24" ht="152.25">
+    <row r="163" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>437</v>
       </c>
@@ -31373,7 +31334,7 @@
       </c>
       <c r="X163" s="17"/>
     </row>
-    <row r="164" spans="1:24" ht="106.5">
+    <row r="164" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>439</v>
       </c>
@@ -31434,7 +31395,7 @@
       <c r="V164" s="17"/>
       <c r="X164" s="17"/>
     </row>
-    <row r="165" spans="1:24" ht="409.6">
+    <row r="165" spans="1:24" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>441</v>
       </c>
@@ -31503,7 +31464,7 @@
       </c>
       <c r="X165" s="17"/>
     </row>
-    <row r="166" spans="1:24" ht="409.6">
+    <row r="166" spans="1:24" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>443</v>
       </c>
@@ -31572,7 +31533,7 @@
       </c>
       <c r="X166" s="17"/>
     </row>
-    <row r="167" spans="1:24" ht="409.6">
+    <row r="167" spans="1:24" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>445</v>
       </c>
@@ -31641,7 +31602,7 @@
       </c>
       <c r="X167" s="17"/>
     </row>
-    <row r="168" spans="1:24" ht="198">
+    <row r="168" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>447</v>
       </c>
@@ -31702,7 +31663,7 @@
       <c r="V168" s="17"/>
       <c r="X168" s="17"/>
     </row>
-    <row r="169" spans="1:24" ht="167.25">
+    <row r="169" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>449</v>
       </c>
@@ -31763,7 +31724,7 @@
       <c r="V169" s="17"/>
       <c r="X169" s="17"/>
     </row>
-    <row r="170" spans="1:24" ht="183">
+    <row r="170" spans="1:24" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>451</v>
       </c>
@@ -31824,7 +31785,7 @@
       <c r="V170" s="17"/>
       <c r="X170" s="17"/>
     </row>
-    <row r="171" spans="1:24" ht="213">
+    <row r="171" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>453</v>
       </c>
@@ -31885,7 +31846,7 @@
       <c r="V171" s="17"/>
       <c r="X171" s="17"/>
     </row>
-    <row r="172" spans="1:24" ht="152.25">
+    <row r="172" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>455</v>
       </c>
@@ -31946,7 +31907,7 @@
       <c r="V172" s="17"/>
       <c r="X172" s="17"/>
     </row>
-    <row r="173" spans="1:24" ht="167.25">
+    <row r="173" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>457</v>
       </c>
@@ -32007,7 +31968,7 @@
       <c r="V173" s="17"/>
       <c r="X173" s="17"/>
     </row>
-    <row r="174" spans="1:24" ht="121.5">
+    <row r="174" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>459</v>
       </c>
@@ -32073,14 +32034,14 @@
   <protectedRanges>
     <protectedRange sqref="S4:X174" name="Range1"/>
   </protectedRanges>
-  <conditionalFormatting sqref="S4:S19 S135:S174 S119:S133 S78:S117 S21:S26 S53:S68 S28:S51 S71:S76">
-    <cfRule type="containsText" dxfId="111" priority="5" operator="containsText" text="Blocked">
+  <conditionalFormatting sqref="S4:S19 S21:S26 S28:S51 S53:S68 S71:S76 S78:S117 S119:S133 S135:S174">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH("Blocked",S4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",S4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",S4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32097,17 +32058,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7">
-    <cfRule type="containsText" dxfId="108" priority="1" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH("Blocked",T7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",T7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",T7)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -32139,42 +32098,42 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="14" customWidth="1"/>
     <col min="13" max="13" width="15" style="22" customWidth="1"/>
-    <col min="14" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="14" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
     <col min="18" max="18" width="52" style="16" customWidth="1"/>
     <col min="19" max="19" width="14" style="16" customWidth="1"/>
-    <col min="20" max="20" width="44.140625" style="16" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="16" customWidth="1"/>
-    <col min="22" max="22" width="37.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="44.109375" style="16" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" style="16" customWidth="1"/>
+    <col min="22" max="22" width="37.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="76.5">
+    <row r="2" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -32242,7 +32201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -32268,7 +32227,7 @@
       <c r="U3" s="26"/>
       <c r="V3" s="54"/>
     </row>
-    <row r="4" spans="1:22" ht="137.25">
+    <row r="4" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="80" t="s">
         <v>26</v>
       </c>
@@ -32333,7 +32292,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="60.75">
+    <row r="5" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
         <v>37</v>
       </c>
@@ -32394,7 +32353,7 @@
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" spans="1:22" ht="60.75">
+    <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="84" t="s">
         <v>42</v>
       </c>
@@ -32457,7 +32416,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="137.25">
+    <row r="7" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="85" t="s">
         <v>45</v>
       </c>
@@ -32520,7 +32479,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="137.25">
+    <row r="8" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="84" t="s">
         <v>51</v>
       </c>
@@ -32585,7 +32544,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="60.75">
+    <row r="9" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="85" t="s">
         <v>54</v>
       </c>
@@ -32648,7 +32607,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="198">
+    <row r="10" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A10" s="84" t="s">
         <v>57</v>
       </c>
@@ -32716,7 +32675,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="137.25">
+    <row r="11" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="85" t="s">
         <v>63</v>
       </c>
@@ -32779,7 +32738,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="91.5">
+    <row r="12" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="84" t="s">
         <v>65</v>
       </c>
@@ -32847,7 +32806,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="60.75">
+    <row r="13" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="85" t="s">
         <v>68</v>
       </c>
@@ -32910,7 +32869,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="60.75">
+    <row r="14" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="84" t="s">
         <v>71</v>
       </c>
@@ -32973,7 +32932,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="60.75">
+    <row r="15" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="85" t="s">
         <v>74</v>
       </c>
@@ -33036,7 +32995,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="60.75">
+    <row r="16" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="84" t="s">
         <v>75</v>
       </c>
@@ -33099,7 +33058,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="137.25">
+    <row r="17" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="85" t="s">
         <v>77</v>
       </c>
@@ -33164,7 +33123,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="60.75">
+    <row r="18" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="84" t="s">
         <v>79</v>
       </c>
@@ -33227,7 +33186,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="229.5">
+    <row r="19" spans="1:22" ht="216" x14ac:dyDescent="0.3">
       <c r="A19" s="85" t="s">
         <v>80</v>
       </c>
@@ -33290,7 +33249,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="86" t="s">
         <v>82</v>
       </c>
@@ -33316,7 +33275,7 @@
       <c r="U20" s="21"/>
       <c r="V20" s="54"/>
     </row>
-    <row r="21" spans="1:22" ht="167.25">
+    <row r="21" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A21" s="85" t="s">
         <v>83</v>
       </c>
@@ -33379,7 +33338,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="167.25">
+    <row r="22" spans="1:22" ht="158.4" x14ac:dyDescent="0.45">
       <c r="A22" s="84" t="s">
         <v>87</v>
       </c>
@@ -33442,7 +33401,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="167.25">
+    <row r="23" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="85" t="s">
         <v>89</v>
       </c>
@@ -33505,7 +33464,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="167.25">
+    <row r="24" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A24" s="84" t="s">
         <v>91</v>
       </c>
@@ -33568,7 +33527,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="167.25">
+    <row r="25" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A25" s="85" t="s">
         <v>93</v>
       </c>
@@ -33631,7 +33590,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="183">
+    <row r="26" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A26" s="84" t="s">
         <v>95</v>
       </c>
@@ -33694,7 +33653,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="86" t="s">
         <v>97</v>
       </c>
@@ -33720,7 +33679,7 @@
       <c r="U27" s="21"/>
       <c r="V27" s="54"/>
     </row>
-    <row r="28" spans="1:22" ht="137.25">
+    <row r="28" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="84" t="s">
         <v>98</v>
       </c>
@@ -33783,7 +33742,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="137.25">
+    <row r="29" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="85" t="s">
         <v>101</v>
       </c>
@@ -33846,7 +33805,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="409.6">
+    <row r="30" spans="1:22" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A30" s="84" t="s">
         <v>105</v>
       </c>
@@ -33914,7 +33873,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="152.25">
+    <row r="31" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A31" s="85" t="s">
         <v>110</v>
       </c>
@@ -33977,7 +33936,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="152.25">
+    <row r="32" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A32" s="84" t="s">
         <v>114</v>
       </c>
@@ -34040,7 +33999,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="137.25">
+    <row r="33" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="85" t="s">
         <v>118</v>
       </c>
@@ -34103,7 +34062,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="183">
+    <row r="34" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A34" s="84" t="s">
         <v>125</v>
       </c>
@@ -34166,7 +34125,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="198">
+    <row r="35" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A35" s="82" t="s">
         <v>129</v>
       </c>
@@ -34227,7 +34186,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="17"/>
     </row>
-    <row r="36" spans="1:22" ht="183">
+    <row r="36" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A36" s="84" t="s">
         <v>132</v>
       </c>
@@ -34290,7 +34249,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="183">
+    <row r="37" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A37" s="85" t="s">
         <v>135</v>
       </c>
@@ -34353,7 +34312,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="167.25">
+    <row r="38" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A38" s="84" t="s">
         <v>138</v>
       </c>
@@ -34419,7 +34378,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="167.25">
+    <row r="39" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A39" s="82" t="s">
         <v>140</v>
       </c>
@@ -34480,7 +34439,7 @@
       <c r="T39" s="17"/>
       <c r="U39" s="17"/>
     </row>
-    <row r="40" spans="1:22" ht="137.25">
+    <row r="40" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40" s="84" t="s">
         <v>142</v>
       </c>
@@ -34543,7 +34502,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="137.25">
+    <row r="41" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41" s="85" t="s">
         <v>145</v>
       </c>
@@ -34606,7 +34565,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="137.25">
+    <row r="42" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A42" s="84" t="s">
         <v>147</v>
       </c>
@@ -34672,7 +34631,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="137.25">
+    <row r="43" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="85" t="s">
         <v>149</v>
       </c>
@@ -34735,7 +34694,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="121.5">
+    <row r="44" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A44" s="84" t="s">
         <v>151</v>
       </c>
@@ -34798,7 +34757,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="137.25">
+    <row r="45" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A45" s="85" t="s">
         <v>153</v>
       </c>
@@ -34861,7 +34820,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="152.25">
+    <row r="46" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A46" s="84" t="s">
         <v>157</v>
       </c>
@@ -34924,7 +34883,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="183">
+    <row r="47" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A47" s="82" t="s">
         <v>160</v>
       </c>
@@ -34985,7 +34944,7 @@
       <c r="T47" s="46"/>
       <c r="U47" s="17"/>
     </row>
-    <row r="48" spans="1:22" ht="198">
+    <row r="48" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A48" s="84" t="s">
         <v>164</v>
       </c>
@@ -35048,7 +35007,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="183">
+    <row r="49" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A49" s="85" t="s">
         <v>167</v>
       </c>
@@ -35111,7 +35070,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="183">
+    <row r="50" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A50" s="84" t="s">
         <v>169</v>
       </c>
@@ -35174,7 +35133,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="152.25">
+    <row r="51" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A51" s="82" t="s">
         <v>171</v>
       </c>
@@ -35235,7 +35194,7 @@
       <c r="T51" s="17"/>
       <c r="U51" s="17"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="86" t="s">
         <v>173</v>
       </c>
@@ -35261,7 +35220,7 @@
       <c r="U52" s="21"/>
       <c r="V52" s="54"/>
     </row>
-    <row r="53" spans="1:22" ht="137.25">
+    <row r="53" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="85" t="s">
         <v>174</v>
       </c>
@@ -35324,7 +35283,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="137.25">
+    <row r="54" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A54" s="84" t="s">
         <v>179</v>
       </c>
@@ -35387,7 +35346,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="259.5">
+    <row r="55" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A55" s="87" t="s">
         <v>184</v>
       </c>
@@ -35452,7 +35411,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="106.5">
+    <row r="56" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A56" s="84" t="s">
         <v>189</v>
       </c>
@@ -35517,7 +35476,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="305.25">
+    <row r="57" spans="1:22" ht="288" x14ac:dyDescent="0.3">
       <c r="A57" s="85" t="s">
         <v>193</v>
       </c>
@@ -35585,7 +35544,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="106.5">
+    <row r="58" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A58" s="84" t="s">
         <v>198</v>
       </c>
@@ -35648,7 +35607,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="381.75">
+    <row r="59" spans="1:22" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A59" s="85" t="s">
         <v>203</v>
       </c>
@@ -35713,7 +35672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="305.25">
+    <row r="60" spans="1:22" ht="288" x14ac:dyDescent="0.3">
       <c r="A60" s="84" t="s">
         <v>206</v>
       </c>
@@ -35778,7 +35737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="305.25">
+    <row r="61" spans="1:22" ht="288" x14ac:dyDescent="0.3">
       <c r="A61" s="85" t="s">
         <v>210</v>
       </c>
@@ -35846,7 +35805,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="321">
+    <row r="62" spans="1:22" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A62" s="84" t="s">
         <v>214</v>
       </c>
@@ -35914,7 +35873,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="305.25">
+    <row r="63" spans="1:22" ht="288" x14ac:dyDescent="0.3">
       <c r="A63" s="85" t="s">
         <v>216</v>
       </c>
@@ -35982,7 +35941,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="244.5">
+    <row r="64" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A64" s="84" t="s">
         <v>218</v>
       </c>
@@ -36047,7 +36006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="244.5">
+    <row r="65" spans="1:22" ht="216" x14ac:dyDescent="0.3">
       <c r="A65" s="85" t="s">
         <v>220</v>
       </c>
@@ -36115,7 +36074,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="351">
+    <row r="66" spans="1:22" ht="288" x14ac:dyDescent="0.3">
       <c r="A66" s="84" t="s">
         <v>222</v>
       </c>
@@ -36183,7 +36142,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="321">
+    <row r="67" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A67" s="85" t="s">
         <v>224</v>
       </c>
@@ -36251,7 +36210,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="321">
+    <row r="68" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A68" s="84" t="s">
         <v>226</v>
       </c>
@@ -36319,7 +36278,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="244.5">
+    <row r="69" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A69" s="85" t="s">
         <v>231</v>
       </c>
@@ -36382,7 +36341,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="229.5">
+    <row r="70" spans="1:22" ht="216" x14ac:dyDescent="0.3">
       <c r="A70" s="84" t="s">
         <v>236</v>
       </c>
@@ -36445,7 +36404,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="152.25">
+    <row r="71" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A71" s="85" t="s">
         <v>240</v>
       </c>
@@ -36508,7 +36467,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="167.25">
+    <row r="72" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A72" s="84" t="s">
         <v>244</v>
       </c>
@@ -36571,7 +36530,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="305.25">
+    <row r="73" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A73" s="87" t="s">
         <v>247</v>
       </c>
@@ -36639,7 +36598,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="290.25">
+    <row r="74" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A74" s="84" t="s">
         <v>251</v>
       </c>
@@ -36705,7 +36664,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="152.25">
+    <row r="75" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A75" s="85" t="s">
         <v>253</v>
       </c>
@@ -36768,7 +36727,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="106.5">
+    <row r="76" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A76" s="84" t="s">
         <v>255</v>
       </c>
@@ -36831,7 +36790,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="86" t="s">
         <v>257</v>
       </c>
@@ -36857,7 +36816,7 @@
       <c r="U77" s="21"/>
       <c r="V77" s="54"/>
     </row>
-    <row r="78" spans="1:22" ht="213">
+    <row r="78" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A78" s="84" t="s">
         <v>258</v>
       </c>
@@ -36920,7 +36879,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="213">
+    <row r="79" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A79" s="85" t="s">
         <v>260</v>
       </c>
@@ -36983,7 +36942,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="409.6">
+    <row r="80" spans="1:22" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A80" s="84" t="s">
         <v>262</v>
       </c>
@@ -37051,7 +37010,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="259.5">
+    <row r="81" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A81" s="85" t="s">
         <v>264</v>
       </c>
@@ -37114,7 +37073,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="259.5">
+    <row r="82" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A82" s="84" t="s">
         <v>266</v>
       </c>
@@ -37182,7 +37141,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="259.5">
+    <row r="83" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A83" s="85" t="s">
         <v>269</v>
       </c>
@@ -37245,7 +37204,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="183">
+    <row r="84" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A84" s="84" t="s">
         <v>272</v>
       </c>
@@ -37308,7 +37267,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="259.5">
+    <row r="85" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A85" s="85" t="s">
         <v>275</v>
       </c>
@@ -37371,7 +37330,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="198">
+    <row r="86" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A86" s="84" t="s">
         <v>278</v>
       </c>
@@ -37434,7 +37393,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="229.5">
+    <row r="87" spans="1:22" ht="216" x14ac:dyDescent="0.3">
       <c r="A87" s="85" t="s">
         <v>282</v>
       </c>
@@ -37497,7 +37456,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="167.25">
+    <row r="88" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A88" s="84" t="s">
         <v>285</v>
       </c>
@@ -37563,7 +37522,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="183">
+    <row r="89" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A89" s="85" t="s">
         <v>287</v>
       </c>
@@ -37626,7 +37585,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="275.25">
+    <row r="90" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A90" s="84" t="s">
         <v>289</v>
       </c>
@@ -37691,7 +37650,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="275.25">
+    <row r="91" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A91" s="85" t="s">
         <v>291</v>
       </c>
@@ -37756,7 +37715,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="275.25">
+    <row r="92" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A92" s="84" t="s">
         <v>293</v>
       </c>
@@ -37824,7 +37783,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="213">
+    <row r="93" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A93" s="85" t="s">
         <v>295</v>
       </c>
@@ -37890,7 +37849,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="198">
+    <row r="94" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A94" s="84" t="s">
         <v>297</v>
       </c>
@@ -37955,7 +37914,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="198">
+    <row r="95" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A95" s="85" t="s">
         <v>299</v>
       </c>
@@ -38020,7 +37979,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="305.25">
+    <row r="96" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A96" s="84" t="s">
         <v>301</v>
       </c>
@@ -38088,7 +38047,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="275.25">
+    <row r="97" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A97" s="85" t="s">
         <v>303</v>
       </c>
@@ -38153,7 +38112,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="198">
+    <row r="98" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A98" s="84" t="s">
         <v>305</v>
       </c>
@@ -38219,7 +38178,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="259.5">
+    <row r="99" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A99" s="85" t="s">
         <v>307</v>
       </c>
@@ -38284,7 +38243,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="409.6">
+    <row r="100" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A100" s="84" t="s">
         <v>309</v>
       </c>
@@ -38352,7 +38311,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="213">
+    <row r="101" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A101" s="85" t="s">
         <v>311</v>
       </c>
@@ -38415,7 +38374,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="409.6">
+    <row r="102" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A102" s="84" t="s">
         <v>313</v>
       </c>
@@ -38483,7 +38442,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="290.25">
+    <row r="103" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A103" s="85" t="s">
         <v>315</v>
       </c>
@@ -38551,7 +38510,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="229.5">
+    <row r="104" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A104" s="84" t="s">
         <v>317</v>
       </c>
@@ -38616,7 +38575,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="336">
+    <row r="105" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A105" s="85" t="s">
         <v>319</v>
       </c>
@@ -38684,7 +38643,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="213">
+    <row r="106" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A106" s="84" t="s">
         <v>322</v>
       </c>
@@ -38747,7 +38706,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="229.5">
+    <row r="107" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A107" s="85" t="s">
         <v>324</v>
       </c>
@@ -38810,7 +38769,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="275.25">
+    <row r="108" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A108" s="84" t="s">
         <v>326</v>
       </c>
@@ -38878,7 +38837,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="259.5">
+    <row r="109" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A109" s="85" t="s">
         <v>328</v>
       </c>
@@ -38946,7 +38905,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="259.5">
+    <row r="110" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A110" s="84" t="s">
         <v>330</v>
       </c>
@@ -39011,7 +38970,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="229.5">
+    <row r="111" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A111" s="85" t="s">
         <v>333</v>
       </c>
@@ -39079,7 +39038,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="183">
+    <row r="112" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A112" s="84" t="s">
         <v>335</v>
       </c>
@@ -39144,7 +39103,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="259.5">
+    <row r="113" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A113" s="85" t="s">
         <v>337</v>
       </c>
@@ -39212,7 +39171,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="244.5">
+    <row r="114" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A114" s="84" t="s">
         <v>339</v>
       </c>
@@ -39280,7 +39239,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="244.5">
+    <row r="115" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A115" s="85" t="s">
         <v>341</v>
       </c>
@@ -39348,7 +39307,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="244.5">
+    <row r="116" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A116" s="84" t="s">
         <v>343</v>
       </c>
@@ -39413,7 +39372,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="244.5">
+    <row r="117" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A117" s="85" t="s">
         <v>345</v>
       </c>
@@ -39479,7 +39438,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" s="86" t="s">
         <v>347</v>
       </c>
@@ -39505,7 +39464,7 @@
       <c r="U118" s="21"/>
       <c r="V118" s="54"/>
     </row>
-    <row r="119" spans="1:22" ht="60.75">
+    <row r="119" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A119" s="85" t="s">
         <v>348</v>
       </c>
@@ -39568,7 +39527,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="60.75">
+    <row r="120" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="84" t="s">
         <v>350</v>
       </c>
@@ -39631,7 +39590,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="60.75">
+    <row r="121" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A121" s="85" t="s">
         <v>352</v>
       </c>
@@ -39694,7 +39653,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="60.75">
+    <row r="122" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="84" t="s">
         <v>355</v>
       </c>
@@ -39757,7 +39716,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="60.75">
+    <row r="123" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="85" t="s">
         <v>358</v>
       </c>
@@ -39820,7 +39779,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="60.75">
+    <row r="124" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A124" s="84" t="s">
         <v>360</v>
       </c>
@@ -39883,7 +39842,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="60.75">
+    <row r="125" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="85" t="s">
         <v>362</v>
       </c>
@@ -39946,7 +39905,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="60.75">
+    <row r="126" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="84" t="s">
         <v>364</v>
       </c>
@@ -40009,7 +39968,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="60.75">
+    <row r="127" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="85" t="s">
         <v>366</v>
       </c>
@@ -40072,7 +40031,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="60.75">
+    <row r="128" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="84" t="s">
         <v>368</v>
       </c>
@@ -40135,7 +40094,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="60.75">
+    <row r="129" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="85" t="s">
         <v>370</v>
       </c>
@@ -40198,7 +40157,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="60.75">
+    <row r="130" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="84" t="s">
         <v>372</v>
       </c>
@@ -40261,7 +40220,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="60.75">
+    <row r="131" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A131" s="85" t="s">
         <v>374</v>
       </c>
@@ -40324,7 +40283,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="60.75">
+    <row r="132" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="84" t="s">
         <v>376</v>
       </c>
@@ -40387,7 +40346,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="60.75">
+    <row r="133" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="85" t="s">
         <v>378</v>
       </c>
@@ -40450,7 +40409,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" s="86" t="s">
         <v>381</v>
       </c>
@@ -40476,7 +40435,7 @@
       <c r="U134" s="21"/>
       <c r="V134" s="54"/>
     </row>
-    <row r="135" spans="1:22" ht="76.5">
+    <row r="135" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A135" s="85" t="s">
         <v>382</v>
       </c>
@@ -40539,7 +40498,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="76.5">
+    <row r="136" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A136" s="84" t="s">
         <v>384</v>
       </c>
@@ -40602,7 +40561,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="76.5">
+    <row r="137" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A137" s="85" t="s">
         <v>386</v>
       </c>
@@ -40665,7 +40624,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="60.75">
+    <row r="138" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="84" t="s">
         <v>388</v>
       </c>
@@ -40728,7 +40687,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="60.75">
+    <row r="139" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="85" t="s">
         <v>390</v>
       </c>
@@ -40791,7 +40750,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="60.75">
+    <row r="140" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="84" t="s">
         <v>392</v>
       </c>
@@ -40854,7 +40813,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="60.75">
+    <row r="141" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="85" t="s">
         <v>394</v>
       </c>
@@ -40917,7 +40876,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="76.5">
+    <row r="142" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A142" s="84" t="s">
         <v>396</v>
       </c>
@@ -40980,7 +40939,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="60.75">
+    <row r="143" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="85" t="s">
         <v>398</v>
       </c>
@@ -41043,7 +41002,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="366">
+    <row r="144" spans="1:22" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A144" s="84" t="s">
         <v>400</v>
       </c>
@@ -41111,7 +41070,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="351">
+    <row r="145" spans="1:22" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A145" s="85" t="s">
         <v>402</v>
       </c>
@@ -41179,7 +41138,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="336">
+    <row r="146" spans="1:22" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A146" s="84" t="s">
         <v>404</v>
       </c>
@@ -41245,7 +41204,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="351">
+    <row r="147" spans="1:22" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A147" s="85" t="s">
         <v>406</v>
       </c>
@@ -41313,7 +41272,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="336">
+    <row r="148" spans="1:22" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A148" s="84" t="s">
         <v>408</v>
       </c>
@@ -41378,7 +41337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="351">
+    <row r="149" spans="1:22" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A149" s="85" t="s">
         <v>410</v>
       </c>
@@ -41446,7 +41405,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="409.6">
+    <row r="150" spans="1:22" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A150" s="84" t="s">
         <v>412</v>
       </c>
@@ -41511,7 +41470,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="396.75">
+    <row r="151" spans="1:22" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A151" s="85" t="s">
         <v>414</v>
       </c>
@@ -41579,7 +41538,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="381.75">
+    <row r="152" spans="1:22" ht="360" x14ac:dyDescent="0.3">
       <c r="A152" s="84" t="s">
         <v>416</v>
       </c>
@@ -41647,7 +41606,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="336">
+    <row r="153" spans="1:22" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A153" s="85" t="s">
         <v>418</v>
       </c>
@@ -41712,7 +41671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="290.25">
+    <row r="154" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A154" s="84" t="s">
         <v>420</v>
       </c>
@@ -41777,7 +41736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="366">
+    <row r="155" spans="1:22" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A155" s="85" t="s">
         <v>422</v>
       </c>
@@ -41845,7 +41804,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="244.5">
+    <row r="156" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A156" s="84" t="s">
         <v>424</v>
       </c>
@@ -41908,7 +41867,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="275.25">
+    <row r="157" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A157" s="85" t="s">
         <v>426</v>
       </c>
@@ -41971,7 +41930,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="244.5">
+    <row r="158" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A158" s="84" t="s">
         <v>428</v>
       </c>
@@ -42034,7 +41993,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="244.5">
+    <row r="159" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A159" s="85" t="s">
         <v>430</v>
       </c>
@@ -42097,7 +42056,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="244.5">
+    <row r="160" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A160" s="84" t="s">
         <v>432</v>
       </c>
@@ -42160,7 +42119,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="244.5">
+    <row r="161" spans="1:21" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A161" s="85" t="s">
         <v>434</v>
       </c>
@@ -42223,7 +42182,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="167.25">
+    <row r="162" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A162" s="84" t="s">
         <v>435</v>
       </c>
@@ -42286,7 +42245,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="152.25">
+    <row r="163" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A163" s="85" t="s">
         <v>437</v>
       </c>
@@ -42349,7 +42308,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="106.5">
+    <row r="164" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A164" s="84" t="s">
         <v>439</v>
       </c>
@@ -42412,7 +42371,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="396.75">
+    <row r="165" spans="1:21" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A165" s="85" t="s">
         <v>441</v>
       </c>
@@ -42475,7 +42434,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="396.75">
+    <row r="166" spans="1:21" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A166" s="84" t="s">
         <v>443</v>
       </c>
@@ -42538,7 +42497,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="381.75">
+    <row r="167" spans="1:21" ht="360" x14ac:dyDescent="0.3">
       <c r="A167" s="85" t="s">
         <v>445</v>
       </c>
@@ -42601,7 +42560,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="198">
+    <row r="168" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A168" s="84" t="s">
         <v>447</v>
       </c>
@@ -42664,7 +42623,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="167.25">
+    <row r="169" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A169" s="85" t="s">
         <v>449</v>
       </c>
@@ -42727,7 +42686,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="183">
+    <row r="170" spans="1:21" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A170" s="84" t="s">
         <v>451</v>
       </c>
@@ -42790,7 +42749,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="213">
+    <row r="171" spans="1:21" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A171" s="85" t="s">
         <v>453</v>
       </c>
@@ -42853,7 +42812,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="152.25">
+    <row r="172" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A172" s="84" t="s">
         <v>455</v>
       </c>
@@ -42916,7 +42875,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="167.25">
+    <row r="173" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A173" s="85" t="s">
         <v>457</v>
       </c>
@@ -42979,7 +42938,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="121.5">
+    <row r="174" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A174" s="88" t="s">
         <v>459</v>
       </c>
@@ -43042,7 +43001,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>651</v>
       </c>
@@ -43069,7 +43028,7 @@
       </c>
       <c r="R175" s="17"/>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>652</v>
       </c>
@@ -43101,11 +43060,6 @@
   <protectedRanges>
     <protectedRange sqref="S1:V174" name="Range2"/>
   </protectedRanges>
-  <conditionalFormatting sqref="S4:S174">
-    <cfRule type="containsText" dxfId="92" priority="8" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",S4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="S4:S19 S78:S117 S21:S26 S53:S68 S28:S51 S71:S76 S119:S133 S135:S174">
     <cfRule type="colorScale" priority="9">
       <colorScale>
@@ -43118,18 +43072,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7">
-    <cfRule type="containsText" dxfId="91" priority="2" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",T7)))</formula>
+  <conditionalFormatting sqref="S4:S174">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",S4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="3" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",T7)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",S4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="4" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",T7)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",S4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",S4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",T7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",T7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",T7)))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -43139,21 +43105,6 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S174">
-    <cfRule type="containsText" dxfId="88" priority="6" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",S4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S174">
-    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",S4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S174">
-    <cfRule type="containsText" dxfId="86" priority="7" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",S4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -43173,44 +43124,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E91DD0E-39C1-4A3F-B5A0-E4EC1685C1CB}">
   <dimension ref="A1:V176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F117" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="T154" sqref="T154"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="14" customWidth="1"/>
     <col min="13" max="13" width="15" style="22" customWidth="1"/>
-    <col min="14" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="14" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
     <col min="18" max="18" width="52" style="16" customWidth="1"/>
     <col min="19" max="19" width="14" style="16" customWidth="1"/>
-    <col min="20" max="20" width="44.140625" style="16" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="16" customWidth="1"/>
-    <col min="22" max="22" width="37.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="44.109375" style="16" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" style="16" customWidth="1"/>
+    <col min="22" max="22" width="37.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="76.5">
+    <row r="2" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -43278,7 +43229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -43304,7 +43255,7 @@
       <c r="U3" s="26"/>
       <c r="V3" s="54"/>
     </row>
-    <row r="4" spans="1:22" ht="137.25">
+    <row r="4" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="80" t="s">
         <v>26</v>
       </c>
@@ -43370,7 +43321,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="60.75">
+    <row r="5" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
         <v>37</v>
       </c>
@@ -43431,7 +43382,7 @@
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" spans="1:22" ht="60.75">
+    <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="84" t="s">
         <v>42</v>
       </c>
@@ -43494,7 +43445,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="137.25">
+    <row r="7" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="85" t="s">
         <v>45</v>
       </c>
@@ -43557,7 +43508,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="137.25">
+    <row r="8" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="84" t="s">
         <v>51</v>
       </c>
@@ -43620,7 +43571,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="60.75">
+    <row r="9" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="85" t="s">
         <v>54</v>
       </c>
@@ -43683,7 +43634,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="152.25">
+    <row r="10" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="84" t="s">
         <v>57</v>
       </c>
@@ -43749,7 +43700,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="137.25">
+    <row r="11" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="85" t="s">
         <v>63</v>
       </c>
@@ -43812,7 +43763,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="91.5">
+    <row r="12" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="84" t="s">
         <v>65</v>
       </c>
@@ -43880,7 +43831,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="60.75">
+    <row r="13" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="85" t="s">
         <v>68</v>
       </c>
@@ -43943,7 +43894,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="60.75">
+    <row r="14" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="84" t="s">
         <v>71</v>
       </c>
@@ -44006,7 +43957,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="60.75">
+    <row r="15" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="85" t="s">
         <v>74</v>
       </c>
@@ -44069,7 +44020,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="60.75">
+    <row r="16" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="84" t="s">
         <v>75</v>
       </c>
@@ -44132,7 +44083,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="137.25">
+    <row r="17" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="85" t="s">
         <v>77</v>
       </c>
@@ -44195,7 +44146,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="60.75">
+    <row r="18" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="84" t="s">
         <v>79</v>
       </c>
@@ -44258,7 +44209,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="229.5">
+    <row r="19" spans="1:22" ht="216" x14ac:dyDescent="0.3">
       <c r="A19" s="85" t="s">
         <v>80</v>
       </c>
@@ -44321,7 +44272,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="86" t="s">
         <v>82</v>
       </c>
@@ -44347,7 +44298,7 @@
       <c r="U20" s="21"/>
       <c r="V20" s="54"/>
     </row>
-    <row r="21" spans="1:22" ht="167.25">
+    <row r="21" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A21" s="85" t="s">
         <v>83</v>
       </c>
@@ -44410,7 +44361,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="167.25">
+    <row r="22" spans="1:22" ht="158.4" x14ac:dyDescent="0.45">
       <c r="A22" s="84" t="s">
         <v>87</v>
       </c>
@@ -44473,7 +44424,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="167.25">
+    <row r="23" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="85" t="s">
         <v>89</v>
       </c>
@@ -44536,7 +44487,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="167.25">
+    <row r="24" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A24" s="84" t="s">
         <v>91</v>
       </c>
@@ -44599,7 +44550,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="167.25">
+    <row r="25" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A25" s="85" t="s">
         <v>93</v>
       </c>
@@ -44662,7 +44613,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="183">
+    <row r="26" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A26" s="84" t="s">
         <v>95</v>
       </c>
@@ -44725,7 +44676,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="86" t="s">
         <v>97</v>
       </c>
@@ -44751,7 +44702,7 @@
       <c r="U27" s="21"/>
       <c r="V27" s="54"/>
     </row>
-    <row r="28" spans="1:22" ht="137.25">
+    <row r="28" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="84" t="s">
         <v>98</v>
       </c>
@@ -44814,7 +44765,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="137.25">
+    <row r="29" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="85" t="s">
         <v>101</v>
       </c>
@@ -44877,7 +44828,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="259.5">
+    <row r="30" spans="1:22" ht="216" x14ac:dyDescent="0.3">
       <c r="A30" s="84" t="s">
         <v>105</v>
       </c>
@@ -44945,7 +44896,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="152.25">
+    <row r="31" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A31" s="85" t="s">
         <v>110</v>
       </c>
@@ -45008,7 +44959,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="152.25">
+    <row r="32" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A32" s="84" t="s">
         <v>114</v>
       </c>
@@ -45071,7 +45022,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="137.25">
+    <row r="33" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="85" t="s">
         <v>118</v>
       </c>
@@ -45134,7 +45085,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="183">
+    <row r="34" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A34" s="84" t="s">
         <v>125</v>
       </c>
@@ -45197,7 +45148,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="198">
+    <row r="35" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A35" s="82" t="s">
         <v>129</v>
       </c>
@@ -45258,7 +45209,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="17"/>
     </row>
-    <row r="36" spans="1:22" ht="183">
+    <row r="36" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A36" s="84" t="s">
         <v>132</v>
       </c>
@@ -45321,7 +45272,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="183">
+    <row r="37" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A37" s="85" t="s">
         <v>135</v>
       </c>
@@ -45384,7 +45335,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="167.25">
+    <row r="38" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A38" s="84" t="s">
         <v>138</v>
       </c>
@@ -45452,7 +45403,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="167.25">
+    <row r="39" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A39" s="82" t="s">
         <v>140</v>
       </c>
@@ -45513,7 +45464,7 @@
       <c r="T39" s="17"/>
       <c r="U39" s="17"/>
     </row>
-    <row r="40" spans="1:22" ht="137.25">
+    <row r="40" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40" s="84" t="s">
         <v>142</v>
       </c>
@@ -45576,7 +45527,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="152.25">
+    <row r="41" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41" s="85" t="s">
         <v>145</v>
       </c>
@@ -45644,7 +45595,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="167.25">
+    <row r="42" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A42" s="84" t="s">
         <v>147</v>
       </c>
@@ -45712,7 +45663,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="137.25">
+    <row r="43" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="85" t="s">
         <v>149</v>
       </c>
@@ -45775,7 +45726,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="121.5">
+    <row r="44" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A44" s="84" t="s">
         <v>151</v>
       </c>
@@ -45838,7 +45789,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="137.25">
+    <row r="45" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A45" s="85" t="s">
         <v>153</v>
       </c>
@@ -45901,7 +45852,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="152.25">
+    <row r="46" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A46" s="84" t="s">
         <v>157</v>
       </c>
@@ -45966,7 +45917,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="183">
+    <row r="47" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A47" s="82" t="s">
         <v>160</v>
       </c>
@@ -46027,7 +45978,7 @@
       <c r="T47" s="46"/>
       <c r="U47" s="17"/>
     </row>
-    <row r="48" spans="1:22" ht="198">
+    <row r="48" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A48" s="84" t="s">
         <v>164</v>
       </c>
@@ -46090,7 +46041,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="183">
+    <row r="49" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A49" s="85" t="s">
         <v>167</v>
       </c>
@@ -46153,7 +46104,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="183">
+    <row r="50" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A50" s="84" t="s">
         <v>169</v>
       </c>
@@ -46216,7 +46167,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="152.25">
+    <row r="51" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A51" s="82" t="s">
         <v>171</v>
       </c>
@@ -46277,7 +46228,7 @@
       <c r="T51" s="17"/>
       <c r="U51" s="17"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="86" t="s">
         <v>173</v>
       </c>
@@ -46303,7 +46254,7 @@
       <c r="U52" s="21"/>
       <c r="V52" s="54"/>
     </row>
-    <row r="53" spans="1:22" ht="137.25">
+    <row r="53" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="85" t="s">
         <v>174</v>
       </c>
@@ -46366,7 +46317,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="137.25">
+    <row r="54" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A54" s="84" t="s">
         <v>179</v>
       </c>
@@ -46429,7 +46380,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="259.5">
+    <row r="55" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A55" s="87" t="s">
         <v>184</v>
       </c>
@@ -46497,7 +46448,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="106.5">
+    <row r="56" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A56" s="84" t="s">
         <v>189</v>
       </c>
@@ -46560,7 +46511,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="290.25">
+    <row r="57" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A57" s="85" t="s">
         <v>193</v>
       </c>
@@ -46628,7 +46579,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="106.5">
+    <row r="58" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A58" s="84" t="s">
         <v>198</v>
       </c>
@@ -46691,7 +46642,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="336">
+    <row r="59" spans="1:22" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A59" s="85" t="s">
         <v>203</v>
       </c>
@@ -46759,7 +46710,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="305.25">
+    <row r="60" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A60" s="84" t="s">
         <v>206</v>
       </c>
@@ -46824,7 +46775,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="305.25">
+    <row r="61" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A61" s="85" t="s">
         <v>210</v>
       </c>
@@ -46892,7 +46843,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="305.25">
+    <row r="62" spans="1:22" ht="288" x14ac:dyDescent="0.3">
       <c r="A62" s="84" t="s">
         <v>214</v>
       </c>
@@ -46960,7 +46911,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="275.25">
+    <row r="63" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A63" s="85" t="s">
         <v>216</v>
       </c>
@@ -47028,7 +46979,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="198">
+    <row r="64" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A64" s="84" t="s">
         <v>218</v>
       </c>
@@ -47096,7 +47047,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="213">
+    <row r="65" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A65" s="85" t="s">
         <v>220</v>
       </c>
@@ -47164,7 +47115,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="290.25">
+    <row r="66" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A66" s="84" t="s">
         <v>222</v>
       </c>
@@ -47232,7 +47183,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="244.5">
+    <row r="67" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A67" s="85" t="s">
         <v>224</v>
       </c>
@@ -47300,7 +47251,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="259.5">
+    <row r="68" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A68" s="84" t="s">
         <v>226</v>
       </c>
@@ -47368,7 +47319,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="244.5">
+    <row r="69" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A69" s="85" t="s">
         <v>231</v>
       </c>
@@ -47431,7 +47382,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="229.5">
+    <row r="70" spans="1:22" ht="216" x14ac:dyDescent="0.3">
       <c r="A70" s="84" t="s">
         <v>236</v>
       </c>
@@ -47494,7 +47445,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="152.25">
+    <row r="71" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A71" s="85" t="s">
         <v>240</v>
       </c>
@@ -47557,7 +47508,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="167.25">
+    <row r="72" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A72" s="84" t="s">
         <v>244</v>
       </c>
@@ -47620,7 +47571,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="305.25">
+    <row r="73" spans="1:22" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A73" s="87" t="s">
         <v>247</v>
       </c>
@@ -47686,7 +47637,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="290.25">
+    <row r="74" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A74" s="84" t="s">
         <v>251</v>
       </c>
@@ -47752,7 +47703,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="152.25">
+    <row r="75" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A75" s="85" t="s">
         <v>253</v>
       </c>
@@ -47815,7 +47766,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="106.5">
+    <row r="76" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A76" s="84" t="s">
         <v>255</v>
       </c>
@@ -47878,7 +47829,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="86" t="s">
         <v>257</v>
       </c>
@@ -47904,7 +47855,7 @@
       <c r="U77" s="21"/>
       <c r="V77" s="54"/>
     </row>
-    <row r="78" spans="1:22" ht="213">
+    <row r="78" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A78" s="84" t="s">
         <v>258</v>
       </c>
@@ -47969,7 +47920,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="213">
+    <row r="79" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A79" s="85" t="s">
         <v>260</v>
       </c>
@@ -48034,7 +47985,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="244.5">
+    <row r="80" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A80" s="84" t="s">
         <v>262</v>
       </c>
@@ -48100,7 +48051,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="259.5">
+    <row r="81" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A81" s="85" t="s">
         <v>264</v>
       </c>
@@ -48165,7 +48116,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="259.5">
+    <row r="82" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A82" s="84" t="s">
         <v>266</v>
       </c>
@@ -48229,7 +48180,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="259.5">
+    <row r="83" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A83" s="85" t="s">
         <v>269</v>
       </c>
@@ -48294,7 +48245,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="183">
+    <row r="84" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A84" s="84" t="s">
         <v>272</v>
       </c>
@@ -48359,7 +48310,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="259.5">
+    <row r="85" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A85" s="85" t="s">
         <v>275</v>
       </c>
@@ -48424,7 +48375,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="198">
+    <row r="86" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A86" s="84" t="s">
         <v>278</v>
       </c>
@@ -48487,7 +48438,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="229.5">
+    <row r="87" spans="1:22" ht="216" x14ac:dyDescent="0.3">
       <c r="A87" s="85" t="s">
         <v>282</v>
       </c>
@@ -48550,7 +48501,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="167.25">
+    <row r="88" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A88" s="84" t="s">
         <v>285</v>
       </c>
@@ -48616,7 +48567,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="183">
+    <row r="89" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A89" s="85" t="s">
         <v>287</v>
       </c>
@@ -48684,7 +48635,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="275.25">
+    <row r="90" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A90" s="84" t="s">
         <v>289</v>
       </c>
@@ -48752,7 +48703,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="275.25">
+    <row r="91" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A91" s="85" t="s">
         <v>291</v>
       </c>
@@ -48818,7 +48769,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="275.25">
+    <row r="92" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A92" s="84" t="s">
         <v>293</v>
       </c>
@@ -48884,7 +48835,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="213">
+    <row r="93" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A93" s="85" t="s">
         <v>295</v>
       </c>
@@ -48950,7 +48901,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="198">
+    <row r="94" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A94" s="84" t="s">
         <v>297</v>
       </c>
@@ -49016,7 +48967,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="198">
+    <row r="95" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A95" s="85" t="s">
         <v>299</v>
       </c>
@@ -49082,7 +49033,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="275.25">
+    <row r="96" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A96" s="84" t="s">
         <v>301</v>
       </c>
@@ -49148,7 +49099,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="275.25">
+    <row r="97" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A97" s="85" t="s">
         <v>303</v>
       </c>
@@ -49216,7 +49167,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="198">
+    <row r="98" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A98" s="84" t="s">
         <v>305</v>
       </c>
@@ -49282,7 +49233,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="259.5">
+    <row r="99" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A99" s="85" t="s">
         <v>307</v>
       </c>
@@ -49348,7 +49299,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="290.25">
+    <row r="100" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A100" s="84" t="s">
         <v>309</v>
       </c>
@@ -49414,7 +49365,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="213">
+    <row r="101" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A101" s="85" t="s">
         <v>311</v>
       </c>
@@ -49477,7 +49428,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="409.6">
+    <row r="102" spans="1:22" ht="360" x14ac:dyDescent="0.3">
       <c r="A102" s="84" t="s">
         <v>313</v>
       </c>
@@ -49545,7 +49496,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="336">
+    <row r="103" spans="1:22" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A103" s="85" t="s">
         <v>315</v>
       </c>
@@ -49609,7 +49560,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="229.5">
+    <row r="104" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A104" s="84" t="s">
         <v>317</v>
       </c>
@@ -49675,7 +49626,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="409.6">
+    <row r="105" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A105" s="85" t="s">
         <v>319</v>
       </c>
@@ -49741,7 +49692,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="213">
+    <row r="106" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A106" s="84" t="s">
         <v>322</v>
       </c>
@@ -49804,7 +49755,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="229.5">
+    <row r="107" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A107" s="85" t="s">
         <v>324</v>
       </c>
@@ -49867,7 +49818,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="275.25">
+    <row r="108" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A108" s="84" t="s">
         <v>326</v>
       </c>
@@ -49933,7 +49884,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="259.5">
+    <row r="109" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A109" s="85" t="s">
         <v>328</v>
       </c>
@@ -49999,7 +49950,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="259.5">
+    <row r="110" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A110" s="84" t="s">
         <v>330</v>
       </c>
@@ -50062,7 +50013,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="229.5">
+    <row r="111" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A111" s="85" t="s">
         <v>333</v>
       </c>
@@ -50128,7 +50079,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="183">
+    <row r="112" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A112" s="84" t="s">
         <v>335</v>
       </c>
@@ -50191,7 +50142,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="259.5">
+    <row r="113" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A113" s="85" t="s">
         <v>337</v>
       </c>
@@ -50257,7 +50208,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="244.5">
+    <row r="114" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A114" s="84" t="s">
         <v>339</v>
       </c>
@@ -50323,7 +50274,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="244.5">
+    <row r="115" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A115" s="85" t="s">
         <v>341</v>
       </c>
@@ -50387,7 +50338,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="244.5">
+    <row r="116" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A116" s="84" t="s">
         <v>343</v>
       </c>
@@ -50450,7 +50401,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="244.5">
+    <row r="117" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A117" s="85" t="s">
         <v>345</v>
       </c>
@@ -50514,7 +50465,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" s="86" t="s">
         <v>347</v>
       </c>
@@ -50540,7 +50491,7 @@
       <c r="U118" s="21"/>
       <c r="V118" s="54"/>
     </row>
-    <row r="119" spans="1:22" ht="60.75">
+    <row r="119" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A119" s="85" t="s">
         <v>348</v>
       </c>
@@ -50603,7 +50554,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="60.75">
+    <row r="120" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="84" t="s">
         <v>350</v>
       </c>
@@ -50666,7 +50617,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="60.75">
+    <row r="121" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A121" s="85" t="s">
         <v>352</v>
       </c>
@@ -50729,7 +50680,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="60.75">
+    <row r="122" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="84" t="s">
         <v>355</v>
       </c>
@@ -50792,7 +50743,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="60.75">
+    <row r="123" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="85" t="s">
         <v>358</v>
       </c>
@@ -50855,7 +50806,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="60.75">
+    <row r="124" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A124" s="84" t="s">
         <v>360</v>
       </c>
@@ -50918,7 +50869,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="60.75">
+    <row r="125" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="85" t="s">
         <v>362</v>
       </c>
@@ -50981,7 +50932,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="60.75">
+    <row r="126" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="84" t="s">
         <v>364</v>
       </c>
@@ -51044,7 +50995,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="60.75">
+    <row r="127" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="85" t="s">
         <v>366</v>
       </c>
@@ -51107,7 +51058,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="60.75">
+    <row r="128" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="84" t="s">
         <v>368</v>
       </c>
@@ -51170,7 +51121,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="60.75">
+    <row r="129" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="85" t="s">
         <v>370</v>
       </c>
@@ -51233,7 +51184,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="60.75">
+    <row r="130" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="84" t="s">
         <v>372</v>
       </c>
@@ -51296,7 +51247,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="60.75">
+    <row r="131" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A131" s="85" t="s">
         <v>374</v>
       </c>
@@ -51359,7 +51310,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="60.75">
+    <row r="132" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="84" t="s">
         <v>376</v>
       </c>
@@ -51422,7 +51373,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="60.75">
+    <row r="133" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="85" t="s">
         <v>378</v>
       </c>
@@ -51485,7 +51436,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" s="86" t="s">
         <v>381</v>
       </c>
@@ -51511,7 +51462,7 @@
       <c r="U134" s="21"/>
       <c r="V134" s="54"/>
     </row>
-    <row r="135" spans="1:22" ht="76.5">
+    <row r="135" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A135" s="85" t="s">
         <v>382</v>
       </c>
@@ -51574,7 +51525,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="76.5">
+    <row r="136" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A136" s="84" t="s">
         <v>384</v>
       </c>
@@ -51637,7 +51588,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="76.5">
+    <row r="137" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A137" s="85" t="s">
         <v>386</v>
       </c>
@@ -51700,7 +51651,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="60.75">
+    <row r="138" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="84" t="s">
         <v>388</v>
       </c>
@@ -51763,7 +51714,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="60.75">
+    <row r="139" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="85" t="s">
         <v>390</v>
       </c>
@@ -51826,7 +51777,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="60.75">
+    <row r="140" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="84" t="s">
         <v>392</v>
       </c>
@@ -51889,7 +51840,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="60.75">
+    <row r="141" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="85" t="s">
         <v>394</v>
       </c>
@@ -51952,7 +51903,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="76.5">
+    <row r="142" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A142" s="84" t="s">
         <v>396</v>
       </c>
@@ -52015,7 +51966,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="60.75">
+    <row r="143" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="85" t="s">
         <v>398</v>
       </c>
@@ -52078,7 +52029,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="366">
+    <row r="144" spans="1:22" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A144" s="84" t="s">
         <v>400</v>
       </c>
@@ -52141,7 +52092,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="351">
+    <row r="145" spans="1:22" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A145" s="85" t="s">
         <v>402</v>
       </c>
@@ -52204,7 +52155,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="336">
+    <row r="146" spans="1:22" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A146" s="84" t="s">
         <v>404</v>
       </c>
@@ -52267,7 +52218,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="351">
+    <row r="147" spans="1:22" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A147" s="85" t="s">
         <v>406</v>
       </c>
@@ -52333,7 +52284,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="336">
+    <row r="148" spans="1:22" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A148" s="84" t="s">
         <v>408</v>
       </c>
@@ -52401,7 +52352,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="336">
+    <row r="149" spans="1:22" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A149" s="85" t="s">
         <v>410</v>
       </c>
@@ -52469,7 +52420,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="396.75">
+    <row r="150" spans="1:22" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A150" s="84" t="s">
         <v>412</v>
       </c>
@@ -52537,7 +52488,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="381.75">
+    <row r="151" spans="1:22" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A151" s="85" t="s">
         <v>414</v>
       </c>
@@ -52605,7 +52556,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="381.75">
+    <row r="152" spans="1:22" ht="360" x14ac:dyDescent="0.3">
       <c r="A152" s="84" t="s">
         <v>416</v>
       </c>
@@ -52673,7 +52624,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="336">
+    <row r="153" spans="1:22" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A153" s="85" t="s">
         <v>418</v>
       </c>
@@ -52738,7 +52689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="275.25">
+    <row r="154" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A154" s="84" t="s">
         <v>420</v>
       </c>
@@ -52806,7 +52757,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="381.75">
+    <row r="155" spans="1:22" ht="360" x14ac:dyDescent="0.3">
       <c r="A155" s="85" t="s">
         <v>422</v>
       </c>
@@ -52874,7 +52825,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="244.5">
+    <row r="156" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A156" s="84" t="s">
         <v>424</v>
       </c>
@@ -52937,7 +52888,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="275.25">
+    <row r="157" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A157" s="85" t="s">
         <v>426</v>
       </c>
@@ -53000,7 +52951,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="244.5">
+    <row r="158" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A158" s="84" t="s">
         <v>428</v>
       </c>
@@ -53063,7 +53014,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="244.5">
+    <row r="159" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A159" s="85" t="s">
         <v>430</v>
       </c>
@@ -53126,7 +53077,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="244.5">
+    <row r="160" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A160" s="84" t="s">
         <v>432</v>
       </c>
@@ -53189,7 +53140,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="244.5">
+    <row r="161" spans="1:21" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A161" s="85" t="s">
         <v>434</v>
       </c>
@@ -53252,7 +53203,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="167.25">
+    <row r="162" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A162" s="84" t="s">
         <v>435</v>
       </c>
@@ -53315,7 +53266,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="152.25">
+    <row r="163" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A163" s="85" t="s">
         <v>437</v>
       </c>
@@ -53378,7 +53329,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="106.5">
+    <row r="164" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A164" s="84" t="s">
         <v>439</v>
       </c>
@@ -53441,7 +53392,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="409.6">
+    <row r="165" spans="1:21" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A165" s="85" t="s">
         <v>441</v>
       </c>
@@ -53506,7 +53457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="409.6">
+    <row r="166" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A166" s="84" t="s">
         <v>443</v>
       </c>
@@ -53571,7 +53522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="409.6">
+    <row r="167" spans="1:21" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A167" s="85" t="s">
         <v>445</v>
       </c>
@@ -53636,7 +53587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="198">
+    <row r="168" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A168" s="84" t="s">
         <v>447</v>
       </c>
@@ -53699,7 +53650,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="167.25">
+    <row r="169" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A169" s="85" t="s">
         <v>449</v>
       </c>
@@ -53762,7 +53713,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="183">
+    <row r="170" spans="1:21" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A170" s="84" t="s">
         <v>451</v>
       </c>
@@ -53825,7 +53776,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="213">
+    <row r="171" spans="1:21" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A171" s="85" t="s">
         <v>453</v>
       </c>
@@ -53888,7 +53839,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="152.25">
+    <row r="172" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A172" s="84" t="s">
         <v>455</v>
       </c>
@@ -53951,7 +53902,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="167.25">
+    <row r="173" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A173" s="85" t="s">
         <v>457</v>
       </c>
@@ -54014,7 +53965,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="121.5">
+    <row r="174" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A174" s="88" t="s">
         <v>459</v>
       </c>
@@ -54077,7 +54028,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>651</v>
       </c>
@@ -54104,7 +54055,7 @@
       </c>
       <c r="R175" s="17"/>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>652</v>
       </c>
@@ -54137,9 +54088,30 @@
     <protectedRange sqref="S1:V11 S13:V174 V12" name="Range2"/>
     <protectedRange sqref="S12:U12" name="Range2_1"/>
   </protectedRanges>
-  <conditionalFormatting sqref="S4:S11 S13:S174">
-    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="Failed">
+  <conditionalFormatting sqref="S4:S174">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",S4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",S4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",S4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",S4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S78:S117 S21:S26 S53:S68 S28:S51 S71:S76 S119:S133 S135:S174 S4:S11 S13:S19">
@@ -54155,17 +54127,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7">
-    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH("Blocked",T7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="8" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",T7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",T7)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -54175,53 +54145,6 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S11 S13:S174">
-    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",S4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S11 S13:S174">
-    <cfRule type="containsText" dxfId="57" priority="6" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",S4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S11 S13:S174">
-    <cfRule type="containsText" dxfId="56" priority="12" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",S4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12">
-    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",S12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12">
-    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",S12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",S12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12">
-    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",S12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -54242,41 +54165,41 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="H3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="22" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="22" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="25.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="48.5703125" customWidth="1"/>
+    <col min="16" max="16" width="25.109375" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" customWidth="1"/>
+    <col min="18" max="18" width="48.5546875" customWidth="1"/>
     <col min="20" max="20" width="35" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="31.5703125" style="78" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="31.5546875" style="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="76.5">
+    <row r="2" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -54347,7 +54270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="152.25">
+    <row r="3" spans="1:23" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
         <v>465</v>
       </c>
@@ -54416,7 +54339,7 @@
       </c>
       <c r="W3" s="15"/>
     </row>
-    <row r="4" spans="1:23" ht="106.5">
+    <row r="4" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="74" t="s">
         <v>469</v>
       </c>
@@ -54485,7 +54408,7 @@
       </c>
       <c r="W4" s="15"/>
     </row>
-    <row r="5" spans="1:23" ht="167.25">
+    <row r="5" spans="1:23" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
         <v>474</v>
       </c>
@@ -54554,7 +54477,7 @@
       </c>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="167.25">
+    <row r="6" spans="1:23" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
         <v>477</v>
       </c>
@@ -54623,7 +54546,7 @@
       </c>
       <c r="W6" s="15"/>
     </row>
-    <row r="7" spans="1:23" ht="167.25">
+    <row r="7" spans="1:23" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
         <v>479</v>
       </c>
@@ -54692,7 +54615,7 @@
       </c>
       <c r="W7" s="15"/>
     </row>
-    <row r="8" spans="1:23" ht="290.25">
+    <row r="8" spans="1:23" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A8" s="74" t="s">
         <v>482</v>
       </c>
@@ -54763,7 +54686,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="366">
+    <row r="9" spans="1:23" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
         <v>486</v>
       </c>
@@ -54832,7 +54755,7 @@
       </c>
       <c r="W9" s="15"/>
     </row>
-    <row r="10" spans="1:23" ht="244.5">
+    <row r="10" spans="1:23" ht="216" x14ac:dyDescent="0.3">
       <c r="A10" s="74" t="s">
         <v>488</v>
       </c>
@@ -54901,7 +54824,7 @@
       </c>
       <c r="W10" s="15"/>
     </row>
-    <row r="11" spans="1:23" ht="366">
+    <row r="11" spans="1:23" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A11" s="74" t="s">
         <v>491</v>
       </c>
@@ -54970,7 +54893,7 @@
       </c>
       <c r="W11" s="15"/>
     </row>
-    <row r="12" spans="1:23" ht="305.25">
+    <row r="12" spans="1:23" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
         <v>493</v>
       </c>
@@ -55041,7 +54964,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="275.25">
+    <row r="13" spans="1:23" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
         <v>496</v>
       </c>
@@ -55110,7 +55033,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="396.75">
+    <row r="14" spans="1:23" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A14" s="74" t="s">
         <v>499</v>
       </c>
@@ -55175,7 +55098,7 @@
       <c r="V14" s="58"/>
       <c r="W14" s="15"/>
     </row>
-    <row r="15" spans="1:23" ht="259.5">
+    <row r="15" spans="1:23" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A15" s="74" t="s">
         <v>501</v>
       </c>
@@ -55240,7 +55163,7 @@
       <c r="V15" s="58"/>
       <c r="W15" s="15"/>
     </row>
-    <row r="16" spans="1:23" ht="275.25">
+    <row r="16" spans="1:23" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A16" s="74" t="s">
         <v>504</v>
       </c>
@@ -55305,7 +55228,7 @@
       <c r="V16" s="58"/>
       <c r="W16" s="15"/>
     </row>
-    <row r="17" spans="1:23" ht="244.5">
+    <row r="17" spans="1:23" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
         <v>506</v>
       </c>
@@ -55370,7 +55293,7 @@
       <c r="V17" s="58"/>
       <c r="W17" s="15"/>
     </row>
-    <row r="18" spans="1:23" ht="91.5">
+    <row r="18" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="75" t="s">
         <v>508</v>
       </c>
@@ -55431,7 +55354,7 @@
       <c r="V18" s="17"/>
       <c r="W18" s="15"/>
     </row>
-    <row r="19" spans="1:23" ht="91.5">
+    <row r="19" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="75" t="s">
         <v>511</v>
       </c>
@@ -55492,7 +55415,7 @@
       <c r="V19" s="17"/>
       <c r="W19" s="15"/>
     </row>
-    <row r="20" spans="1:23" ht="76.5">
+    <row r="20" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="75" t="s">
         <v>513</v>
       </c>
@@ -55553,7 +55476,7 @@
       <c r="V20" s="17"/>
       <c r="W20" s="15"/>
     </row>
-    <row r="21" spans="1:23" ht="76.5">
+    <row r="21" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="75" t="s">
         <v>515</v>
       </c>
@@ -55614,7 +55537,7 @@
       <c r="V21" s="17"/>
       <c r="W21" s="15"/>
     </row>
-    <row r="22" spans="1:23" ht="91.5">
+    <row r="22" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="75" t="s">
         <v>517</v>
       </c>
@@ -55675,7 +55598,7 @@
       <c r="V22" s="17"/>
       <c r="W22" s="15"/>
     </row>
-    <row r="23" spans="1:23" ht="91.5">
+    <row r="23" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="75" t="s">
         <v>519</v>
       </c>
@@ -55736,7 +55659,7 @@
       <c r="V23" s="17"/>
       <c r="W23" s="15"/>
     </row>
-    <row r="24" spans="1:23" ht="91.5">
+    <row r="24" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="75" t="s">
         <v>521</v>
       </c>
@@ -55797,7 +55720,7 @@
       <c r="V24" s="17"/>
       <c r="W24" s="15"/>
     </row>
-    <row r="25" spans="1:23" ht="91.5">
+    <row r="25" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="75" t="s">
         <v>523</v>
       </c>
@@ -55858,7 +55781,7 @@
       <c r="V25" s="17"/>
       <c r="W25" s="15"/>
     </row>
-    <row r="26" spans="1:23" ht="336">
+    <row r="26" spans="1:23" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A26" s="74" t="s">
         <v>525</v>
       </c>
@@ -55923,7 +55846,7 @@
       <c r="V26" s="58"/>
       <c r="W26" s="15"/>
     </row>
-    <row r="27" spans="1:23" ht="229.5">
+    <row r="27" spans="1:23" ht="216" x14ac:dyDescent="0.3">
       <c r="A27" s="74" t="s">
         <v>529</v>
       </c>
@@ -55990,7 +55913,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="336">
+    <row r="28" spans="1:23" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A28" s="74" t="s">
         <v>533</v>
       </c>
@@ -56057,7 +55980,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="336">
+    <row r="29" spans="1:23" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A29" s="74" t="s">
         <v>536</v>
       </c>
@@ -56122,7 +56045,7 @@
       <c r="V29" s="17"/>
       <c r="W29" s="15"/>
     </row>
-    <row r="30" spans="1:23" ht="366">
+    <row r="30" spans="1:23" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A30" s="74" t="s">
         <v>541</v>
       </c>
@@ -56187,7 +56110,7 @@
       <c r="V30" s="17"/>
       <c r="W30" s="15"/>
     </row>
-    <row r="31" spans="1:23" ht="336">
+    <row r="31" spans="1:23" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A31" s="74" t="s">
         <v>546</v>
       </c>
@@ -56248,7 +56171,7 @@
       <c r="V31" s="17"/>
       <c r="W31" s="15"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="E32" s="14"/>
       <c r="R32" s="15"/>
@@ -56264,20 +56187,18 @@
     <protectedRange sqref="S3:W31" name="Range1"/>
   </protectedRanges>
   <conditionalFormatting sqref="S3:S32">
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",S3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH("Blocked",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",S3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S32">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -56691,17 +56612,55 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3A32CB-4DE8-491A-B55C-368C4FA50074}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3A32CB-4DE8-491A-B55C-368C4FA50074}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="420942e1-70d5-463c-ac4d-13ab10912fba"/>
+    <ds:schemaRef ds:uri="f76aaf80-9812-406c-9dd3-ccb851cf3a75"/>
+    <ds:schemaRef ds:uri="a250f320-4a14-48a5-88ca-9983bb841a9e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0C86B97-5B8B-4CE9-9899-AAA4110BDACD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0C86B97-5B8B-4CE9-9899-AAA4110BDACD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E840FFB-F2CC-40EC-92AB-88E53E3F5730}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E840FFB-F2CC-40EC-92AB-88E53E3F5730}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8E6049-CFF5-4224-BA8A-9538FB4B40C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8E6049-CFF5-4224-BA8A-9538FB4B40C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="420942e1-70d5-463c-ac4d-13ab10912fba"/>
+    <ds:schemaRef ds:uri="a250f320-4a14-48a5-88ca-9983bb841a9e"/>
+    <ds:schemaRef ds:uri="f76aaf80-9812-406c-9dd3-ccb851cf3a75"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{6be7ebee-5b98-4973-86ef-ae3752ea54e7}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -760,7 +760,7 @@
     <t>Birth Year and Month</t>
   </si>
   <si>
-    <t>Partner's Birth Year and Month</t>
+    <t>Partner Birth Year and Month</t>
   </si>
   <si>
     <t>Notes</t>
@@ -6005,7 +6005,7 @@
     <tableColumn name="Marital Status_x000a_(With or Without Partner, Widowed)" id="10"/>
     <tableColumn name="Inv Sep (Yes / No)" id="11"/>
     <tableColumn name="Partner's Age (Years and months)" id="12"/>
-    <tableColumn name="Partner's Birth Year and Month" id="13"/>
+    <tableColumn name="Partner Birth Year and Month" id="13"/>
     <tableColumn name="Partner's Net Worldwide Income" id="14"/>
     <tableColumn name="Combined Net Worldwide Income" id="15"/>
     <tableColumn name="Partner's Legal Status (Yes / No)" id="16"/>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="661">
   <si>
     <t>Will be Eligible Test Scenarios</t>
   </si>
@@ -4927,7 +4927,7 @@
 ALWS = not eligible due to age
 Partner
 Eligible:
-OAS = 192.12 (with 10 years of residency at the earliest age of eligibility)
+OAS = 174.65 (with 10 years of residency at the earliest age of eligibility)
 GIS = Income too high
 ALW = not eligible due to age</t>
   </si>
@@ -18466,7 +18466,9 @@
       <c r="R196" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="S196" s="103"/>
+      <c r="S196" s="103" t="s">
+        <v>55</v>
+      </c>
       <c r="T196" s="75" t="s">
         <v>660</v>
       </c>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="662">
   <si>
     <t>Will be Eligible Test Scenarios</t>
   </si>
@@ -5247,6 +5247,9 @@
   </si>
   <si>
     <t>CALC-185</t>
+  </si>
+  <si>
+    <t>1948;12</t>
   </si>
   <si>
     <t>OAS = $205.95 (10 yrs of residency with 12 months deferral)
@@ -17450,7 +17453,7 @@
         <v>616</v>
       </c>
       <c r="B181" s="90">
-        <v>80.58</v>
+        <v>76.83</v>
       </c>
       <c r="C181" s="91" t="s">
         <v>617</v>
@@ -17985,7 +17988,7 @@
         <v>46</v>
       </c>
       <c r="K189" s="92" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="L189" s="90">
         <v>80.17</v>
@@ -18111,7 +18114,7 @@
         <v>46</v>
       </c>
       <c r="K191" s="92" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="L191" s="90">
         <v>80.17</v>
@@ -18273,10 +18276,10 @@
         <v>654</v>
       </c>
       <c r="B194" s="90">
-        <v>75.08</v>
+        <v>75</v>
       </c>
       <c r="C194" s="92" t="s">
-        <v>161</v>
+        <v>655</v>
       </c>
       <c r="D194" s="92" t="s">
         <v>47</v>
@@ -18300,7 +18303,7 @@
         <v>46</v>
       </c>
       <c r="K194" s="92" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="L194" s="90">
         <v>80.25</v>
@@ -18327,13 +18330,13 @@
         <v>55</v>
       </c>
       <c r="T194" s="69" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="U194" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
       <c r="A195" s="89" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B195" s="90">
         <v>75.17</v>
@@ -18363,7 +18366,7 @@
         <v>46</v>
       </c>
       <c r="K195" s="92" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="L195" s="90">
         <v>80.25</v>
@@ -18384,13 +18387,13 @@
         <v>24</v>
       </c>
       <c r="R195" s="94" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="S195" s="96" t="s">
         <v>55</v>
       </c>
       <c r="T195" s="69" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="U195" s="4" t="s">
         <v>633</v>
@@ -18398,7 +18401,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="89" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B196" s="90">
         <v>75.17</v>
@@ -18455,7 +18458,7 @@
         <v>55</v>
       </c>
       <c r="T196" s="69" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="U196" s="4" t="s">
         <v>633</v>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="726">
   <si>
     <t>Will be Eligible Test Scenarios</t>
   </si>
@@ -5471,9 +5471,6 @@
     <t>CALC-190</t>
   </si>
   <si>
-    <t>$0.00</t>
-  </si>
-  <si>
     <t>User Eligible
 ALW = not eligible bcs does not live in Canada
 Will be eligible at age 65 with 35 years of residency
@@ -5498,6 +5495,9 @@
   </si>
   <si>
     <t>1964;11</t>
+  </si>
+  <si>
+    <t>$0.00</t>
   </si>
   <si>
     <t>Will be eligible for:
@@ -21445,7 +21445,7 @@
         <v>677</v>
       </c>
       <c r="D199" s="30" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E199" s="30" t="s">
         <v>22</v>
@@ -21520,19 +21520,19 @@
         <v>443</v>
       </c>
       <c r="D200" s="30" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E200" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F200" s="105" t="s">
-        <v>684</v>
-      </c>
-      <c r="G200" s="105" t="s">
-        <v>684</v>
-      </c>
-      <c r="H200" s="105" t="s">
-        <v>684</v>
+      <c r="F200" s="105">
+        <v>0</v>
+      </c>
+      <c r="G200" s="105">
+        <v>0</v>
+      </c>
+      <c r="H200" s="105">
+        <v>0</v>
       </c>
       <c r="I200" s="30" t="s">
         <v>23</v>
@@ -21555,17 +21555,17 @@
       <c r="O200" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="P200" s="105" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q200" s="105" t="s">
-        <v>684</v>
-      </c>
-      <c r="R200" s="105" t="s">
-        <v>678</v>
-      </c>
-      <c r="S200" s="107" t="s">
-        <v>678</v>
+      <c r="P200" s="105">
+        <v>40000</v>
+      </c>
+      <c r="Q200" s="105">
+        <v>0</v>
+      </c>
+      <c r="R200" s="105">
+        <v>40000</v>
+      </c>
+      <c r="S200" s="107">
+        <v>40000</v>
       </c>
       <c r="T200" s="30" t="s">
         <v>23</v>
@@ -21574,40 +21574,40 @@
         <v>24</v>
       </c>
       <c r="V200" s="106" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="W200" s="30" t="s">
         <v>23</v>
       </c>
       <c r="X200" s="13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Y200" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="103" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B201" s="104">
         <v>59</v>
       </c>
       <c r="C201" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="D201" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F201" s="105" t="s">
         <v>687</v>
       </c>
-      <c r="D201" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E201" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F201" s="105" t="s">
-        <v>684</v>
-      </c>
       <c r="G201" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H201" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="I201" s="30" t="s">
         <v>23</v>
@@ -21667,7 +21667,7 @@
         <v>59</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D202" s="30" t="s">
         <v>22</v>
@@ -21679,7 +21679,7 @@
         <v>690</v>
       </c>
       <c r="G202" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H202" s="105" t="s">
         <v>690</v>
@@ -21706,13 +21706,13 @@
         <v>418</v>
       </c>
       <c r="P202" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="Q202" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="R202" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="S202" s="107" t="s">
         <v>690</v>
@@ -21754,7 +21754,7 @@
         <v>693</v>
       </c>
       <c r="G203" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H203" s="105" t="s">
         <v>693</v>
@@ -21784,7 +21784,7 @@
         <v>693</v>
       </c>
       <c r="Q203" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="R203" s="105" t="s">
         <v>693</v>
@@ -21829,7 +21829,7 @@
         <v>698</v>
       </c>
       <c r="G204" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H204" s="105" t="s">
         <v>698</v>
@@ -21856,13 +21856,13 @@
         <v>697</v>
       </c>
       <c r="P204" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="Q204" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="R204" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="S204" s="107" t="s">
         <v>698</v>
@@ -21892,7 +21892,7 @@
         <v>59</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D205" s="30" t="s">
         <v>22</v>
@@ -21904,7 +21904,7 @@
         <v>690</v>
       </c>
       <c r="G205" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H205" s="105" t="s">
         <v>690</v>
@@ -21931,13 +21931,13 @@
         <v>418</v>
       </c>
       <c r="P205" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="Q205" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="R205" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="S205" s="107" t="s">
         <v>690</v>
@@ -21979,7 +21979,7 @@
         <v>704</v>
       </c>
       <c r="G206" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H206" s="105" t="s">
         <v>704</v>
@@ -22009,7 +22009,7 @@
         <v>706</v>
       </c>
       <c r="Q206" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="R206" s="105" t="s">
         <v>706</v>
@@ -22054,7 +22054,7 @@
         <v>704</v>
       </c>
       <c r="G207" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H207" s="105" t="s">
         <v>704</v>
@@ -22084,7 +22084,7 @@
         <v>706</v>
       </c>
       <c r="Q207" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="R207" s="105" t="s">
         <v>706</v>
@@ -22126,13 +22126,13 @@
         <v>22</v>
       </c>
       <c r="F208" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="G208" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H208" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="I208" s="30" t="s">
         <v>23</v>
@@ -22156,16 +22156,16 @@
         <v>705</v>
       </c>
       <c r="P208" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="Q208" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="R208" s="105" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="S208" s="107" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="T208" s="30" t="s">
         <v>23</v>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="726">
   <si>
     <t>Will be Eligible Test Scenarios</t>
   </si>
@@ -21600,11 +21600,11 @@
       <c r="E201" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F201" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="G201" s="105" t="s">
-        <v>687</v>
+      <c r="F201" s="105">
+        <v>0</v>
+      </c>
+      <c r="G201" s="105">
+        <v>0</v>
       </c>
       <c r="H201" s="105" t="s">
         <v>687</v>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3740" uniqueCount="726">
   <si>
     <t>Will be Eligible Test Scenarios</t>
   </si>
@@ -5515,9 +5515,6 @@
     <t>CALC-192</t>
   </si>
   <si>
-    <t>$4,000.00</t>
-  </si>
-  <si>
     <r>
       <t/>
     </r>
@@ -5574,6 +5571,9 @@
   </si>
   <si>
     <t>1965;11</t>
+  </si>
+  <si>
+    <t>$4,000.00</t>
   </si>
   <si>
     <t>User will be eligible for:
@@ -21595,7 +21595,7 @@
         <v>686</v>
       </c>
       <c r="D201" s="30" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E201" s="30" t="s">
         <v>22</v>
@@ -21670,19 +21670,19 @@
         <v>686</v>
       </c>
       <c r="D202" s="30" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E202" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F202" s="105" t="s">
-        <v>690</v>
-      </c>
-      <c r="G202" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="H202" s="105" t="s">
-        <v>690</v>
+      <c r="F202" s="105">
+        <v>4000</v>
+      </c>
+      <c r="G202" s="105">
+        <v>0</v>
+      </c>
+      <c r="H202" s="105">
+        <v>4000</v>
       </c>
       <c r="I202" s="30" t="s">
         <v>23</v>
@@ -21705,17 +21705,17 @@
       <c r="O202" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="P202" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q202" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="R202" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="S202" s="107" t="s">
-        <v>690</v>
+      <c r="P202" s="105">
+        <v>0</v>
+      </c>
+      <c r="Q202" s="105">
+        <v>0</v>
+      </c>
+      <c r="R202" s="105">
+        <v>0</v>
+      </c>
+      <c r="S202" s="107">
+        <v>4000</v>
       </c>
       <c r="T202" s="30" t="s">
         <v>23</v>
@@ -21730,13 +21730,13 @@
         <v>22</v>
       </c>
       <c r="X202" s="53" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Y202" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
       <c r="A203" s="103" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B203" s="104">
         <v>64</v>
@@ -21751,13 +21751,13 @@
         <v>22</v>
       </c>
       <c r="F203" s="105" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G203" s="105" t="s">
         <v>687</v>
       </c>
       <c r="H203" s="105" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I203" s="30" t="s">
         <v>23</v>
@@ -21778,19 +21778,19 @@
         <v>58</v>
       </c>
       <c r="O203" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P203" s="105" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Q203" s="105" t="s">
         <v>687</v>
       </c>
       <c r="R203" s="105" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S203" s="107" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="T203" s="30" t="s">
         <v>22</v>
@@ -21901,13 +21901,13 @@
         <v>22</v>
       </c>
       <c r="F205" s="105" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="G205" s="105" t="s">
         <v>687</v>
       </c>
       <c r="H205" s="105" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="I205" s="30" t="s">
         <v>23</v>
@@ -21940,7 +21940,7 @@
         <v>687</v>
       </c>
       <c r="S205" s="107" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="T205" s="30" t="s">
         <v>23</v>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3740" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3726" uniqueCount="724">
   <si>
     <t>Will be Eligible Test Scenarios</t>
   </si>
@@ -5567,13 +5567,7 @@
     <t>CALC-193</t>
   </si>
   <si>
-    <t>$2,000.00</t>
-  </si>
-  <si>
     <t>1965;11</t>
-  </si>
-  <si>
-    <t>$4,000.00</t>
   </si>
   <si>
     <t>User will be eligible for:
@@ -5598,9 +5592,6 @@
     <t>1978;11</t>
   </si>
   <si>
-    <t>$15,000.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">User will be eligible for:
 OAS: $384.23 at age 65 (with 22 yrs residence)
 GIS: not eligible bcs does not live in Canada
@@ -5617,6 +5608,9 @@
   </si>
   <si>
     <t>CALC-195</t>
+  </si>
+  <si>
+    <t>$4,000.00</t>
   </si>
   <si>
     <t xml:space="preserve">User will be eligible for:
@@ -21750,14 +21744,14 @@
       <c r="E203" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F203" s="105" t="s">
-        <v>692</v>
-      </c>
-      <c r="G203" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="H203" s="105" t="s">
-        <v>692</v>
+      <c r="F203" s="105">
+        <v>2000</v>
+      </c>
+      <c r="G203" s="105">
+        <v>0</v>
+      </c>
+      <c r="H203" s="105">
+        <v>2000</v>
       </c>
       <c r="I203" s="30" t="s">
         <v>23</v>
@@ -21778,46 +21772,46 @@
         <v>58</v>
       </c>
       <c r="O203" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="P203" s="105">
+        <v>2000</v>
+      </c>
+      <c r="Q203" s="105">
+        <v>0</v>
+      </c>
+      <c r="R203" s="105">
+        <v>2000</v>
+      </c>
+      <c r="S203" s="107">
+        <v>4000</v>
+      </c>
+      <c r="T203" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="U203" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="V203" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="W203" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="X203" s="13" t="s">
         <v>693</v>
-      </c>
-      <c r="P203" s="105" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q203" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="R203" s="105" t="s">
-        <v>692</v>
-      </c>
-      <c r="S203" s="107" t="s">
-        <v>694</v>
-      </c>
-      <c r="T203" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="U203" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="V203" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="W203" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="X203" s="13" t="s">
-        <v>695</v>
       </c>
       <c r="Y203" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
       <c r="A204" s="103" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B204" s="104">
         <v>45</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D204" s="30" t="s">
         <v>22</v>
@@ -21825,14 +21819,14 @@
       <c r="E204" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F204" s="105" t="s">
-        <v>698</v>
-      </c>
-      <c r="G204" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="H204" s="105" t="s">
-        <v>698</v>
+      <c r="F204" s="105">
+        <v>15000</v>
+      </c>
+      <c r="G204" s="105">
+        <v>0</v>
+      </c>
+      <c r="H204" s="105">
+        <v>15000</v>
       </c>
       <c r="I204" s="30" t="s">
         <v>23</v>
@@ -21853,19 +21847,19 @@
         <v>45</v>
       </c>
       <c r="O204" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="P204" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q204" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="R204" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="S204" s="107" t="s">
-        <v>698</v>
+        <v>695</v>
+      </c>
+      <c r="P204" s="105">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="105">
+        <v>0</v>
+      </c>
+      <c r="R204" s="105">
+        <v>0</v>
+      </c>
+      <c r="S204" s="107">
+        <v>15000</v>
       </c>
       <c r="T204" s="30" t="s">
         <v>22</v>
@@ -21880,13 +21874,13 @@
         <v>22</v>
       </c>
       <c r="X204" s="13" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="Y204" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
       <c r="A205" s="103" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B205" s="104">
         <v>59</v>
@@ -21901,13 +21895,13 @@
         <v>22</v>
       </c>
       <c r="F205" s="105" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="G205" s="105" t="s">
         <v>687</v>
       </c>
       <c r="H205" s="105" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I205" s="30" t="s">
         <v>23</v>
@@ -21940,7 +21934,7 @@
         <v>687</v>
       </c>
       <c r="S205" s="107" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="T205" s="30" t="s">
         <v>23</v>
@@ -21955,19 +21949,19 @@
         <v>22</v>
       </c>
       <c r="X205" s="13" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="Y205" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="103" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B206" s="104">
         <v>55</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D206" s="30" t="s">
         <v>22</v>
@@ -21976,13 +21970,13 @@
         <v>22</v>
       </c>
       <c r="F206" s="105" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G206" s="105" t="s">
         <v>687</v>
       </c>
       <c r="H206" s="105" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I206" s="30" t="s">
         <v>23</v>
@@ -22003,19 +21997,19 @@
         <v>62</v>
       </c>
       <c r="O206" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="P206" s="105" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="Q206" s="105" t="s">
         <v>687</v>
       </c>
       <c r="R206" s="105" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="S206" s="107" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="T206" s="30" t="s">
         <v>23</v>
@@ -22030,19 +22024,19 @@
         <v>22</v>
       </c>
       <c r="X206" s="13" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="Y206" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="103" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B207" s="104">
         <v>55</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D207" s="30" t="s">
         <v>22</v>
@@ -22051,13 +22045,13 @@
         <v>22</v>
       </c>
       <c r="F207" s="105" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G207" s="105" t="s">
         <v>687</v>
       </c>
       <c r="H207" s="105" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I207" s="30" t="s">
         <v>23</v>
@@ -22078,19 +22072,19 @@
         <v>62</v>
       </c>
       <c r="O207" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="P207" s="105" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="Q207" s="105" t="s">
         <v>687</v>
       </c>
       <c r="R207" s="105" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="S207" s="107" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="T207" s="30" t="s">
         <v>23</v>
@@ -22105,19 +22099,19 @@
         <v>22</v>
       </c>
       <c r="X207" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="Y207" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="103" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B208" s="104">
         <v>55</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D208" s="30" t="s">
         <v>22</v>
@@ -22153,7 +22147,7 @@
         <v>62</v>
       </c>
       <c r="O208" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="P208" s="105" t="s">
         <v>687</v>
@@ -22180,19 +22174,19 @@
         <v>22</v>
       </c>
       <c r="X208" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="Y208" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="103" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B209" s="108">
         <v>70</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>47</v>
@@ -22255,19 +22249,19 @@
         <v>22</v>
       </c>
       <c r="X209" s="13" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="Y209" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="103" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B210" s="109">
         <v>68.75</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>47</v>
@@ -22303,7 +22297,7 @@
         <v>59.25</v>
       </c>
       <c r="O210" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="P210" s="16">
         <v>88000</v>
@@ -22330,19 +22324,19 @@
         <v>22</v>
       </c>
       <c r="X210" s="13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="Y210" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="103" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B211" s="110">
         <v>59.92</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D211" s="111" t="s">
         <v>22</v>
@@ -22405,13 +22399,13 @@
         <v>55</v>
       </c>
       <c r="X211" s="53" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="Y211" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="103" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B212" s="110">
         <v>63.08</v>
@@ -22480,13 +22474,13 @@
         <v>22</v>
       </c>
       <c r="X212" s="13" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="Y212" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="15">
       <c r="A213" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B213" s="29">
         <v>75.17</v>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3726" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3712" uniqueCount="723">
   <si>
     <t>Will be Eligible Test Scenarios</t>
   </si>
@@ -5610,9 +5610,6 @@
     <t>CALC-195</t>
   </si>
   <si>
-    <t>$4,000.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">User will be eligible for:
 ALW: not eligible bcs does not live in Canada
 OAS: $523.95 at age 65 (with 30 yrs residence)
@@ -5635,16 +5632,7 @@
     <t>1968;11</t>
   </si>
   <si>
-    <t>$10,000.00</t>
-  </si>
-  <si>
     <t>1961;11</t>
-  </si>
-  <si>
-    <t>$35,000.00</t>
-  </si>
-  <si>
-    <t>$45,000.00</t>
   </si>
   <si>
     <t xml:space="preserve">User will be eligible for:
@@ -5664,6 +5652,15 @@
   </si>
   <si>
     <t>CALC-197</t>
+  </si>
+  <si>
+    <t>$10,000.00</t>
+  </si>
+  <si>
+    <t>$35,000.00</t>
+  </si>
+  <si>
+    <t>$45,000.00</t>
   </si>
   <si>
     <t xml:space="preserve">User will be eligible for:
@@ -21894,14 +21891,14 @@
       <c r="E205" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F205" s="105" t="s">
-        <v>698</v>
-      </c>
-      <c r="G205" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="H205" s="105" t="s">
-        <v>698</v>
+      <c r="F205" s="105">
+        <v>4000</v>
+      </c>
+      <c r="G205" s="105">
+        <v>0</v>
+      </c>
+      <c r="H205" s="105">
+        <v>4000</v>
       </c>
       <c r="I205" s="30" t="s">
         <v>23</v>
@@ -21924,17 +21921,17 @@
       <c r="O205" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="P205" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q205" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="R205" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="S205" s="107" t="s">
-        <v>698</v>
+      <c r="P205" s="105">
+        <v>0</v>
+      </c>
+      <c r="Q205" s="105">
+        <v>0</v>
+      </c>
+      <c r="R205" s="105">
+        <v>0</v>
+      </c>
+      <c r="S205" s="107">
+        <v>4000</v>
       </c>
       <c r="T205" s="30" t="s">
         <v>23</v>
@@ -21949,19 +21946,19 @@
         <v>22</v>
       </c>
       <c r="X205" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="Y205" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="103" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B206" s="104">
         <v>55</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D206" s="30" t="s">
         <v>22</v>
@@ -21969,14 +21966,14 @@
       <c r="E206" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F206" s="105" t="s">
-        <v>702</v>
-      </c>
-      <c r="G206" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="H206" s="105" t="s">
-        <v>702</v>
+      <c r="F206" s="105">
+        <v>10000</v>
+      </c>
+      <c r="G206" s="105">
+        <v>0</v>
+      </c>
+      <c r="H206" s="105">
+        <v>10000</v>
       </c>
       <c r="I206" s="30" t="s">
         <v>23</v>
@@ -21997,19 +21994,19 @@
         <v>62</v>
       </c>
       <c r="O206" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="P206" s="105" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q206" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="R206" s="105" t="s">
-        <v>704</v>
-      </c>
-      <c r="S206" s="107" t="s">
-        <v>705</v>
+        <v>701</v>
+      </c>
+      <c r="P206" s="105">
+        <v>35000</v>
+      </c>
+      <c r="Q206" s="105">
+        <v>0</v>
+      </c>
+      <c r="R206" s="105">
+        <v>35000</v>
+      </c>
+      <c r="S206" s="107">
+        <v>45000</v>
       </c>
       <c r="T206" s="30" t="s">
         <v>23</v>
@@ -22024,19 +22021,19 @@
         <v>22</v>
       </c>
       <c r="X206" s="13" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="Y206" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="103" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B207" s="104">
         <v>55</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D207" s="30" t="s">
         <v>22</v>
@@ -22045,13 +22042,13 @@
         <v>22</v>
       </c>
       <c r="F207" s="105" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G207" s="105" t="s">
         <v>687</v>
       </c>
       <c r="H207" s="105" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="I207" s="30" t="s">
         <v>23</v>
@@ -22072,19 +22069,19 @@
         <v>62</v>
       </c>
       <c r="O207" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="P207" s="105" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Q207" s="105" t="s">
         <v>687</v>
       </c>
       <c r="R207" s="105" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="S207" s="107" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="T207" s="30" t="s">
         <v>23</v>
@@ -22099,19 +22096,19 @@
         <v>22</v>
       </c>
       <c r="X207" s="13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y207" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="103" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B208" s="104">
         <v>55</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D208" s="30" t="s">
         <v>22</v>
@@ -22147,7 +22144,7 @@
         <v>62</v>
       </c>
       <c r="O208" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="P208" s="105" t="s">
         <v>687</v>
@@ -22174,19 +22171,19 @@
         <v>22</v>
       </c>
       <c r="X208" s="13" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Y208" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="103" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B209" s="108">
         <v>70</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>47</v>
@@ -22249,19 +22246,19 @@
         <v>22</v>
       </c>
       <c r="X209" s="13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Y209" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="103" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B210" s="109">
         <v>68.75</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>47</v>
@@ -22297,7 +22294,7 @@
         <v>59.25</v>
       </c>
       <c r="O210" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P210" s="16">
         <v>88000</v>
@@ -22324,19 +22321,19 @@
         <v>22</v>
       </c>
       <c r="X210" s="13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Y210" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="103" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B211" s="110">
         <v>59.92</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D211" s="111" t="s">
         <v>22</v>
@@ -22399,13 +22396,13 @@
         <v>55</v>
       </c>
       <c r="X211" s="53" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="Y211" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="103" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B212" s="110">
         <v>63.08</v>
@@ -22474,13 +22471,13 @@
         <v>22</v>
       </c>
       <c r="X212" s="13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="Y212" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="15">
       <c r="A213" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B213" s="29">
         <v>75.17</v>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3712" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="720">
   <si>
     <t>Will be Eligible Test Scenarios</t>
   </si>
@@ -5652,15 +5652,6 @@
   </si>
   <si>
     <t>CALC-197</t>
-  </si>
-  <si>
-    <t>$10,000.00</t>
-  </si>
-  <si>
-    <t>$35,000.00</t>
-  </si>
-  <si>
-    <t>$45,000.00</t>
   </si>
   <si>
     <t xml:space="preserve">User will be eligible for:
@@ -22041,14 +22032,14 @@
       <c r="E207" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F207" s="105" t="s">
-        <v>704</v>
-      </c>
-      <c r="G207" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="H207" s="105" t="s">
-        <v>704</v>
+      <c r="F207" s="105">
+        <v>10000</v>
+      </c>
+      <c r="G207" s="105">
+        <v>0</v>
+      </c>
+      <c r="H207" s="105">
+        <v>10000</v>
       </c>
       <c r="I207" s="30" t="s">
         <v>23</v>
@@ -22071,17 +22062,17 @@
       <c r="O207" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="P207" s="105" t="s">
-        <v>705</v>
-      </c>
-      <c r="Q207" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="R207" s="105" t="s">
-        <v>705</v>
-      </c>
-      <c r="S207" s="107" t="s">
-        <v>706</v>
+      <c r="P207" s="105">
+        <v>35000</v>
+      </c>
+      <c r="Q207" s="105">
+        <v>0</v>
+      </c>
+      <c r="R207" s="105">
+        <v>35000</v>
+      </c>
+      <c r="S207" s="107">
+        <v>45000</v>
       </c>
       <c r="T207" s="30" t="s">
         <v>23</v>
@@ -22096,13 +22087,13 @@
         <v>22</v>
       </c>
       <c r="X207" s="13" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="Y207" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="103" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B208" s="104">
         <v>55</v>
@@ -22116,14 +22107,14 @@
       <c r="E208" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F208" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="G208" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="H208" s="105" t="s">
-        <v>687</v>
+      <c r="F208" s="105">
+        <v>0</v>
+      </c>
+      <c r="G208" s="105">
+        <v>0</v>
+      </c>
+      <c r="H208" s="105">
+        <v>0</v>
       </c>
       <c r="I208" s="30" t="s">
         <v>23</v>
@@ -22146,17 +22137,17 @@
       <c r="O208" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="P208" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q208" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="R208" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="S208" s="107" t="s">
-        <v>687</v>
+      <c r="P208" s="105">
+        <v>0</v>
+      </c>
+      <c r="Q208" s="105">
+        <v>0</v>
+      </c>
+      <c r="R208" s="105">
+        <v>0</v>
+      </c>
+      <c r="S208" s="107">
+        <v>0</v>
       </c>
       <c r="T208" s="30" t="s">
         <v>23</v>
@@ -22171,19 +22162,19 @@
         <v>22</v>
       </c>
       <c r="X208" s="13" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="Y208" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="103" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B209" s="108">
         <v>70</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>47</v>
@@ -22246,19 +22237,19 @@
         <v>22</v>
       </c>
       <c r="X209" s="13" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Y209" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="103" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B210" s="109">
         <v>68.75</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>47</v>
@@ -22294,7 +22285,7 @@
         <v>59.25</v>
       </c>
       <c r="O210" s="6" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="P210" s="16">
         <v>88000</v>
@@ -22321,19 +22312,19 @@
         <v>22</v>
       </c>
       <c r="X210" s="13" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="Y210" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="103" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B211" s="110">
         <v>59.92</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D211" s="111" t="s">
         <v>22</v>
@@ -22396,13 +22387,13 @@
         <v>55</v>
       </c>
       <c r="X211" s="53" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="Y211" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="103" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B212" s="110">
         <v>63.08</v>
@@ -22471,13 +22462,13 @@
         <v>22</v>
       </c>
       <c r="X212" s="13" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="Y212" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="15">
       <c r="A213" s="6" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B213" s="29">
         <v>75.17</v>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -5786,7 +5786,7 @@
 ALW due to marital status</t>
   </si>
   <si>
-    <t>CALC-203</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -6164,7 +6164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -6504,6 +6504,15 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -6882,7 +6891,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="27" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="114" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="117" width="8.719285714285713" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="27" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="27" width="11.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="27" width="10.005" customWidth="1" bestFit="1"/>
@@ -22186,7 +22195,7 @@
         <v>31624</v>
       </c>
       <c r="G209" s="16">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="H209" s="16">
         <v>21624</v>
@@ -22336,7 +22345,7 @@
         <v>39980</v>
       </c>
       <c r="G211" s="16">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="H211" s="16">
         <v>29980</v>
@@ -22411,7 +22420,7 @@
         <v>28440</v>
       </c>
       <c r="G212" s="18">
-        <v>7840</v>
+        <v>10680</v>
       </c>
       <c r="H212" s="18">
         <v>20600</v>
@@ -22467,74 +22476,56 @@
       <c r="Y212" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="15">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="114" t="s">
         <v>719</v>
       </c>
-      <c r="B213" s="29">
-        <v>75.17</v>
-      </c>
-      <c r="C213" s="30" t="s">
-        <v>597</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E213" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F213" s="5">
-        <v>50000</v>
-      </c>
-      <c r="G213" s="5">
-        <v>0</v>
-      </c>
-      <c r="H213" s="5">
-        <v>50000</v>
-      </c>
-      <c r="I213" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J213" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K213" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="L213" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M213" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N213" s="2">
-        <v>80.33</v>
-      </c>
-      <c r="O213" s="30" t="s">
-        <v>596</v>
-      </c>
-      <c r="P213" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q213" s="5">
-        <v>0</v>
-      </c>
-      <c r="R213" s="5">
-        <v>0</v>
-      </c>
-      <c r="S213" s="7">
-        <v>50000</v>
-      </c>
-      <c r="T213" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U213" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="V213" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W213" s="6" t="s">
-        <v>55</v>
+      <c r="B213" s="29"/>
+      <c r="C213" s="115" t="s">
+        <v>719</v>
+      </c>
+      <c r="D213" s="114" t="s">
+        <v>719</v>
+      </c>
+      <c r="E213" s="114" t="s">
+        <v>719</v>
+      </c>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="114" t="s">
+        <v>719</v>
+      </c>
+      <c r="J213" s="114" t="s">
+        <v>719</v>
+      </c>
+      <c r="K213" s="116" t="s">
+        <v>719</v>
+      </c>
+      <c r="L213" s="114" t="s">
+        <v>719</v>
+      </c>
+      <c r="M213" s="114" t="s">
+        <v>719</v>
+      </c>
+      <c r="N213" s="2"/>
+      <c r="O213" s="115" t="s">
+        <v>719</v>
+      </c>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="5"/>
+      <c r="S213" s="7"/>
+      <c r="T213" s="114" t="s">
+        <v>719</v>
+      </c>
+      <c r="U213" s="114" t="s">
+        <v>719</v>
+      </c>
+      <c r="V213" s="116" t="s">
+        <v>719</v>
+      </c>
+      <c r="W213" s="114" t="s">
+        <v>719</v>
       </c>
       <c r="X213" s="4"/>
       <c r="Y213" s="4"/>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3741" uniqueCount="726">
   <si>
     <t>Will be Eligible Test Scenarios</t>
   </si>
@@ -766,6 +766,9 @@
     <t>Birth Year and Month</t>
   </si>
   <si>
+    <t>Exemption input</t>
+  </si>
+  <si>
     <t>Income for GIS, ALW and ALWS</t>
   </si>
   <si>
@@ -781,7 +784,7 @@
     <t>Partner Birth Year and Month</t>
   </si>
   <si>
-    <t>Partner exemption amount</t>
+    <t>Partner exemption input</t>
   </si>
   <si>
     <t>Partner income for GIS and ALW</t>
@@ -5431,9 +5434,6 @@
     <t>1983;11</t>
   </si>
   <si>
-    <t>$40,000.00</t>
-  </si>
-  <si>
     <t>Will be eligible at age 65 (with 20 yrs residence)
 OAS: $349,30 
 GIS: not eligible bcs does not live in Canada</t>
@@ -5471,6 +5471,12 @@
     <t>CALC-190</t>
   </si>
   <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>$40,000.00</t>
+  </si>
+  <si>
     <t>User Eligible
 ALW = not eligible bcs does not live in Canada
 Will be eligible at age 65 with 35 years of residency
@@ -5497,9 +5503,6 @@
     <t>1964;11</t>
   </si>
   <si>
-    <t>$0.00</t>
-  </si>
-  <si>
     <t>Will be eligible for:
 ALWS: not eligible bcs does not live in Canada
 OAS: $454.09 at age 65 (with 26 yrs residence)
@@ -5513,6 +5516,9 @@
   </si>
   <si>
     <t>CALC-192</t>
+  </si>
+  <si>
+    <t>$4,000.00</t>
   </si>
   <si>
     <r>
@@ -5567,6 +5573,9 @@
     <t>CALC-193</t>
   </si>
   <si>
+    <t>$2,000.00</t>
+  </si>
+  <si>
     <t>1965;11</t>
   </si>
   <si>
@@ -5592,6 +5601,9 @@
     <t>1978;11</t>
   </si>
   <si>
+    <t>$15,000.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">User will be eligible for:
 OAS: $384.23 at age 65 (with 22 yrs residence)
 GIS: not eligible bcs does not live in Canada
@@ -5632,11 +5644,20 @@
     <t>1968;11</t>
   </si>
   <si>
+    <t>$10,000.00</t>
+  </si>
+  <si>
     <t>1961;11</t>
   </si>
   <si>
+    <t>$35,000.00</t>
+  </si>
+  <si>
+    <t>$45,000.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">User will be eligible for:
-ALW: not eligible bcs does not live in Canada
+ALW: not eligible bcs partner not eligible for GIS
 OAS: $436.63 at age 65 (with 25 yrs residence)
 GIS: not eligible bcs does not live in Canada
 Deferral table:
@@ -5645,9 +5666,8 @@
 68 = 530.94
 69 = 562.38
 70 = 593.82
-Partner will be eligible for:
-OAS: $261.98 at age 65 and $261.98 at age 72
-GIS: not eligible bcs does not live in Canada
+Partner is not eligible:
+Partner lacks portability for OAS and GIS eligibility since they do not live in Canada and have less than 20 years. 
 </t>
   </si>
   <si>
@@ -5657,14 +5677,14 @@
     <t xml:space="preserve">User will be eligible for:
 ALW: not eligible bcs partner not eligible for GIS
 OAS: $611.28 at age 65 (with 35 yrs residence)
-GIS: $0 income too high
+GIS: $207.14
 Deferral table:
 66 = 655.29
 67 = 699.30
 68 = 743.32
 69 = 787.33
 70 = 831.34
-Partner will be eligible for:
+Partner is not eligible:
 Partner lacks portability for OAS and GIS eligibility since they do not live in Canada and have less than 20 years. 
 </t>
   </si>
@@ -5784,9 +5804,6 @@
 GIS: $23.82 at age 65
 User not eligible for:
 ALW due to marital status</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -6164,7 +6181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="115">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -6505,15 +6522,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -6570,7 +6578,7 @@
     <tableColumn name="Rec'ing OAS (Yes / No)" id="4"/>
     <tableColumn name="Delay (# of Years and Months)" id="5"/>
     <tableColumn name="User's Net Worldwide Income" id="6"/>
-    <tableColumn name="Exemption amount" id="7"/>
+    <tableColumn name="Exemption input" id="7"/>
     <tableColumn name="Income for GIS, ALW and ALWS" id="8"/>
     <tableColumn name="Legal Status (Yes / No)" id="9"/>
     <tableColumn name="Country of Residence (Canada, Not Canada)" id="10"/>
@@ -6580,7 +6588,7 @@
     <tableColumn name="Partner Age" id="14"/>
     <tableColumn name="Partner Birth Year and Month" id="15"/>
     <tableColumn name="Partner's Net Worldwide Income" id="16"/>
-    <tableColumn name="Partner exemption amount" id="17"/>
+    <tableColumn name="Partner exemption input" id="17"/>
     <tableColumn name="Partner income for GIS and ALW" id="18"/>
     <tableColumn name="Combined GIS and ALW Income" id="19"/>
     <tableColumn name="Partner's Legal Status (Yes / No)" id="20"/>
@@ -6891,7 +6899,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="27" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="117" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="114" width="8.719285714285713" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="27" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="27" width="11.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="27" width="10.005" customWidth="1" bestFit="1"/>
@@ -6946,7 +6954,7 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" customFormat="1" s="8">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="31.5" customFormat="1" s="8">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -6966,43 +6974,43 @@
         <v>7</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P2" s="33" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T2" s="31" t="s">
         <v>16</v>
@@ -7020,16 +7028,16 @@
         <v>20</v>
       </c>
       <c r="Y2" s="38" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="8">
+        <v>142</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="8">
       <c r="A3" s="39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -7043,7 +7051,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="10"/>
       <c r="O3" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -7056,21 +7064,21 @@
       <c r="X3" s="43"/>
       <c r="Y3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="127.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" s="45">
         <v>66.5</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F4" s="47">
         <v>2000</v>
@@ -7100,7 +7108,7 @@
         <v>70</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P4" s="47">
         <v>1500</v>
@@ -7116,7 +7124,7 @@
         <v>23</v>
       </c>
       <c r="U4" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V4" s="50">
         <v>41</v>
@@ -7125,25 +7133,25 @@
         <v>23</v>
       </c>
       <c r="X4" s="52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y4" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" s="55">
         <v>69</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F5" s="58">
         <v>20000</v>
@@ -7200,19 +7208,19 @@
         <v>22</v>
       </c>
       <c r="X5" s="52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y5" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" s="48">
         <v>68</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>47</v>
@@ -7275,25 +7283,25 @@
         <v>22</v>
       </c>
       <c r="X6" s="52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y6" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="127.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B7" s="55">
         <v>85</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F7" s="58">
         <v>16000</v>
@@ -7323,7 +7331,7 @@
         <v>80</v>
       </c>
       <c r="O7" s="56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P7" s="58">
         <v>4000</v>
@@ -7350,25 +7358,25 @@
         <v>23</v>
       </c>
       <c r="X7" s="52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y7" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="127.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B8" s="48">
         <v>81</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F8" s="47">
         <v>81761</v>
@@ -7383,7 +7391,7 @@
         <v>23</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K8" s="48">
         <v>20</v>
@@ -7398,7 +7406,7 @@
         <v>75</v>
       </c>
       <c r="O8" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P8" s="47">
         <v>0</v>
@@ -7425,25 +7433,25 @@
         <v>22</v>
       </c>
       <c r="X8" s="52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y8" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B9" s="55">
         <v>75</v>
       </c>
       <c r="C9" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="57" t="s">
         <v>165</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>164</v>
       </c>
       <c r="F9" s="58">
         <v>92000</v>
@@ -7500,25 +7508,25 @@
         <v>22</v>
       </c>
       <c r="X9" s="52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y9" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="141">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B10" s="48">
         <v>87</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F10" s="47">
         <v>62000</v>
@@ -7548,7 +7556,7 @@
         <v>85</v>
       </c>
       <c r="O10" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P10" s="47">
         <v>48000</v>
@@ -7566,7 +7574,7 @@
         <v>23</v>
       </c>
       <c r="U10" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V10" s="50">
         <v>35</v>
@@ -7575,27 +7583,27 @@
         <v>55</v>
       </c>
       <c r="X10" s="52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y10" s="74" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="141">
+        <v>173</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B11" s="55">
         <v>65</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D11" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F11" s="58">
         <v>134626.01</v>
@@ -7625,7 +7633,7 @@
         <v>70</v>
       </c>
       <c r="O11" s="56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P11" s="58">
         <v>0</v>
@@ -7652,25 +7660,25 @@
         <v>23</v>
       </c>
       <c r="X11" s="52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y11" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B12" s="48">
         <v>69</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F12" s="47">
         <v>134626.01</v>
@@ -7685,7 +7693,7 @@
         <v>23</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K12" s="48">
         <v>20</v>
@@ -7727,25 +7735,25 @@
         <v>22</v>
       </c>
       <c r="X12" s="52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y12" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B13" s="55">
         <v>72</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D13" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F13" s="58">
         <v>134626.01</v>
@@ -7802,25 +7810,25 @@
         <v>22</v>
       </c>
       <c r="X13" s="52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y13" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B14" s="48">
         <v>85</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F14" s="47">
         <v>137331.01</v>
@@ -7835,7 +7843,7 @@
         <v>23</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K14" s="48">
         <v>35</v>
@@ -7877,25 +7885,25 @@
         <v>22</v>
       </c>
       <c r="X14" s="52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y14" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B15" s="55">
         <v>71</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D15" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F15" s="58">
         <v>150000</v>
@@ -7952,25 +7960,25 @@
         <v>22</v>
       </c>
       <c r="X15" s="52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y15" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" s="48">
         <v>76</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F16" s="47">
         <v>137331.01</v>
@@ -8027,25 +8035,25 @@
         <v>22</v>
       </c>
       <c r="X16" s="52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y16" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="127.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" s="55">
         <v>90</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D17" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F17" s="58">
         <v>137331.01</v>
@@ -8075,7 +8083,7 @@
         <v>91</v>
       </c>
       <c r="O17" s="56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P17" s="58">
         <v>0</v>
@@ -8102,25 +8110,25 @@
         <v>22</v>
       </c>
       <c r="X17" s="52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y17" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" s="48">
         <v>88</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F18" s="47">
         <v>137331.01</v>
@@ -8135,7 +8143,7 @@
         <v>23</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K18" s="48">
         <v>39</v>
@@ -8177,19 +8185,19 @@
         <v>22</v>
       </c>
       <c r="X18" s="52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y18" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="208.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" s="55">
         <v>65</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>47</v>
@@ -8225,7 +8233,7 @@
         <v>64</v>
       </c>
       <c r="O19" s="56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P19" s="58">
         <v>0</v>
@@ -8252,17 +8260,17 @@
         <v>22</v>
       </c>
       <c r="X19" s="52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y19" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="75" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20" s="76"/>
       <c r="C20" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D20" s="77"/>
       <c r="E20" s="77"/>
@@ -8276,7 +8284,7 @@
       <c r="M20" s="77"/>
       <c r="N20" s="79"/>
       <c r="O20" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P20" s="78"/>
       <c r="Q20" s="78"/>
@@ -8289,15 +8297,15 @@
       <c r="X20" s="83"/>
       <c r="Y20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="154.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B21" s="55">
         <v>60</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D21" s="57" t="s">
         <v>22</v>
@@ -8324,7 +8332,7 @@
         <v>40</v>
       </c>
       <c r="L21" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M21" s="57" t="s">
         <v>22</v>
@@ -8360,19 +8368,19 @@
         <v>22</v>
       </c>
       <c r="X21" s="52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y21" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="154.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B22" s="48">
         <v>61</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>22</v>
@@ -8399,7 +8407,7 @@
         <v>28</v>
       </c>
       <c r="L22" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" s="46" t="s">
         <v>22</v>
@@ -8435,19 +8443,19 @@
         <v>22</v>
       </c>
       <c r="X22" s="52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y22" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="154.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B23" s="55">
         <v>64</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D23" s="57" t="s">
         <v>22</v>
@@ -8474,7 +8482,7 @@
         <v>28</v>
       </c>
       <c r="L23" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" s="57" t="s">
         <v>22</v>
@@ -8510,19 +8518,19 @@
         <v>22</v>
       </c>
       <c r="X23" s="52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y23" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="154.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" s="48">
         <v>60</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D24" s="46" t="s">
         <v>22</v>
@@ -8549,7 +8557,7 @@
         <v>40</v>
       </c>
       <c r="L24" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M24" s="46" t="s">
         <v>22</v>
@@ -8585,19 +8593,19 @@
         <v>22</v>
       </c>
       <c r="X24" s="52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y24" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="154.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B25" s="55">
         <v>64</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D25" s="57" t="s">
         <v>22</v>
@@ -8624,7 +8632,7 @@
         <v>28</v>
       </c>
       <c r="L25" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M25" s="57" t="s">
         <v>22</v>
@@ -8660,19 +8668,19 @@
         <v>22</v>
       </c>
       <c r="X25" s="52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y25" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="168">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B26" s="48">
         <v>61</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>22</v>
@@ -8699,7 +8707,7 @@
         <v>28</v>
       </c>
       <c r="L26" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M26" s="46" t="s">
         <v>22</v>
@@ -8735,17 +8743,17 @@
         <v>22</v>
       </c>
       <c r="X26" s="52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y26" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="75" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B27" s="76"/>
       <c r="C27" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D27" s="77"/>
       <c r="E27" s="77"/>
@@ -8759,7 +8767,7 @@
       <c r="M27" s="77"/>
       <c r="N27" s="79"/>
       <c r="O27" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P27" s="78"/>
       <c r="Q27" s="78"/>
@@ -8772,21 +8780,21 @@
       <c r="X27" s="83"/>
       <c r="Y27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="127.5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B28" s="48">
         <v>66</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F28" s="47">
         <v>0</v>
@@ -8816,7 +8824,7 @@
         <v>75</v>
       </c>
       <c r="O28" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P28" s="47">
         <v>0</v>
@@ -8843,25 +8851,25 @@
         <v>23</v>
       </c>
       <c r="X28" s="52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y28" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="127.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B29" s="55">
         <v>70</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D29" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F29" s="58">
         <v>2000</v>
@@ -8891,7 +8899,7 @@
         <v>76</v>
       </c>
       <c r="O29" s="56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P29" s="58">
         <v>2000</v>
@@ -8903,7 +8911,7 @@
         <v>2000</v>
       </c>
       <c r="S29" s="61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T29" s="57" t="s">
         <v>23</v>
@@ -8918,19 +8926,19 @@
         <v>23</v>
       </c>
       <c r="X29" s="52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y29" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="154.5">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B30" s="45">
         <v>66.25</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D30" s="46" t="s">
         <v>47</v>
@@ -8966,7 +8974,7 @@
         <v>77</v>
       </c>
       <c r="O30" s="46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P30" s="47">
         <v>3000</v>
@@ -8978,7 +8986,7 @@
         <v>3000</v>
       </c>
       <c r="S30" s="66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T30" s="46" t="s">
         <v>23</v>
@@ -8993,19 +9001,19 @@
         <v>55</v>
       </c>
       <c r="X30" s="52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y30" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="141">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B31" s="84">
         <v>67.08</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D31" s="57" t="s">
         <v>47</v>
@@ -9041,7 +9049,7 @@
         <v>78</v>
       </c>
       <c r="O31" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P31" s="58">
         <v>0</v>
@@ -9053,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T31" s="57" t="s">
         <v>23</v>
@@ -9068,19 +9076,19 @@
         <v>55</v>
       </c>
       <c r="X31" s="52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y31" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="141">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B32" s="45">
         <v>68.42</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D32" s="46" t="s">
         <v>47</v>
@@ -9101,7 +9109,7 @@
         <v>23</v>
       </c>
       <c r="J32" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K32" s="64" t="s">
         <v>28</v>
@@ -9116,7 +9124,7 @@
         <v>80</v>
       </c>
       <c r="O32" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P32" s="47">
         <v>9000</v>
@@ -9128,7 +9136,7 @@
         <v>9000</v>
       </c>
       <c r="S32" s="66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T32" s="46" t="s">
         <v>23</v>
@@ -9143,25 +9151,25 @@
         <v>55</v>
       </c>
       <c r="X32" s="52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Y32" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="127.5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B33" s="55">
         <v>69</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D33" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F33" s="58">
         <v>85000</v>
@@ -9191,7 +9199,7 @@
         <v>90</v>
       </c>
       <c r="O33" s="56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P33" s="58">
         <v>20000</v>
@@ -9203,7 +9211,7 @@
         <v>20000</v>
       </c>
       <c r="S33" s="61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T33" s="57" t="s">
         <v>23</v>
@@ -9218,25 +9226,25 @@
         <v>23</v>
       </c>
       <c r="X33" s="52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y33" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="168">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B34" s="48">
         <v>80</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D34" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F34" s="47">
         <v>0</v>
@@ -9266,7 +9274,7 @@
         <v>65</v>
       </c>
       <c r="O34" s="46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P34" s="47">
         <v>0</v>
@@ -9293,25 +9301,25 @@
         <v>55</v>
       </c>
       <c r="X34" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y34" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="181.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" s="55">
         <v>76</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D35" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F35" s="58">
         <v>2000</v>
@@ -9341,7 +9349,7 @@
         <v>74</v>
       </c>
       <c r="O35" s="56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P35" s="58">
         <v>2000</v>
@@ -9353,7 +9361,7 @@
         <v>2000</v>
       </c>
       <c r="S35" s="61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T35" s="57" t="s">
         <v>23</v>
@@ -9368,19 +9376,19 @@
         <v>55</v>
       </c>
       <c r="X35" s="52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y35" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="168">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B36" s="45">
         <v>76.25</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D36" s="46" t="s">
         <v>47</v>
@@ -9416,7 +9424,7 @@
         <v>74</v>
       </c>
       <c r="O36" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P36" s="47">
         <v>3000</v>
@@ -9428,7 +9436,7 @@
         <v>3000</v>
       </c>
       <c r="S36" s="66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T36" s="46" t="s">
         <v>23</v>
@@ -9443,19 +9451,19 @@
         <v>23</v>
       </c>
       <c r="X36" s="52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y36" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="168">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B37" s="84">
         <v>77.08</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D37" s="57" t="s">
         <v>47</v>
@@ -9491,7 +9499,7 @@
         <v>66</v>
       </c>
       <c r="O37" s="56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P37" s="58">
         <v>0</v>
@@ -9503,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T37" s="57" t="s">
         <v>23</v>
@@ -9518,19 +9526,19 @@
         <v>23</v>
       </c>
       <c r="X37" s="52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y37" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="154.5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B38" s="45">
         <v>78.42</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D38" s="46" t="s">
         <v>47</v>
@@ -9566,7 +9574,7 @@
         <v>67</v>
       </c>
       <c r="O38" s="46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P38" s="47">
         <v>9000</v>
@@ -9578,13 +9586,13 @@
         <v>9000</v>
       </c>
       <c r="S38" s="66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T38" s="46" t="s">
         <v>23</v>
       </c>
       <c r="U38" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V38" s="50">
         <v>30</v>
@@ -9593,25 +9601,25 @@
         <v>23</v>
       </c>
       <c r="X38" s="52" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y38" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B39" s="55">
         <v>75</v>
       </c>
       <c r="C39" s="57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D39" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F39" s="58">
         <v>85000</v>
@@ -9641,7 +9649,7 @@
         <v>68.5</v>
       </c>
       <c r="O39" s="56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P39" s="58">
         <v>20000</v>
@@ -9653,7 +9661,7 @@
         <v>20000</v>
       </c>
       <c r="S39" s="61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T39" s="57" t="s">
         <v>23</v>
@@ -9668,25 +9676,25 @@
         <v>55</v>
       </c>
       <c r="X39" s="52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y39" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="44" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B40" s="48">
         <v>80</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D40" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F40" s="47">
         <v>0</v>
@@ -9701,7 +9709,7 @@
         <v>23</v>
       </c>
       <c r="J40" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K40" s="64" t="s">
         <v>28</v>
@@ -9716,7 +9724,7 @@
         <v>70</v>
       </c>
       <c r="O40" s="46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P40" s="47">
         <v>0</v>
@@ -9743,25 +9751,25 @@
         <v>55</v>
       </c>
       <c r="X40" s="52" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Y40" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="68" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B41" s="55">
         <v>75</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D41" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F41" s="58">
         <v>2000</v>
@@ -9791,7 +9799,7 @@
         <v>74.75</v>
       </c>
       <c r="O41" s="56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P41" s="58">
         <v>2000</v>
@@ -9803,7 +9811,7 @@
         <v>2000</v>
       </c>
       <c r="S41" s="61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T41" s="57" t="s">
         <v>23</v>
@@ -9818,19 +9826,19 @@
         <v>55</v>
       </c>
       <c r="X41" s="52" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y41" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="72" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B42" s="85">
         <v>76.25</v>
       </c>
       <c r="C42" s="73" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D42" s="46" t="s">
         <v>47</v>
@@ -9854,7 +9862,7 @@
         <v>24</v>
       </c>
       <c r="K42" s="86" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L42" s="46" t="s">
         <v>46</v>
@@ -9866,7 +9874,7 @@
         <v>65.5</v>
       </c>
       <c r="O42" s="46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P42" s="47">
         <v>3000</v>
@@ -9878,7 +9886,7 @@
         <v>3000</v>
       </c>
       <c r="S42" s="66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T42" s="46" t="s">
         <v>23</v>
@@ -9893,21 +9901,21 @@
         <v>23</v>
       </c>
       <c r="X42" s="52" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y42" s="74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="72" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B43" s="87">
         <v>76.08</v>
       </c>
       <c r="C43" s="88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D43" s="57" t="s">
         <v>47</v>
@@ -9943,7 +9951,7 @@
         <v>66</v>
       </c>
       <c r="O43" s="56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P43" s="58">
         <v>0</v>
@@ -9955,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T43" s="57" t="s">
         <v>23</v>
@@ -9970,21 +9978,21 @@
         <v>23</v>
       </c>
       <c r="X43" s="52" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y43" s="74" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="72" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B44" s="85">
         <v>78.67</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D44" s="46" t="s">
         <v>47</v>
@@ -10020,7 +10028,7 @@
         <v>66</v>
       </c>
       <c r="O44" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P44" s="47">
         <v>9000</v>
@@ -10032,7 +10040,7 @@
         <v>9000</v>
       </c>
       <c r="S44" s="66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T44" s="46" t="s">
         <v>23</v>
@@ -10047,27 +10055,27 @@
         <v>23</v>
       </c>
       <c r="X44" s="52" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y44" s="74" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="68" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B45" s="55">
         <v>85</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D45" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F45" s="58">
         <v>85000</v>
@@ -10097,7 +10105,7 @@
         <v>67</v>
       </c>
       <c r="O45" s="56" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P45" s="58">
         <v>20000</v>
@@ -10109,7 +10117,7 @@
         <v>20000</v>
       </c>
       <c r="S45" s="61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T45" s="57" t="s">
         <v>23</v>
@@ -10124,25 +10132,25 @@
         <v>55</v>
       </c>
       <c r="X45" s="52" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y45" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B46" s="48">
         <v>71</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D46" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F46" s="47">
         <v>0</v>
@@ -10172,7 +10180,7 @@
         <v>75</v>
       </c>
       <c r="O46" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P46" s="47">
         <v>0</v>
@@ -10190,7 +10198,7 @@
         <v>23</v>
       </c>
       <c r="U46" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V46" s="50">
         <v>30</v>
@@ -10199,25 +10207,25 @@
         <v>23</v>
       </c>
       <c r="X46" s="52" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y46" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B47" s="55">
         <v>68</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D47" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F47" s="58">
         <v>2000</v>
@@ -10247,7 +10255,7 @@
         <v>75</v>
       </c>
       <c r="O47" s="56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P47" s="58">
         <v>2000</v>
@@ -10259,7 +10267,7 @@
         <v>2000</v>
       </c>
       <c r="S47" s="61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T47" s="57" t="s">
         <v>23</v>
@@ -10274,19 +10282,19 @@
         <v>23</v>
       </c>
       <c r="X47" s="52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y47" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="44" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B48" s="45">
         <v>66.25</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D48" s="46" t="s">
         <v>47</v>
@@ -10322,7 +10330,7 @@
         <v>80</v>
       </c>
       <c r="O48" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P48" s="47">
         <v>3000</v>
@@ -10334,7 +10342,7 @@
         <v>3000</v>
       </c>
       <c r="S48" s="66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T48" s="46" t="s">
         <v>23</v>
@@ -10349,19 +10357,19 @@
         <v>55</v>
       </c>
       <c r="X48" s="52" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y48" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="54" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B49" s="84">
         <v>67.08</v>
       </c>
       <c r="C49" s="57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D49" s="57" t="s">
         <v>47</v>
@@ -10397,7 +10405,7 @@
         <v>90</v>
       </c>
       <c r="O49" s="56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P49" s="58">
         <v>0</v>
@@ -10409,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T49" s="57" t="s">
         <v>23</v>
@@ -10424,19 +10432,19 @@
         <v>55</v>
       </c>
       <c r="X49" s="52" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y49" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="44" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B50" s="45">
         <v>68.42</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D50" s="46" t="s">
         <v>47</v>
@@ -10472,7 +10480,7 @@
         <v>85</v>
       </c>
       <c r="O50" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P50" s="47">
         <v>9000</v>
@@ -10484,7 +10492,7 @@
         <v>9000</v>
       </c>
       <c r="S50" s="66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T50" s="46" t="s">
         <v>23</v>
@@ -10499,25 +10507,25 @@
         <v>55</v>
       </c>
       <c r="X50" s="52" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y50" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="54" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B51" s="55">
         <v>69</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E51" s="57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F51" s="58">
         <v>85000</v>
@@ -10547,7 +10555,7 @@
         <v>75.5</v>
       </c>
       <c r="O51" s="56" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P51" s="58">
         <v>20000</v>
@@ -10559,7 +10567,7 @@
         <v>20000</v>
       </c>
       <c r="S51" s="61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T51" s="57" t="s">
         <v>23</v>
@@ -10574,17 +10582,17 @@
         <v>23</v>
       </c>
       <c r="X51" s="52" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y51" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B52" s="76"/>
       <c r="C52" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D52" s="77"/>
       <c r="E52" s="77"/>
@@ -10598,7 +10606,7 @@
       <c r="M52" s="77"/>
       <c r="N52" s="79"/>
       <c r="O52" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P52" s="78"/>
       <c r="Q52" s="78"/>
@@ -10613,19 +10621,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B53" s="55">
         <v>68</v>
       </c>
       <c r="C53" s="57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F53" s="58">
         <v>0</v>
@@ -10655,7 +10663,7 @@
         <v>76</v>
       </c>
       <c r="O53" s="56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P53" s="58">
         <v>0</v>
@@ -10682,25 +10690,25 @@
         <v>47</v>
       </c>
       <c r="X53" s="52" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y53" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="44" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B54" s="48">
         <v>67</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D54" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E54" s="46" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F54" s="47">
         <v>2000</v>
@@ -10730,7 +10738,7 @@
         <v>77.33</v>
       </c>
       <c r="O54" s="46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P54" s="47">
         <v>2000</v>
@@ -10742,7 +10750,7 @@
         <v>2000</v>
       </c>
       <c r="S54" s="66" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T54" s="46" t="s">
         <v>23</v>
@@ -10757,19 +10765,19 @@
         <v>47</v>
       </c>
       <c r="X54" s="52" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Y54" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="54" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B55" s="84">
         <v>65.92</v>
       </c>
       <c r="C55" s="57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D55" s="57" t="s">
         <v>47</v>
@@ -10805,7 +10813,7 @@
         <v>75.92</v>
       </c>
       <c r="O55" s="56" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P55" s="58">
         <v>5000</v>
@@ -10817,7 +10825,7 @@
         <v>5000</v>
       </c>
       <c r="S55" s="61" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T55" s="57" t="s">
         <v>23</v>
@@ -10832,19 +10840,19 @@
         <v>22</v>
       </c>
       <c r="X55" s="52" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Y55" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="44" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B56" s="48">
         <v>75</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="46" t="s">
         <v>47</v>
@@ -10880,7 +10888,7 @@
         <v>65</v>
       </c>
       <c r="O56" s="46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P56" s="47">
         <v>0</v>
@@ -10892,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="S56" s="66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T56" s="46" t="s">
         <v>47</v>
@@ -10907,19 +10915,19 @@
         <v>22</v>
       </c>
       <c r="X56" s="52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y56" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="68" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B57" s="55">
         <v>80</v>
       </c>
       <c r="C57" s="57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D57" s="57" t="s">
         <v>47</v>
@@ -10955,7 +10963,7 @@
         <v>58</v>
       </c>
       <c r="O57" s="56" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P57" s="58">
         <v>50710.56</v>
@@ -10967,7 +10975,7 @@
         <v>50710.56</v>
       </c>
       <c r="S57" s="61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T57" s="57" t="s">
         <v>22</v>
@@ -10982,25 +10990,25 @@
         <v>22</v>
       </c>
       <c r="X57" s="52" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y57" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="72" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B58" s="85">
         <v>75.92</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D58" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F58" s="47">
         <v>85000</v>
@@ -11030,7 +11038,7 @@
         <v>65</v>
       </c>
       <c r="O58" s="46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P58" s="47">
         <v>20000</v>
@@ -11042,7 +11050,7 @@
         <v>20000</v>
       </c>
       <c r="S58" s="66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T58" s="46" t="s">
         <v>47</v>
@@ -11057,19 +11065,19 @@
         <v>22</v>
       </c>
       <c r="X58" s="52" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y58" s="74"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B59" s="55">
         <v>58</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D59" s="57" t="s">
         <v>22</v>
@@ -11105,7 +11113,7 @@
         <v>66</v>
       </c>
       <c r="O59" s="56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P59" s="58">
         <v>0</v>
@@ -11132,19 +11140,19 @@
         <v>55</v>
       </c>
       <c r="X59" s="52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y59" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="44" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B60" s="48">
         <v>48</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D60" s="46" t="s">
         <v>22</v>
@@ -11180,7 +11188,7 @@
         <v>66.25</v>
       </c>
       <c r="O60" s="46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P60" s="47">
         <v>2000</v>
@@ -11192,7 +11200,7 @@
         <v>2000</v>
       </c>
       <c r="S60" s="66" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T60" s="46" t="s">
         <v>23</v>
@@ -11207,19 +11215,19 @@
         <v>55</v>
       </c>
       <c r="X60" s="52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y60" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="54" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B61" s="55">
         <v>55</v>
       </c>
       <c r="C61" s="57" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D61" s="57" t="s">
         <v>22</v>
@@ -11255,7 +11263,7 @@
         <v>74</v>
       </c>
       <c r="O61" s="56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P61" s="58">
         <v>5000</v>
@@ -11267,7 +11275,7 @@
         <v>5000</v>
       </c>
       <c r="S61" s="61" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T61" s="57" t="s">
         <v>23</v>
@@ -11282,19 +11290,19 @@
         <v>23</v>
       </c>
       <c r="X61" s="52" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y61" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B62" s="48">
         <v>59</v>
       </c>
       <c r="C62" s="46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D62" s="46" t="s">
         <v>22</v>
@@ -11330,7 +11338,7 @@
         <v>75</v>
       </c>
       <c r="O62" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P62" s="47">
         <v>0</v>
@@ -11342,7 +11350,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T62" s="46" t="s">
         <v>23</v>
@@ -11357,19 +11365,19 @@
         <v>23</v>
       </c>
       <c r="X62" s="52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Y62" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B63" s="55">
         <v>51</v>
       </c>
       <c r="C63" s="57" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D63" s="57" t="s">
         <v>22</v>
@@ -11405,7 +11413,7 @@
         <v>80</v>
       </c>
       <c r="O63" s="56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P63" s="58">
         <v>50710.56</v>
@@ -11417,7 +11425,7 @@
         <v>50710.56</v>
       </c>
       <c r="S63" s="61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T63" s="57" t="s">
         <v>23</v>
@@ -11432,19 +11440,19 @@
         <v>23</v>
       </c>
       <c r="X63" s="52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y63" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="44" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B64" s="48">
         <v>50</v>
       </c>
       <c r="C64" s="46" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D64" s="46" t="s">
         <v>22</v>
@@ -11480,7 +11488,7 @@
         <v>81</v>
       </c>
       <c r="O64" s="46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P64" s="47">
         <v>20000</v>
@@ -11492,7 +11500,7 @@
         <v>20000</v>
       </c>
       <c r="S64" s="66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T64" s="46" t="s">
         <v>23</v>
@@ -11507,19 +11515,19 @@
         <v>55</v>
       </c>
       <c r="X64" s="52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y64" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="54" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B65" s="55">
         <v>49</v>
       </c>
       <c r="C65" s="57" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D65" s="57" t="s">
         <v>22</v>
@@ -11555,7 +11563,7 @@
         <v>76</v>
       </c>
       <c r="O65" s="56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P65" s="58">
         <v>0</v>
@@ -11582,19 +11590,19 @@
         <v>55</v>
       </c>
       <c r="X65" s="52" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y65" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="72" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B66" s="48">
         <v>56</v>
       </c>
       <c r="C66" s="46" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D66" s="46" t="s">
         <v>22</v>
@@ -11630,7 +11638,7 @@
         <v>76</v>
       </c>
       <c r="O66" s="46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P66" s="47">
         <v>2000</v>
@@ -11642,7 +11650,7 @@
         <v>2000</v>
       </c>
       <c r="S66" s="66" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T66" s="46" t="s">
         <v>23</v>
@@ -11657,19 +11665,19 @@
         <v>55</v>
       </c>
       <c r="X66" s="52" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y66" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="68" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B67" s="55">
         <v>57</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D67" s="57" t="s">
         <v>22</v>
@@ -11705,7 +11713,7 @@
         <v>85</v>
       </c>
       <c r="O67" s="56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P67" s="58">
         <v>5000</v>
@@ -11717,7 +11725,7 @@
         <v>5000</v>
       </c>
       <c r="S67" s="61" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T67" s="57" t="s">
         <v>23</v>
@@ -11732,19 +11740,19 @@
         <v>23</v>
       </c>
       <c r="X67" s="52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y67" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B68" s="48">
         <v>58</v>
       </c>
       <c r="C68" s="46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D68" s="46" t="s">
         <v>22</v>
@@ -11780,7 +11788,7 @@
         <v>74.75</v>
       </c>
       <c r="O68" s="46" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P68" s="47">
         <v>0</v>
@@ -11792,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="S68" s="66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T68" s="46" t="s">
         <v>23</v>
@@ -11807,19 +11815,19 @@
         <v>23</v>
       </c>
       <c r="X68" s="52" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y68" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="54" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B69" s="55">
         <v>59</v>
       </c>
       <c r="C69" s="57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D69" s="57" t="s">
         <v>22</v>
@@ -11855,7 +11863,7 @@
         <v>65</v>
       </c>
       <c r="O69" s="56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P69" s="58">
         <v>50710.56</v>
@@ -11867,7 +11875,7 @@
         <v>50710.56</v>
       </c>
       <c r="S69" s="61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T69" s="57" t="s">
         <v>23</v>
@@ -11882,19 +11890,19 @@
         <v>23</v>
       </c>
       <c r="X69" s="52" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y69" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="44" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B70" s="48">
         <v>51</v>
       </c>
       <c r="C70" s="46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D70" s="46" t="s">
         <v>22</v>
@@ -11930,7 +11938,7 @@
         <v>65.5</v>
       </c>
       <c r="O70" s="46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P70" s="47">
         <v>20000</v>
@@ -11942,7 +11950,7 @@
         <v>20000</v>
       </c>
       <c r="S70" s="66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T70" s="46" t="s">
         <v>23</v>
@@ -11957,25 +11965,25 @@
         <v>55</v>
       </c>
       <c r="X70" s="52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y70" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="54" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B71" s="55">
         <v>85</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D71" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E71" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F71" s="58">
         <v>0</v>
@@ -12005,7 +12013,7 @@
         <v>65.25</v>
       </c>
       <c r="O71" s="56" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P71" s="58">
         <v>0</v>
@@ -12032,25 +12040,25 @@
         <v>47</v>
       </c>
       <c r="X71" s="52" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y71" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="44" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B72" s="48">
         <v>75</v>
       </c>
       <c r="C72" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D72" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E72" s="46" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F72" s="47">
         <v>2000</v>
@@ -12080,7 +12088,7 @@
         <v>66</v>
       </c>
       <c r="O72" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P72" s="47">
         <v>2000</v>
@@ -12092,7 +12100,7 @@
         <v>2000</v>
       </c>
       <c r="S72" s="66" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T72" s="46" t="s">
         <v>23</v>
@@ -12107,19 +12115,19 @@
         <v>47</v>
       </c>
       <c r="X72" s="52" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y72" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B73" s="55">
         <v>90</v>
       </c>
       <c r="C73" s="57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D73" s="57" t="s">
         <v>47</v>
@@ -12155,7 +12163,7 @@
         <v>69</v>
       </c>
       <c r="O73" s="56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P73" s="58">
         <v>5000</v>
@@ -12167,7 +12175,7 @@
         <v>5000</v>
       </c>
       <c r="S73" s="61" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T73" s="57" t="s">
         <v>23</v>
@@ -12182,19 +12190,19 @@
         <v>22</v>
       </c>
       <c r="X73" s="91" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y73" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="44" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B74" s="45">
         <v>68.58</v>
       </c>
       <c r="C74" s="46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D74" s="46" t="s">
         <v>47</v>
@@ -12230,7 +12238,7 @@
         <v>59</v>
       </c>
       <c r="O74" s="46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P74" s="47">
         <v>0</v>
@@ -12242,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="S74" s="66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T74" s="46" t="s">
         <v>22</v>
@@ -12257,19 +12265,19 @@
         <v>22</v>
       </c>
       <c r="X74" s="52" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y74" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B75" s="84">
         <v>66.75</v>
       </c>
       <c r="C75" s="57" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D75" s="57" t="s">
         <v>47</v>
@@ -12305,7 +12313,7 @@
         <v>75</v>
       </c>
       <c r="O75" s="56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P75" s="58">
         <v>50710.56</v>
@@ -12317,7 +12325,7 @@
         <v>50710.56</v>
       </c>
       <c r="S75" s="61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T75" s="57" t="s">
         <v>23</v>
@@ -12332,25 +12340,25 @@
         <v>47</v>
       </c>
       <c r="X75" s="52" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y75" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="44" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B76" s="48">
         <v>69</v>
       </c>
       <c r="C76" s="46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D76" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E76" s="46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F76" s="47">
         <v>85000</v>
@@ -12380,7 +12388,7 @@
         <v>80</v>
       </c>
       <c r="O76" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P76" s="47">
         <v>20000</v>
@@ -12392,7 +12400,7 @@
         <v>20000</v>
       </c>
       <c r="S76" s="66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T76" s="46" t="s">
         <v>47</v>
@@ -12407,17 +12415,17 @@
         <v>22</v>
       </c>
       <c r="X76" s="52" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y76" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="75" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B77" s="76"/>
       <c r="C77" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D77" s="77"/>
       <c r="E77" s="77"/>
@@ -12431,7 +12439,7 @@
       <c r="M77" s="77"/>
       <c r="N77" s="79"/>
       <c r="O77" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P77" s="78"/>
       <c r="Q77" s="78"/>
@@ -12446,19 +12454,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="44" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B78" s="48">
         <v>66</v>
       </c>
       <c r="C78" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E78" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F78" s="47">
         <v>0</v>
@@ -12488,7 +12496,7 @@
         <v>60</v>
       </c>
       <c r="O78" s="46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P78" s="47">
         <v>0</v>
@@ -12515,25 +12523,25 @@
         <v>22</v>
       </c>
       <c r="X78" s="52" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Y78" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="54" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B79" s="55">
         <v>68</v>
       </c>
       <c r="C79" s="57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D79" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E79" s="57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F79" s="58">
         <v>2000</v>
@@ -12563,7 +12571,7 @@
         <v>64</v>
       </c>
       <c r="O79" s="56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P79" s="58">
         <v>2000</v>
@@ -12575,7 +12583,7 @@
         <v>2000</v>
       </c>
       <c r="S79" s="61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T79" s="57" t="s">
         <v>23</v>
@@ -12590,19 +12598,19 @@
         <v>22</v>
       </c>
       <c r="X79" s="52" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y79" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="72" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B80" s="45">
         <v>69.08</v>
       </c>
       <c r="C80" s="46" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D80" s="46" t="s">
         <v>47</v>
@@ -12638,7 +12646,7 @@
         <v>63</v>
       </c>
       <c r="O80" s="46" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P80" s="47">
         <v>3000</v>
@@ -12650,7 +12658,7 @@
         <v>3000</v>
       </c>
       <c r="S80" s="66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T80" s="46" t="s">
         <v>23</v>
@@ -12665,19 +12673,19 @@
         <v>22</v>
       </c>
       <c r="X80" s="52" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y80" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="54" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B81" s="55">
         <v>68</v>
       </c>
       <c r="C81" s="57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D81" s="57" t="s">
         <v>47</v>
@@ -12713,7 +12721,7 @@
         <v>62.33</v>
       </c>
       <c r="O81" s="56" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P81" s="58">
         <v>0</v>
@@ -12725,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="S81" s="61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T81" s="57" t="s">
         <v>23</v>
@@ -12740,19 +12748,19 @@
         <v>22</v>
       </c>
       <c r="X81" s="52" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Y81" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="72" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B82" s="45">
         <v>65.42</v>
       </c>
       <c r="C82" s="46" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D82" s="46" t="s">
         <v>47</v>
@@ -12788,7 +12796,7 @@
         <v>64.75</v>
       </c>
       <c r="O82" s="46" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P82" s="47">
         <v>11177.6</v>
@@ -12800,7 +12808,7 @@
         <v>11177.6</v>
       </c>
       <c r="S82" s="66" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T82" s="46" t="s">
         <v>23</v>
@@ -12815,19 +12823,19 @@
         <v>22</v>
       </c>
       <c r="X82" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y82" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="68" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B83" s="55">
         <v>95</v>
       </c>
       <c r="C83" s="57" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D83" s="57" t="s">
         <v>47</v>
@@ -12863,7 +12871,7 @@
         <v>60</v>
       </c>
       <c r="O83" s="56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P83" s="58">
         <v>0</v>
@@ -12875,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="S83" s="61" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="T83" s="57" t="s">
         <v>23</v>
@@ -12890,25 +12898,25 @@
         <v>22</v>
       </c>
       <c r="X83" s="52" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y83" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="72" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B84" s="48">
         <v>90</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D84" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E84" s="73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F84" s="47">
         <v>0</v>
@@ -12938,7 +12946,7 @@
         <v>61</v>
       </c>
       <c r="O84" s="46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P84" s="47">
         <v>28183.27</v>
@@ -12950,7 +12958,7 @@
         <v>28183.27</v>
       </c>
       <c r="S84" s="66" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="T84" s="46" t="s">
         <v>23</v>
@@ -12965,19 +12973,19 @@
         <v>22</v>
       </c>
       <c r="X84" s="52" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y84" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="54" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B85" s="55">
         <v>75</v>
       </c>
       <c r="C85" s="57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D85" s="57" t="s">
         <v>47</v>
@@ -13013,7 +13021,7 @@
         <v>60.42</v>
       </c>
       <c r="O85" s="56" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P85" s="58">
         <v>10000</v>
@@ -13025,7 +13033,7 @@
         <v>10000</v>
       </c>
       <c r="S85" s="61" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="T85" s="57" t="s">
         <v>23</v>
@@ -13040,25 +13048,25 @@
         <v>22</v>
       </c>
       <c r="X85" s="52" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y85" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="44" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B86" s="48">
         <v>76</v>
       </c>
       <c r="C86" s="46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D86" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E86" s="46" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F86" s="47">
         <v>0</v>
@@ -13088,7 +13096,7 @@
         <v>62</v>
       </c>
       <c r="O86" s="46" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P86" s="47">
         <v>39168</v>
@@ -13100,7 +13108,7 @@
         <v>39168</v>
       </c>
       <c r="S86" s="66" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="T86" s="46" t="s">
         <v>23</v>
@@ -13115,25 +13123,25 @@
         <v>22</v>
       </c>
       <c r="X86" s="52" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y86" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="54" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B87" s="55">
         <v>75</v>
       </c>
       <c r="C87" s="57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D87" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E87" s="57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F87" s="58">
         <v>27876.413333333334</v>
@@ -13163,7 +13171,7 @@
         <v>63</v>
       </c>
       <c r="O87" s="56" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P87" s="58">
         <v>20000</v>
@@ -13175,7 +13183,7 @@
         <v>20000</v>
       </c>
       <c r="S87" s="61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T87" s="57" t="s">
         <v>23</v>
@@ -13190,19 +13198,19 @@
         <v>22</v>
       </c>
       <c r="X87" s="52" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y87" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="44" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B88" s="48">
         <v>60</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D88" s="46" t="s">
         <v>22</v>
@@ -13238,7 +13246,7 @@
         <v>75</v>
       </c>
       <c r="O88" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P88" s="47">
         <v>0</v>
@@ -13265,19 +13273,19 @@
         <v>23</v>
       </c>
       <c r="X88" s="52" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Y88" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="68" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B89" s="55">
         <v>61</v>
       </c>
       <c r="C89" s="57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D89" s="57" t="s">
         <v>22</v>
@@ -13313,7 +13321,7 @@
         <v>76</v>
       </c>
       <c r="O89" s="56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P89" s="58">
         <v>2000</v>
@@ -13325,7 +13333,7 @@
         <v>2000</v>
       </c>
       <c r="S89" s="61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T89" s="57" t="s">
         <v>23</v>
@@ -13340,19 +13348,19 @@
         <v>47</v>
       </c>
       <c r="X89" s="52" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y89" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="72" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B90" s="48">
         <v>64</v>
       </c>
       <c r="C90" s="46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D90" s="46" t="s">
         <v>22</v>
@@ -13388,7 +13396,7 @@
         <v>77.33</v>
       </c>
       <c r="O90" s="46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P90" s="47">
         <v>3000</v>
@@ -13400,7 +13408,7 @@
         <v>3000</v>
       </c>
       <c r="S90" s="66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T90" s="46" t="s">
         <v>23</v>
@@ -13415,19 +13423,19 @@
         <v>55</v>
       </c>
       <c r="X90" s="52" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Y90" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="68" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B91" s="55">
         <v>63</v>
       </c>
       <c r="C91" s="57" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D91" s="57" t="s">
         <v>22</v>
@@ -13463,7 +13471,7 @@
         <v>78.92</v>
       </c>
       <c r="O91" s="56" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P91" s="58">
         <v>0</v>
@@ -13475,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="S91" s="61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T91" s="57" t="s">
         <v>23</v>
@@ -13490,19 +13498,19 @@
         <v>55</v>
       </c>
       <c r="X91" s="52" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Y91" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="72" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B92" s="48">
         <v>62</v>
       </c>
       <c r="C92" s="46" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D92" s="46" t="s">
         <v>22</v>
@@ -13538,7 +13546,7 @@
         <v>79.75</v>
       </c>
       <c r="O92" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P92" s="47">
         <v>11177.6</v>
@@ -13550,7 +13558,7 @@
         <v>11177.6</v>
       </c>
       <c r="S92" s="66" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T92" s="46" t="s">
         <v>23</v>
@@ -13565,19 +13573,19 @@
         <v>55</v>
       </c>
       <c r="X92" s="52" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y92" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="54" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B93" s="55">
         <v>60</v>
       </c>
       <c r="C93" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D93" s="57" t="s">
         <v>22</v>
@@ -13613,7 +13621,7 @@
         <v>69</v>
       </c>
       <c r="O93" s="56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P93" s="58">
         <v>0</v>
@@ -13625,7 +13633,7 @@
         <v>0</v>
       </c>
       <c r="S93" s="61" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="T93" s="57" t="s">
         <v>23</v>
@@ -13640,19 +13648,19 @@
         <v>55</v>
       </c>
       <c r="X93" s="52" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y93" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="44" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B94" s="48">
         <v>61</v>
       </c>
       <c r="C94" s="46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D94" s="46" t="s">
         <v>22</v>
@@ -13688,7 +13696,7 @@
         <v>70</v>
       </c>
       <c r="O94" s="46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P94" s="47">
         <v>28183.27</v>
@@ -13700,7 +13708,7 @@
         <v>28183.27</v>
       </c>
       <c r="S94" s="66" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="T94" s="46" t="s">
         <v>23</v>
@@ -13715,19 +13723,19 @@
         <v>23</v>
       </c>
       <c r="X94" s="52" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Y94" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="54" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B95" s="55">
         <v>64</v>
       </c>
       <c r="C95" s="57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D95" s="57" t="s">
         <v>22</v>
@@ -13763,7 +13771,7 @@
         <v>74</v>
       </c>
       <c r="O95" s="56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P95" s="58">
         <v>10000</v>
@@ -13775,7 +13783,7 @@
         <v>10000</v>
       </c>
       <c r="S95" s="61" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="T95" s="57" t="s">
         <v>23</v>
@@ -13790,19 +13798,19 @@
         <v>23</v>
       </c>
       <c r="X95" s="52" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y95" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="44" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B96" s="45">
         <v>64.92</v>
       </c>
       <c r="C96" s="46" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D96" s="46" t="s">
         <v>22</v>
@@ -13838,7 +13846,7 @@
         <v>74.08</v>
       </c>
       <c r="O96" s="46" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P96" s="47">
         <v>39168</v>
@@ -13850,7 +13858,7 @@
         <v>39168</v>
       </c>
       <c r="S96" s="66" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="T96" s="46" t="s">
         <v>23</v>
@@ -13865,19 +13873,19 @@
         <v>55</v>
       </c>
       <c r="X96" s="52" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y96" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="54" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B97" s="84">
         <v>64.5</v>
       </c>
       <c r="C97" s="57" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D97" s="57" t="s">
         <v>22</v>
@@ -13913,7 +13921,7 @@
         <v>65.08</v>
       </c>
       <c r="O97" s="56" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P97" s="58">
         <v>20000</v>
@@ -13925,7 +13933,7 @@
         <v>20000</v>
       </c>
       <c r="S97" s="61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T97" s="57" t="s">
         <v>23</v>
@@ -13940,25 +13948,25 @@
         <v>23</v>
       </c>
       <c r="X97" s="52" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y97" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="44" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B98" s="48">
         <v>65</v>
       </c>
       <c r="C98" s="46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D98" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E98" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F98" s="47">
         <v>0</v>
@@ -13988,7 +13996,7 @@
         <v>60</v>
       </c>
       <c r="O98" s="46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P98" s="47">
         <v>0</v>
@@ -14015,25 +14023,25 @@
         <v>22</v>
       </c>
       <c r="X98" s="52" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Y98" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="68" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B99" s="84">
         <v>67.92</v>
       </c>
       <c r="C99" s="57" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D99" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E99" s="57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F99" s="58">
         <v>2000</v>
@@ -14063,7 +14071,7 @@
         <v>61.5</v>
       </c>
       <c r="O99" s="56" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P99" s="58">
         <v>2000</v>
@@ -14075,7 +14083,7 @@
         <v>2000</v>
       </c>
       <c r="S99" s="61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T99" s="57" t="s">
         <v>23</v>
@@ -14090,19 +14098,19 @@
         <v>22</v>
       </c>
       <c r="X99" s="52" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Y99" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="44" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B100" s="45">
         <v>69.08</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D100" s="46" t="s">
         <v>47</v>
@@ -14138,7 +14146,7 @@
         <v>64</v>
       </c>
       <c r="O100" s="46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P100" s="47">
         <v>3000</v>
@@ -14150,7 +14158,7 @@
         <v>3000</v>
       </c>
       <c r="S100" s="66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T100" s="46" t="s">
         <v>23</v>
@@ -14165,19 +14173,19 @@
         <v>22</v>
       </c>
       <c r="X100" s="52" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Y100" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="54" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B101" s="55">
         <v>68</v>
       </c>
       <c r="C101" s="57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D101" s="57" t="s">
         <v>47</v>
@@ -14213,7 +14221,7 @@
         <v>63</v>
       </c>
       <c r="O101" s="56" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P101" s="58">
         <v>0</v>
@@ -14225,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="S101" s="61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T101" s="57" t="s">
         <v>23</v>
@@ -14240,19 +14248,19 @@
         <v>22</v>
       </c>
       <c r="X101" s="52" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y101" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="72" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B102" s="45">
         <v>65.42</v>
       </c>
       <c r="C102" s="46" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D102" s="46" t="s">
         <v>47</v>
@@ -14288,7 +14296,7 @@
         <v>62</v>
       </c>
       <c r="O102" s="46" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P102" s="47">
         <v>11177.6</v>
@@ -14300,7 +14308,7 @@
         <v>11177.6</v>
       </c>
       <c r="S102" s="66" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T102" s="46" t="s">
         <v>23</v>
@@ -14315,19 +14323,19 @@
         <v>22</v>
       </c>
       <c r="X102" s="52" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y102" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="68" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B103" s="55">
         <v>75</v>
       </c>
       <c r="C103" s="57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D103" s="57" t="s">
         <v>47</v>
@@ -14363,7 +14371,7 @@
         <v>61</v>
       </c>
       <c r="O103" s="56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P103" s="58">
         <v>0</v>
@@ -14375,7 +14383,7 @@
         <v>0</v>
       </c>
       <c r="S103" s="61" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="T103" s="57" t="s">
         <v>23</v>
@@ -14390,25 +14398,25 @@
         <v>22</v>
       </c>
       <c r="X103" s="92" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Y103" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B104" s="48">
         <v>76</v>
       </c>
       <c r="C104" s="46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D104" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E104" s="46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F104" s="47">
         <v>0</v>
@@ -14438,7 +14446,7 @@
         <v>64.42</v>
       </c>
       <c r="O104" s="46" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P104" s="47">
         <v>28183.27</v>
@@ -14450,7 +14458,7 @@
         <v>28183.27</v>
       </c>
       <c r="S104" s="66" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="T104" s="46" t="s">
         <v>23</v>
@@ -14465,19 +14473,19 @@
         <v>22</v>
       </c>
       <c r="X104" s="52" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y104" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="72" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B105" s="55">
         <v>77</v>
       </c>
       <c r="C105" s="57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D105" s="57" t="s">
         <v>47</v>
@@ -14513,7 +14521,7 @@
         <v>60.92</v>
       </c>
       <c r="O105" s="56" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P105" s="58">
         <v>10000</v>
@@ -14525,7 +14533,7 @@
         <v>10000</v>
       </c>
       <c r="S105" s="61" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T105" s="57" t="s">
         <v>23</v>
@@ -14540,25 +14548,25 @@
         <v>22</v>
       </c>
       <c r="X105" s="52" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y105" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="72" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B106" s="85">
         <v>78.17</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D106" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E106" s="46" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F106" s="47">
         <v>0</v>
@@ -14588,7 +14596,7 @@
         <v>60.08</v>
       </c>
       <c r="O106" s="46" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P106" s="47">
         <v>39168</v>
@@ -14600,7 +14608,7 @@
         <v>39168</v>
       </c>
       <c r="S106" s="66" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="T106" s="46" t="s">
         <v>23</v>
@@ -14615,25 +14623,25 @@
         <v>22</v>
       </c>
       <c r="X106" s="52" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y106" s="74"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="54" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B107" s="55">
         <v>75</v>
       </c>
       <c r="C107" s="57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D107" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E107" s="57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F107" s="58">
         <v>27876.4133333333</v>
@@ -14663,7 +14671,7 @@
         <v>61</v>
       </c>
       <c r="O107" s="56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P107" s="58">
         <v>20000</v>
@@ -14675,7 +14683,7 @@
         <v>20000</v>
       </c>
       <c r="S107" s="61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T107" s="57" t="s">
         <v>23</v>
@@ -14690,19 +14698,19 @@
         <v>22</v>
       </c>
       <c r="X107" s="52" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Y107" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="72" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B108" s="45">
         <v>64.92</v>
       </c>
       <c r="C108" s="46" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D108" s="46" t="s">
         <v>22</v>
@@ -14738,7 +14746,7 @@
         <v>85</v>
       </c>
       <c r="O108" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P108" s="47">
         <v>0</v>
@@ -14765,19 +14773,19 @@
         <v>23</v>
       </c>
       <c r="X108" s="52" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Y108" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B109" s="84">
         <v>63.33</v>
       </c>
       <c r="C109" s="57" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D109" s="57" t="s">
         <v>22</v>
@@ -14813,7 +14821,7 @@
         <v>100</v>
       </c>
       <c r="O109" s="56" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P109" s="58">
         <v>2000</v>
@@ -14825,7 +14833,7 @@
         <v>2000</v>
       </c>
       <c r="S109" s="61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T109" s="57" t="s">
         <v>23</v>
@@ -14840,19 +14848,19 @@
         <v>23</v>
       </c>
       <c r="X109" s="52" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y109" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="91.5">
       <c r="A110" s="44" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B110" s="48">
         <v>61</v>
       </c>
       <c r="C110" s="46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D110" s="46" t="s">
         <v>22</v>
@@ -14888,7 +14896,7 @@
         <v>75</v>
       </c>
       <c r="O110" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P110" s="47">
         <v>3000</v>
@@ -14900,7 +14908,7 @@
         <v>3000</v>
       </c>
       <c r="S110" s="66" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T110" s="46" t="s">
         <v>23</v>
@@ -14915,19 +14923,19 @@
         <v>55</v>
       </c>
       <c r="X110" s="52" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Y110" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="54" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B111" s="55">
         <v>60</v>
       </c>
       <c r="C111" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D111" s="57" t="s">
         <v>22</v>
@@ -14963,7 +14971,7 @@
         <v>76</v>
       </c>
       <c r="O111" s="56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P111" s="58">
         <v>0</v>
@@ -14975,7 +14983,7 @@
         <v>0</v>
       </c>
       <c r="S111" s="61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T111" s="57" t="s">
         <v>23</v>
@@ -14990,19 +14998,19 @@
         <v>55</v>
       </c>
       <c r="X111" s="52" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Y111" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="44" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B112" s="48">
         <v>62</v>
       </c>
       <c r="C112" s="46" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D112" s="46" t="s">
         <v>22</v>
@@ -15038,7 +15046,7 @@
         <v>77</v>
       </c>
       <c r="O112" s="46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P112" s="47">
         <v>11177.6</v>
@@ -15050,7 +15058,7 @@
         <v>11177.6</v>
       </c>
       <c r="S112" s="66" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T112" s="46" t="s">
         <v>23</v>
@@ -15065,19 +15073,19 @@
         <v>55</v>
       </c>
       <c r="X112" s="52" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Y112" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="54" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B113" s="55">
         <v>63</v>
       </c>
       <c r="C113" s="57" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D113" s="57" t="s">
         <v>22</v>
@@ -15113,7 +15121,7 @@
         <v>65</v>
       </c>
       <c r="O113" s="56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P113" s="58">
         <v>0</v>
@@ -15125,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="S113" s="61" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="T113" s="57" t="s">
         <v>23</v>
@@ -15140,19 +15148,19 @@
         <v>55</v>
       </c>
       <c r="X113" s="52" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Y113" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="44" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B114" s="45">
         <v>62.25</v>
       </c>
       <c r="C114" s="46" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D114" s="46" t="s">
         <v>22</v>
@@ -15188,7 +15196,7 @@
         <v>66</v>
       </c>
       <c r="O114" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P114" s="47">
         <v>28183.27</v>
@@ -15200,7 +15208,7 @@
         <v>28183.27</v>
       </c>
       <c r="S114" s="66" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="T114" s="46" t="s">
         <v>23</v>
@@ -15215,19 +15223,19 @@
         <v>23</v>
       </c>
       <c r="X114" s="52" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Y114" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="54" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B115" s="84">
         <v>64.75</v>
       </c>
       <c r="C115" s="57" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D115" s="57" t="s">
         <v>22</v>
@@ -15263,7 +15271,7 @@
         <v>67</v>
       </c>
       <c r="O115" s="56" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P115" s="58">
         <v>10000</v>
@@ -15275,7 +15283,7 @@
         <v>10000</v>
       </c>
       <c r="S115" s="61" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T115" s="57" t="s">
         <v>23</v>
@@ -15290,19 +15298,19 @@
         <v>23</v>
       </c>
       <c r="X115" s="52" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Y115" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="44" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B116" s="45">
         <v>60.25</v>
       </c>
       <c r="C116" s="46" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D116" s="46" t="s">
         <v>22</v>
@@ -15338,7 +15346,7 @@
         <v>68</v>
       </c>
       <c r="O116" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P116" s="47">
         <v>39168</v>
@@ -15350,7 +15358,7 @@
         <v>39168</v>
       </c>
       <c r="S116" s="66" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="T116" s="46" t="s">
         <v>23</v>
@@ -15365,19 +15373,19 @@
         <v>55</v>
       </c>
       <c r="X116" s="52" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Y116" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="54" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B117" s="84">
         <v>61.5</v>
       </c>
       <c r="C117" s="57" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D117" s="57" t="s">
         <v>22</v>
@@ -15413,7 +15421,7 @@
         <v>69</v>
       </c>
       <c r="O117" s="56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P117" s="58">
         <v>20000</v>
@@ -15425,7 +15433,7 @@
         <v>20000</v>
       </c>
       <c r="S117" s="61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T117" s="57" t="s">
         <v>23</v>
@@ -15440,17 +15448,17 @@
         <v>23</v>
       </c>
       <c r="X117" s="52" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y117" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="75" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B118" s="76"/>
       <c r="C118" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D118" s="77"/>
       <c r="E118" s="77"/>
@@ -15464,7 +15472,7 @@
       <c r="M118" s="77"/>
       <c r="N118" s="79"/>
       <c r="O118" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P118" s="78"/>
       <c r="Q118" s="78"/>
@@ -15479,19 +15487,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="54" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B119" s="55">
         <v>65</v>
       </c>
       <c r="C119" s="57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D119" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E119" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F119" s="58">
         <v>0</v>
@@ -15548,25 +15556,25 @@
         <v>22</v>
       </c>
       <c r="X119" s="52" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y119" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="44" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B120" s="48">
         <v>66</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D120" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E120" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F120" s="47">
         <v>2000</v>
@@ -15623,25 +15631,25 @@
         <v>22</v>
       </c>
       <c r="X120" s="52" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Y120" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="54" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B121" s="55">
         <v>68</v>
       </c>
       <c r="C121" s="57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D121" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E121" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F121" s="58">
         <v>9758.24</v>
@@ -15659,7 +15667,7 @@
         <v>24</v>
       </c>
       <c r="K121" s="59" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L121" s="57" t="s">
         <v>38</v>
@@ -15698,25 +15706,25 @@
         <v>22</v>
       </c>
       <c r="X121" s="52" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Y121" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="44" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B122" s="48">
         <v>69</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D122" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E122" s="46" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F122" s="47">
         <v>21163.68</v>
@@ -15734,7 +15742,7 @@
         <v>24</v>
       </c>
       <c r="K122" s="64" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L122" s="46" t="s">
         <v>38</v>
@@ -15773,25 +15781,25 @@
         <v>22</v>
       </c>
       <c r="X122" s="52" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Y122" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="54" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B123" s="55">
         <v>70</v>
       </c>
       <c r="C123" s="57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D123" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E123" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F123" s="58">
         <v>21168</v>
@@ -15809,7 +15817,7 @@
         <v>24</v>
       </c>
       <c r="K123" s="59" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L123" s="57" t="s">
         <v>38</v>
@@ -15848,25 +15856,25 @@
         <v>22</v>
       </c>
       <c r="X123" s="52" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y123" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="44" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B124" s="48">
         <v>65</v>
       </c>
       <c r="C124" s="46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D124" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E124" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F124" s="47">
         <v>0</v>
@@ -15923,25 +15931,25 @@
         <v>22</v>
       </c>
       <c r="X124" s="52" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Y124" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="54" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B125" s="55">
         <v>67</v>
       </c>
       <c r="C125" s="57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D125" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E125" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F125" s="58">
         <v>2000</v>
@@ -15998,25 +16006,25 @@
         <v>22</v>
       </c>
       <c r="X125" s="52" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Y125" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="44" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B126" s="48">
         <v>71</v>
       </c>
       <c r="C126" s="46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D126" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E126" s="46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F126" s="47">
         <v>9758.24</v>
@@ -16073,25 +16081,25 @@
         <v>22</v>
       </c>
       <c r="X126" s="52" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Y126" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="54" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B127" s="55">
         <v>73</v>
       </c>
       <c r="C127" s="57" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D127" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E127" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F127" s="58">
         <v>21163.68</v>
@@ -16148,25 +16156,25 @@
         <v>22</v>
       </c>
       <c r="X127" s="52" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Y127" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="44" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B128" s="48">
         <v>74</v>
       </c>
       <c r="C128" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D128" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E128" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F128" s="47">
         <v>21168</v>
@@ -16223,25 +16231,25 @@
         <v>22</v>
       </c>
       <c r="X128" s="52" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Y128" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="54" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B129" s="55">
         <v>75</v>
       </c>
       <c r="C129" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D129" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E129" s="57" t="s">
         <v>165</v>
-      </c>
-      <c r="D129" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E129" s="57" t="s">
-        <v>164</v>
       </c>
       <c r="F129" s="58">
         <v>0</v>
@@ -16298,25 +16306,25 @@
         <v>22</v>
       </c>
       <c r="X129" s="52" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Y129" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="44" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B130" s="48">
         <v>76</v>
       </c>
       <c r="C130" s="46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D130" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E130" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F130" s="47">
         <v>2000</v>
@@ -16373,25 +16381,25 @@
         <v>22</v>
       </c>
       <c r="X130" s="52" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y130" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B131" s="55">
         <v>80</v>
       </c>
       <c r="C131" s="57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D131" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E131" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F131" s="58">
         <v>9758.24</v>
@@ -16448,25 +16456,25 @@
         <v>22</v>
       </c>
       <c r="X131" s="52" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Y131" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="44" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B132" s="48">
         <v>86</v>
       </c>
       <c r="C132" s="46" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D132" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E132" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F132" s="47">
         <v>21163.68</v>
@@ -16523,25 +16531,25 @@
         <v>22</v>
       </c>
       <c r="X132" s="52" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y132" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="68" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B133" s="55">
         <v>95</v>
       </c>
       <c r="C133" s="57" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D133" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E133" s="69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F133" s="58">
         <v>21168</v>
@@ -16598,17 +16606,17 @@
         <v>22</v>
       </c>
       <c r="X133" s="52" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Y133" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="75" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B134" s="76"/>
       <c r="C134" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D134" s="77"/>
       <c r="E134" s="77"/>
@@ -16622,7 +16630,7 @@
       <c r="M134" s="77"/>
       <c r="N134" s="79"/>
       <c r="O134" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P134" s="78"/>
       <c r="Q134" s="78"/>
@@ -16637,13 +16645,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="54" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B135" s="55">
         <v>66</v>
       </c>
       <c r="C135" s="57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D135" s="57" t="s">
         <v>47</v>
@@ -16706,19 +16714,19 @@
         <v>22</v>
       </c>
       <c r="X135" s="52" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Y135" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="44" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B136" s="48">
         <v>66</v>
       </c>
       <c r="C136" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D136" s="46" t="s">
         <v>47</v>
@@ -16781,19 +16789,19 @@
         <v>22</v>
       </c>
       <c r="X136" s="52" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Y136" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="54" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B137" s="55">
         <v>66</v>
       </c>
       <c r="C137" s="57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D137" s="57" t="s">
         <v>47</v>
@@ -16856,19 +16864,19 @@
         <v>22</v>
       </c>
       <c r="X137" s="52" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Y137" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="44" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B138" s="48">
         <v>72</v>
       </c>
       <c r="C138" s="46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D138" s="46" t="s">
         <v>47</v>
@@ -16931,19 +16939,19 @@
         <v>22</v>
       </c>
       <c r="X138" s="52" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Y138" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="54" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B139" s="55">
         <v>72</v>
       </c>
       <c r="C139" s="57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D139" s="57" t="s">
         <v>47</v>
@@ -17006,19 +17014,19 @@
         <v>22</v>
       </c>
       <c r="X139" s="52" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Y139" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="44" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B140" s="48">
         <v>68</v>
       </c>
       <c r="C140" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D140" s="46" t="s">
         <v>47</v>
@@ -17081,19 +17089,19 @@
         <v>22</v>
       </c>
       <c r="X140" s="52" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Y140" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="54" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B141" s="55">
         <v>72</v>
       </c>
       <c r="C141" s="57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D141" s="57" t="s">
         <v>47</v>
@@ -17156,19 +17164,19 @@
         <v>22</v>
       </c>
       <c r="X141" s="52" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Y141" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="44" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B142" s="45">
         <v>66.42</v>
       </c>
       <c r="C142" s="46" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D142" s="46" t="s">
         <v>47</v>
@@ -17231,19 +17239,19 @@
         <v>22</v>
       </c>
       <c r="X142" s="52" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Y142" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="54" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B143" s="84">
         <v>68.42</v>
       </c>
       <c r="C143" s="57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D143" s="57" t="s">
         <v>47</v>
@@ -17306,19 +17314,19 @@
         <v>22</v>
       </c>
       <c r="X143" s="52" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Y143" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="44" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B144" s="48">
         <v>65</v>
       </c>
       <c r="C144" s="46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D144" s="46" t="s">
         <v>47</v>
@@ -17354,7 +17362,7 @@
         <v>63</v>
       </c>
       <c r="O144" s="46" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P144" s="47">
         <v>10000</v>
@@ -17381,19 +17389,19 @@
         <v>22</v>
       </c>
       <c r="X144" s="52" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Y144" s="93"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
       <c r="A145" s="54" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B145" s="55">
         <v>65</v>
       </c>
       <c r="C145" s="57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D145" s="57" t="s">
         <v>47</v>
@@ -17429,7 +17437,7 @@
         <v>63</v>
       </c>
       <c r="O145" s="56" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P145" s="58">
         <v>20000</v>
@@ -17456,19 +17464,19 @@
         <v>22</v>
       </c>
       <c r="X145" s="52" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Y145" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="44" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B146" s="45">
         <v>66.42</v>
       </c>
       <c r="C146" s="46" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D146" s="46" t="s">
         <v>47</v>
@@ -17504,7 +17512,7 @@
         <v>60.92</v>
       </c>
       <c r="O146" s="46" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P146" s="47">
         <v>5000</v>
@@ -17531,19 +17539,19 @@
         <v>22</v>
       </c>
       <c r="X146" s="52" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Y146" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
       <c r="A147" s="54" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B147" s="55">
         <v>66</v>
       </c>
       <c r="C147" s="57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D147" s="57" t="s">
         <v>47</v>
@@ -17579,7 +17587,7 @@
         <v>60</v>
       </c>
       <c r="O147" s="56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P147" s="58">
         <v>15000</v>
@@ -17606,19 +17614,19 @@
         <v>22</v>
       </c>
       <c r="X147" s="52" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Y147" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="72" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B148" s="45">
         <v>66.5</v>
       </c>
       <c r="C148" s="46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D148" s="46" t="s">
         <v>47</v>
@@ -17654,7 +17662,7 @@
         <v>60</v>
       </c>
       <c r="O148" s="46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P148" s="47">
         <v>15000</v>
@@ -17681,19 +17689,19 @@
         <v>22</v>
       </c>
       <c r="X148" s="52" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Y148" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
       <c r="A149" s="68" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B149" s="84">
         <v>66.5</v>
       </c>
       <c r="C149" s="57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D149" s="57" t="s">
         <v>47</v>
@@ -17729,7 +17737,7 @@
         <v>60</v>
       </c>
       <c r="O149" s="56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P149" s="58">
         <v>15000</v>
@@ -17756,19 +17764,19 @@
         <v>22</v>
       </c>
       <c r="X149" s="92" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Y149" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
       <c r="A150" s="44" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B150" s="48">
         <v>66</v>
       </c>
       <c r="C150" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D150" s="46" t="s">
         <v>47</v>
@@ -17804,7 +17812,7 @@
         <v>60</v>
       </c>
       <c r="O150" s="46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P150" s="47">
         <v>15000</v>
@@ -17831,19 +17839,19 @@
         <v>22</v>
       </c>
       <c r="X150" s="52" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Y150" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
       <c r="A151" s="54" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B151" s="55">
         <v>66</v>
       </c>
       <c r="C151" s="57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D151" s="57" t="s">
         <v>47</v>
@@ -17879,7 +17887,7 @@
         <v>63</v>
       </c>
       <c r="O151" s="56" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P151" s="58">
         <v>4000</v>
@@ -17906,19 +17914,19 @@
         <v>22</v>
       </c>
       <c r="X151" s="52" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Y151" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
       <c r="A152" s="44" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B152" s="48">
         <v>66</v>
       </c>
       <c r="C152" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D152" s="46" t="s">
         <v>47</v>
@@ -17954,7 +17962,7 @@
         <v>63</v>
       </c>
       <c r="O152" s="46" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P152" s="47">
         <v>40000</v>
@@ -17981,19 +17989,19 @@
         <v>22</v>
       </c>
       <c r="X152" s="52" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Y152" s="93"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
       <c r="A153" s="54" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B153" s="55">
         <v>70</v>
       </c>
       <c r="C153" s="57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D153" s="57" t="s">
         <v>47</v>
@@ -18029,7 +18037,7 @@
         <v>64</v>
       </c>
       <c r="O153" s="56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P153" s="58">
         <v>2000</v>
@@ -18056,19 +18064,19 @@
         <v>22</v>
       </c>
       <c r="X153" s="52" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y153" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
       <c r="A154" s="44" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B154" s="48">
         <v>70</v>
       </c>
       <c r="C154" s="46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D154" s="46" t="s">
         <v>47</v>
@@ -18104,7 +18112,7 @@
         <v>64</v>
       </c>
       <c r="O154" s="46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P154" s="47">
         <v>2000</v>
@@ -18131,19 +18139,19 @@
         <v>22</v>
       </c>
       <c r="X154" s="52" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y154" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
       <c r="A155" s="54" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B155" s="55">
         <v>67</v>
       </c>
       <c r="C155" s="57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D155" s="57" t="s">
         <v>47</v>
@@ -18179,7 +18187,7 @@
         <v>64</v>
       </c>
       <c r="O155" s="56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P155" s="58">
         <v>42000</v>
@@ -18206,19 +18214,19 @@
         <v>22</v>
       </c>
       <c r="X155" s="52" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Y155" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
       <c r="A156" s="44" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B156" s="48">
         <v>67</v>
       </c>
       <c r="C156" s="46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D156" s="46" t="s">
         <v>47</v>
@@ -18254,7 +18262,7 @@
         <v>68</v>
       </c>
       <c r="O156" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P156" s="47">
         <v>42000</v>
@@ -18281,19 +18289,19 @@
         <v>23</v>
       </c>
       <c r="X156" s="52" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Y156" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
       <c r="A157" s="54" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B157" s="55">
         <v>67</v>
       </c>
       <c r="C157" s="57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D157" s="57" t="s">
         <v>47</v>
@@ -18329,7 +18337,7 @@
         <v>68</v>
       </c>
       <c r="O157" s="56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P157" s="58">
         <v>42000</v>
@@ -18356,19 +18364,19 @@
         <v>47</v>
       </c>
       <c r="X157" s="52" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Y157" s="93"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
       <c r="A158" s="44" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B158" s="48">
         <v>67</v>
       </c>
       <c r="C158" s="46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D158" s="46" t="s">
         <v>47</v>
@@ -18404,7 +18412,7 @@
         <v>68</v>
       </c>
       <c r="O158" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P158" s="47">
         <v>42000</v>
@@ -18431,19 +18439,19 @@
         <v>55</v>
       </c>
       <c r="X158" s="52" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Y158" s="93"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
       <c r="A159" s="54" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B159" s="55">
         <v>67</v>
       </c>
       <c r="C159" s="57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D159" s="57" t="s">
         <v>47</v>
@@ -18479,7 +18487,7 @@
         <v>68</v>
       </c>
       <c r="O159" s="56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P159" s="58">
         <v>5000</v>
@@ -18506,19 +18514,19 @@
         <v>23</v>
       </c>
       <c r="X159" s="52" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Y159" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
       <c r="A160" s="44" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B160" s="48">
         <v>67</v>
       </c>
       <c r="C160" s="46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D160" s="46" t="s">
         <v>47</v>
@@ -18554,7 +18562,7 @@
         <v>68</v>
       </c>
       <c r="O160" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P160" s="47">
         <v>5000</v>
@@ -18581,19 +18589,19 @@
         <v>47</v>
       </c>
       <c r="X160" s="52" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Y160" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
       <c r="A161" s="54" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B161" s="55">
         <v>67</v>
       </c>
       <c r="C161" s="57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D161" s="57" t="s">
         <v>47</v>
@@ -18629,7 +18637,7 @@
         <v>68</v>
       </c>
       <c r="O161" s="56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P161" s="58">
         <v>5000</v>
@@ -18656,19 +18664,19 @@
         <v>55</v>
       </c>
       <c r="X161" s="52" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Y161" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
       <c r="A162" s="44" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B162" s="48">
         <v>72</v>
       </c>
       <c r="C162" s="46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D162" s="46" t="s">
         <v>47</v>
@@ -18704,7 +18712,7 @@
         <v>75</v>
       </c>
       <c r="O162" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P162" s="47">
         <v>4000</v>
@@ -18731,19 +18739,19 @@
         <v>23</v>
       </c>
       <c r="X162" s="52" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Y162" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
       <c r="A163" s="54" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B163" s="55">
         <v>72</v>
       </c>
       <c r="C163" s="57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D163" s="57" t="s">
         <v>47</v>
@@ -18779,7 +18787,7 @@
         <v>75</v>
       </c>
       <c r="O163" s="56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P163" s="58">
         <v>4000</v>
@@ -18806,19 +18814,19 @@
         <v>47</v>
       </c>
       <c r="X163" s="52" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Y163" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
       <c r="A164" s="44" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B164" s="48">
         <v>72</v>
       </c>
       <c r="C164" s="46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D164" s="46" t="s">
         <v>47</v>
@@ -18854,7 +18862,7 @@
         <v>75</v>
       </c>
       <c r="O164" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P164" s="47">
         <v>4000</v>
@@ -18881,19 +18889,19 @@
         <v>55</v>
       </c>
       <c r="X164" s="52" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Y164" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="54" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B165" s="55">
         <v>72</v>
       </c>
       <c r="C165" s="57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D165" s="57" t="s">
         <v>47</v>
@@ -18929,7 +18937,7 @@
         <v>63</v>
       </c>
       <c r="O165" s="56" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P165" s="58">
         <v>45000</v>
@@ -18956,19 +18964,19 @@
         <v>22</v>
       </c>
       <c r="X165" s="52" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Y165" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="44" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B166" s="48">
         <v>68</v>
       </c>
       <c r="C166" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D166" s="46" t="s">
         <v>47</v>
@@ -19004,7 +19012,7 @@
         <v>59</v>
       </c>
       <c r="O166" s="46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P166" s="47">
         <v>5000</v>
@@ -19031,19 +19039,19 @@
         <v>22</v>
       </c>
       <c r="X166" s="52" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Y166" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="54" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B167" s="84">
         <v>68.75</v>
       </c>
       <c r="C167" s="57" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D167" s="57" t="s">
         <v>47</v>
@@ -19079,7 +19087,7 @@
         <v>59.25</v>
       </c>
       <c r="O167" s="56" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P167" s="58">
         <v>5000</v>
@@ -19106,19 +19114,19 @@
         <v>22</v>
       </c>
       <c r="X167" s="52" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Y167" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="44" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B168" s="48">
         <v>68</v>
       </c>
       <c r="C168" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D168" s="46" t="s">
         <v>47</v>
@@ -19154,7 +19162,7 @@
         <v>65</v>
       </c>
       <c r="O168" s="46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P168" s="47">
         <v>40000</v>
@@ -19181,19 +19189,19 @@
         <v>23</v>
       </c>
       <c r="X168" s="52" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Y168" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="54" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B169" s="55">
         <v>70</v>
       </c>
       <c r="C169" s="57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D169" s="57" t="s">
         <v>47</v>
@@ -19229,7 +19237,7 @@
         <v>68</v>
       </c>
       <c r="O169" s="56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P169" s="58">
         <v>5000</v>
@@ -19256,19 +19264,19 @@
         <v>55</v>
       </c>
       <c r="X169" s="52" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Y169" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="44" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B170" s="48">
         <v>72</v>
       </c>
       <c r="C170" s="46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D170" s="46" t="s">
         <v>47</v>
@@ -19304,7 +19312,7 @@
         <v>75</v>
       </c>
       <c r="O170" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P170" s="47">
         <v>35000</v>
@@ -19331,19 +19339,19 @@
         <v>23</v>
       </c>
       <c r="X170" s="52" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Y170" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="54" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B171" s="55">
         <v>72</v>
       </c>
       <c r="C171" s="57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D171" s="57" t="s">
         <v>47</v>
@@ -19379,7 +19387,7 @@
         <v>75</v>
       </c>
       <c r="O171" s="56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P171" s="58">
         <v>35000</v>
@@ -19406,19 +19414,19 @@
         <v>47</v>
       </c>
       <c r="X171" s="52" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Y171" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="44" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B172" s="48">
         <v>72</v>
       </c>
       <c r="C172" s="46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D172" s="46" t="s">
         <v>47</v>
@@ -19454,7 +19462,7 @@
         <v>75</v>
       </c>
       <c r="O172" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P172" s="47">
         <v>35000</v>
@@ -19481,19 +19489,19 @@
         <v>55</v>
       </c>
       <c r="X172" s="52" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Y172" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="99.75">
       <c r="A173" s="54" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B173" s="55">
         <v>73</v>
       </c>
       <c r="C173" s="57" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D173" s="57" t="s">
         <v>47</v>
@@ -19529,7 +19537,7 @@
         <v>68</v>
       </c>
       <c r="O173" s="56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P173" s="58">
         <v>5000</v>
@@ -19556,19 +19564,19 @@
         <v>55</v>
       </c>
       <c r="X173" s="52" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y173" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="44" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B174" s="48">
         <v>71</v>
       </c>
       <c r="C174" s="46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D174" s="46" t="s">
         <v>47</v>
@@ -19604,7 +19612,7 @@
         <v>75</v>
       </c>
       <c r="O174" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P174" s="47">
         <v>4000</v>
@@ -19631,19 +19639,19 @@
         <v>55</v>
       </c>
       <c r="X174" s="52" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y174" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="99.75">
       <c r="A175" s="94" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B175" s="95">
         <v>80.33</v>
       </c>
       <c r="C175" s="96" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D175" s="97" t="s">
         <v>47</v>
@@ -19679,7 +19687,7 @@
         <v>75.17</v>
       </c>
       <c r="O175" s="96" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P175" s="98">
         <v>25000</v>
@@ -19700,27 +19708,27 @@
         <v>24</v>
       </c>
       <c r="V175" s="99" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="W175" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X175" s="74" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Y175" s="13" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="94" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B176" s="85">
         <v>80.25</v>
       </c>
       <c r="C176" s="73" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D176" s="97" t="s">
         <v>47</v>
@@ -19744,7 +19752,7 @@
         <v>24</v>
       </c>
       <c r="K176" s="99" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L176" s="97" t="s">
         <v>46</v>
@@ -19756,7 +19764,7 @@
         <v>75.17</v>
       </c>
       <c r="O176" s="97" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P176" s="98">
         <v>10000</v>
@@ -19777,27 +19785,27 @@
         <v>24</v>
       </c>
       <c r="V176" s="99" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="W176" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X176" s="74" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y176" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="94" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B177" s="85">
         <v>80.25</v>
       </c>
       <c r="C177" s="73" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D177" s="97" t="s">
         <v>47</v>
@@ -19821,7 +19829,7 @@
         <v>24</v>
       </c>
       <c r="K177" s="99" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L177" s="97" t="s">
         <v>46</v>
@@ -19833,7 +19841,7 @@
         <v>73</v>
       </c>
       <c r="O177" s="96" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P177" s="98">
         <v>5000</v>
@@ -19854,27 +19862,27 @@
         <v>24</v>
       </c>
       <c r="V177" s="99" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="W177" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X177" s="74" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Y177" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="94" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B178" s="95">
         <v>80.25</v>
       </c>
       <c r="C178" s="97" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D178" s="97" t="s">
         <v>47</v>
@@ -19898,7 +19906,7 @@
         <v>24</v>
       </c>
       <c r="K178" s="99" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L178" s="97" t="s">
         <v>46</v>
@@ -19910,7 +19918,7 @@
         <v>75.17</v>
       </c>
       <c r="O178" s="97" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P178" s="98">
         <v>50000</v>
@@ -19931,27 +19939,27 @@
         <v>24</v>
       </c>
       <c r="V178" s="99" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="W178" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X178" s="74" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Y178" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="94" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B179" s="95">
         <v>80.17</v>
       </c>
       <c r="C179" s="96" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D179" s="97" t="s">
         <v>47</v>
@@ -19975,7 +19983,7 @@
         <v>24</v>
       </c>
       <c r="K179" s="99" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L179" s="97" t="s">
         <v>46</v>
@@ -19987,7 +19995,7 @@
         <v>76.17</v>
       </c>
       <c r="O179" s="96" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P179" s="98">
         <v>10000</v>
@@ -20008,27 +20016,27 @@
         <v>24</v>
       </c>
       <c r="V179" s="99" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W179" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X179" s="74" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Y179" s="13" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="94" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B180" s="95">
         <v>80.17</v>
       </c>
       <c r="C180" s="97" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D180" s="97" t="s">
         <v>47</v>
@@ -20052,7 +20060,7 @@
         <v>24</v>
       </c>
       <c r="K180" s="99" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L180" s="97" t="s">
         <v>46</v>
@@ -20064,7 +20072,7 @@
         <v>75.33</v>
       </c>
       <c r="O180" s="97" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P180" s="98">
         <v>0</v>
@@ -20085,25 +20093,25 @@
         <v>24</v>
       </c>
       <c r="V180" s="99" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="W180" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X180" s="74" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Y180" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="260.25">
       <c r="A181" s="94" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B181" s="95">
         <v>76.83</v>
       </c>
       <c r="C181" s="96" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D181" s="97" t="s">
         <v>47</v>
@@ -20127,7 +20135,7 @@
         <v>24</v>
       </c>
       <c r="K181" s="99" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L181" s="97" t="s">
         <v>46</v>
@@ -20139,7 +20147,7 @@
         <v>75.75</v>
       </c>
       <c r="O181" s="96" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P181" s="98">
         <v>15000</v>
@@ -20160,27 +20168,27 @@
         <v>24</v>
       </c>
       <c r="V181" s="99" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="W181" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X181" s="74" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Y181" s="13" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="94" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B182" s="95">
         <v>80.28</v>
       </c>
       <c r="C182" s="97" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D182" s="97" t="s">
         <v>47</v>
@@ -20204,7 +20212,7 @@
         <v>24</v>
       </c>
       <c r="K182" s="99" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L182" s="97" t="s">
         <v>46</v>
@@ -20216,7 +20224,7 @@
         <v>75.33</v>
       </c>
       <c r="O182" s="97" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P182" s="98">
         <v>15000</v>
@@ -20237,27 +20245,27 @@
         <v>24</v>
       </c>
       <c r="V182" s="99" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="W182" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X182" s="74" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y182" s="13" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="94" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B183" s="95">
         <v>75.25</v>
       </c>
       <c r="C183" s="96" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D183" s="97" t="s">
         <v>47</v>
@@ -20281,7 +20289,7 @@
         <v>24</v>
       </c>
       <c r="K183" s="99" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L183" s="97" t="s">
         <v>46</v>
@@ -20293,7 +20301,7 @@
         <v>75.5</v>
       </c>
       <c r="O183" s="96" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P183" s="98">
         <v>0</v>
@@ -20314,27 +20322,27 @@
         <v>24</v>
       </c>
       <c r="V183" s="99" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="W183" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X183" s="74" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Y183" s="13" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="94" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B184" s="95">
         <v>75.25</v>
       </c>
       <c r="C184" s="97" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D184" s="97" t="s">
         <v>47</v>
@@ -20358,7 +20366,7 @@
         <v>24</v>
       </c>
       <c r="K184" s="99" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L184" s="97" t="s">
         <v>46</v>
@@ -20370,7 +20378,7 @@
         <v>75.33</v>
       </c>
       <c r="O184" s="97" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P184" s="98">
         <v>100000</v>
@@ -20391,25 +20399,25 @@
         <v>24</v>
       </c>
       <c r="V184" s="99" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="W184" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X184" s="74" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="Y184" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="94" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B185" s="95">
         <v>75.25</v>
       </c>
       <c r="C185" s="96" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D185" s="97" t="s">
         <v>47</v>
@@ -20433,7 +20441,7 @@
         <v>24</v>
       </c>
       <c r="K185" s="99" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L185" s="97" t="s">
         <v>46</v>
@@ -20445,7 +20453,7 @@
         <v>75.25</v>
       </c>
       <c r="O185" s="96" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P185" s="98">
         <v>5000</v>
@@ -20466,27 +20474,27 @@
         <v>24</v>
       </c>
       <c r="V185" s="99" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="W185" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X185" s="74" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y185" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="94" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B186" s="95">
         <v>75.25</v>
       </c>
       <c r="C186" s="97" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D186" s="97" t="s">
         <v>47</v>
@@ -20510,7 +20518,7 @@
         <v>24</v>
       </c>
       <c r="K186" s="99" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L186" s="97" t="s">
         <v>46</v>
@@ -20522,7 +20530,7 @@
         <v>75.25</v>
       </c>
       <c r="O186" s="97" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P186" s="98">
         <v>10000</v>
@@ -20543,27 +20551,27 @@
         <v>24</v>
       </c>
       <c r="V186" s="99" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="W186" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X186" s="74" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="Y186" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="94" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B187" s="95">
         <v>75.33</v>
       </c>
       <c r="C187" s="96" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D187" s="97" t="s">
         <v>47</v>
@@ -20587,7 +20595,7 @@
         <v>24</v>
       </c>
       <c r="K187" s="99" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L187" s="97" t="s">
         <v>46</v>
@@ -20599,7 +20607,7 @@
         <v>75.25</v>
       </c>
       <c r="O187" s="96" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P187" s="98">
         <v>100000</v>
@@ -20620,25 +20628,25 @@
         <v>24</v>
       </c>
       <c r="V187" s="99" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="W187" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X187" s="74" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="Y187" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="94" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B188" s="95">
         <v>75.5</v>
       </c>
       <c r="C188" s="97" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D188" s="97" t="s">
         <v>47</v>
@@ -20662,7 +20670,7 @@
         <v>24</v>
       </c>
       <c r="K188" s="99" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L188" s="97" t="s">
         <v>46</v>
@@ -20674,7 +20682,7 @@
         <v>75.25</v>
       </c>
       <c r="O188" s="97" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P188" s="98">
         <v>0</v>
@@ -20695,27 +20703,27 @@
         <v>24</v>
       </c>
       <c r="V188" s="99" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="W188" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X188" s="74" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y188" s="13" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="94" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B189" s="95">
         <v>75.33</v>
       </c>
       <c r="C189" s="96" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D189" s="97" t="s">
         <v>47</v>
@@ -20739,7 +20747,7 @@
         <v>24</v>
       </c>
       <c r="K189" s="99" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L189" s="97" t="s">
         <v>46</v>
@@ -20751,7 +20759,7 @@
         <v>80.17</v>
       </c>
       <c r="O189" s="96" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P189" s="98">
         <v>15000</v>
@@ -20772,27 +20780,27 @@
         <v>24</v>
       </c>
       <c r="V189" s="99" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="W189" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X189" s="74" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Y189" s="13" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="94" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B190" s="95">
         <v>75.75</v>
       </c>
       <c r="C190" s="97" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D190" s="97" t="s">
         <v>47</v>
@@ -20816,7 +20824,7 @@
         <v>24</v>
       </c>
       <c r="K190" s="99" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L190" s="97" t="s">
         <v>46</v>
@@ -20828,7 +20836,7 @@
         <v>76.67</v>
       </c>
       <c r="O190" s="97" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="P190" s="98">
         <v>20000</v>
@@ -20849,25 +20857,25 @@
         <v>24</v>
       </c>
       <c r="V190" s="99" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="W190" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X190" s="74" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Y190" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
       <c r="A191" s="94" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B191" s="95">
         <v>75.33</v>
       </c>
       <c r="C191" s="96" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D191" s="97" t="s">
         <v>47</v>
@@ -20891,7 +20899,7 @@
         <v>24</v>
       </c>
       <c r="K191" s="99" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L191" s="97" t="s">
         <v>46</v>
@@ -20903,7 +20911,7 @@
         <v>80.17</v>
       </c>
       <c r="O191" s="96" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P191" s="98">
         <v>25000</v>
@@ -20924,27 +20932,27 @@
         <v>24</v>
       </c>
       <c r="V191" s="99" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="W191" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X191" s="74" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Y191" s="13" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
       <c r="A192" s="94" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B192" s="95">
         <v>76.17</v>
       </c>
       <c r="C192" s="97" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D192" s="97" t="s">
         <v>47</v>
@@ -20968,7 +20976,7 @@
         <v>24</v>
       </c>
       <c r="K192" s="99" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L192" s="97" t="s">
         <v>46</v>
@@ -20980,7 +20988,7 @@
         <v>80.17</v>
       </c>
       <c r="O192" s="97" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P192" s="98">
         <v>15000</v>
@@ -21007,19 +21015,19 @@
         <v>55</v>
       </c>
       <c r="X192" s="74" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Y192" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
       <c r="A193" s="94" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B193" s="95">
         <v>75.17</v>
       </c>
       <c r="C193" s="96" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D193" s="97" t="s">
         <v>47</v>
@@ -21043,7 +21051,7 @@
         <v>24</v>
       </c>
       <c r="K193" s="99" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L193" s="97" t="s">
         <v>46</v>
@@ -21055,7 +21063,7 @@
         <v>80.25</v>
       </c>
       <c r="O193" s="96" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P193" s="98">
         <v>100000</v>
@@ -21076,25 +21084,25 @@
         <v>24</v>
       </c>
       <c r="V193" s="99" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="W193" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X193" s="74" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y193" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
       <c r="A194" s="94" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B194" s="102">
         <v>75</v>
       </c>
       <c r="C194" s="97" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D194" s="97" t="s">
         <v>47</v>
@@ -21118,7 +21126,7 @@
         <v>24</v>
       </c>
       <c r="K194" s="99" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L194" s="97" t="s">
         <v>46</v>
@@ -21130,7 +21138,7 @@
         <v>80.25</v>
       </c>
       <c r="O194" s="97" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P194" s="98">
         <v>15000</v>
@@ -21151,27 +21159,27 @@
         <v>24</v>
       </c>
       <c r="V194" s="99" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="W194" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X194" s="74" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="Y194" s="13" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
       <c r="A195" s="94" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B195" s="95">
         <v>75.17</v>
       </c>
       <c r="C195" s="96" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D195" s="97" t="s">
         <v>47</v>
@@ -21195,7 +21203,7 @@
         <v>24</v>
       </c>
       <c r="K195" s="99" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L195" s="97" t="s">
         <v>46</v>
@@ -21207,7 +21215,7 @@
         <v>80.25</v>
       </c>
       <c r="O195" s="96" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P195" s="98">
         <v>5000</v>
@@ -21228,27 +21236,27 @@
         <v>24</v>
       </c>
       <c r="V195" s="99" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="W195" s="101" t="s">
         <v>55</v>
       </c>
       <c r="X195" s="74" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Y195" s="13" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="94" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B196" s="95">
         <v>75.17</v>
       </c>
       <c r="C196" s="97" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D196" s="97" t="s">
         <v>47</v>
@@ -21272,7 +21280,7 @@
         <v>24</v>
       </c>
       <c r="K196" s="99" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L196" s="97" t="s">
         <v>46</v>
@@ -21284,7 +21292,7 @@
         <v>80.33</v>
       </c>
       <c r="O196" s="97" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P196" s="98">
         <v>0</v>
@@ -21311,19 +21319,19 @@
         <v>55</v>
       </c>
       <c r="X196" s="74" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Y196" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
       <c r="A197" s="75" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B197" s="76"/>
       <c r="C197" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D197" s="77"/>
       <c r="E197" s="77"/>
@@ -21337,7 +21345,7 @@
       <c r="M197" s="77"/>
       <c r="N197" s="79"/>
       <c r="O197" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P197" s="78"/>
       <c r="Q197" s="78"/>
@@ -21352,16 +21360,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
       <c r="A198" s="103" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B198" s="104">
         <v>40</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D198" s="30" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E198" s="30" t="s">
         <v>22</v>
@@ -21372,14 +21380,14 @@
       <c r="G198" s="16">
         <v>0</v>
       </c>
-      <c r="H198" s="105" t="s">
-        <v>678</v>
+      <c r="H198" s="105">
+        <v>40000</v>
       </c>
       <c r="I198" s="30" t="s">
         <v>23</v>
       </c>
       <c r="J198" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K198" s="104">
         <v>20</v>
@@ -21433,10 +21441,10 @@
         <v>40</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D199" s="30" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E199" s="30" t="s">
         <v>22</v>
@@ -21454,7 +21462,7 @@
         <v>23</v>
       </c>
       <c r="J199" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K199" s="104">
         <v>20</v>
@@ -21508,28 +21516,28 @@
         <v>60</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D200" s="30" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E200" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F200" s="105">
-        <v>0</v>
-      </c>
-      <c r="G200" s="105">
-        <v>0</v>
-      </c>
-      <c r="H200" s="105">
-        <v>0</v>
+      <c r="F200" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="G200" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="H200" s="105" t="s">
+        <v>684</v>
       </c>
       <c r="I200" s="30" t="s">
         <v>23</v>
       </c>
       <c r="J200" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K200" s="104">
         <v>35</v>
@@ -21544,19 +21552,19 @@
         <v>65</v>
       </c>
       <c r="O200" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="P200" s="105">
-        <v>40000</v>
-      </c>
-      <c r="Q200" s="105">
-        <v>0</v>
-      </c>
-      <c r="R200" s="105">
-        <v>40000</v>
-      </c>
-      <c r="S200" s="107">
-        <v>40000</v>
+        <v>302</v>
+      </c>
+      <c r="P200" s="105" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q200" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="R200" s="105" t="s">
+        <v>685</v>
+      </c>
+      <c r="S200" s="107" t="s">
+        <v>685</v>
       </c>
       <c r="T200" s="30" t="s">
         <v>23</v>
@@ -21565,46 +21573,46 @@
         <v>24</v>
       </c>
       <c r="V200" s="106" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="W200" s="30" t="s">
         <v>23</v>
       </c>
       <c r="X200" s="13" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="Y200" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="103" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B201" s="104">
         <v>59</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D201" s="30" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E201" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F201" s="105">
-        <v>0</v>
-      </c>
-      <c r="G201" s="105">
-        <v>0</v>
+      <c r="F201" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="G201" s="105" t="s">
+        <v>684</v>
       </c>
       <c r="H201" s="105" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="I201" s="30" t="s">
         <v>23</v>
       </c>
       <c r="J201" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K201" s="104">
         <v>26</v>
@@ -21646,40 +21654,40 @@
         <v>22</v>
       </c>
       <c r="X201" s="13" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Y201" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
       <c r="A202" s="103" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B202" s="104">
         <v>59</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D202" s="30" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E202" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F202" s="105">
-        <v>4000</v>
-      </c>
-      <c r="G202" s="105">
-        <v>0</v>
-      </c>
-      <c r="H202" s="105">
-        <v>4000</v>
+      <c r="F202" s="105" t="s">
+        <v>691</v>
+      </c>
+      <c r="G202" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="H202" s="105" t="s">
+        <v>691</v>
       </c>
       <c r="I202" s="30" t="s">
         <v>23</v>
       </c>
       <c r="J202" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K202" s="104">
         <v>30</v>
@@ -21694,19 +21702,19 @@
         <v>64</v>
       </c>
       <c r="O202" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="P202" s="105">
-        <v>0</v>
-      </c>
-      <c r="Q202" s="105">
-        <v>0</v>
-      </c>
-      <c r="R202" s="105">
-        <v>0</v>
-      </c>
-      <c r="S202" s="107">
-        <v>4000</v>
+        <v>419</v>
+      </c>
+      <c r="P202" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q202" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="R202" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="S202" s="107" t="s">
+        <v>691</v>
       </c>
       <c r="T202" s="30" t="s">
         <v>23</v>
@@ -21721,19 +21729,19 @@
         <v>22</v>
       </c>
       <c r="X202" s="53" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="Y202" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
       <c r="A203" s="103" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B203" s="104">
         <v>64</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D203" s="30" t="s">
         <v>22</v>
@@ -21741,20 +21749,20 @@
       <c r="E203" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F203" s="105">
-        <v>2000</v>
-      </c>
-      <c r="G203" s="105">
-        <v>0</v>
-      </c>
-      <c r="H203" s="105">
-        <v>2000</v>
+      <c r="F203" s="105" t="s">
+        <v>694</v>
+      </c>
+      <c r="G203" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="H203" s="105" t="s">
+        <v>694</v>
       </c>
       <c r="I203" s="30" t="s">
         <v>23</v>
       </c>
       <c r="J203" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K203" s="106" t="s">
         <v>28</v>
@@ -21769,19 +21777,19 @@
         <v>58</v>
       </c>
       <c r="O203" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="P203" s="105">
-        <v>2000</v>
-      </c>
-      <c r="Q203" s="105">
-        <v>0</v>
-      </c>
-      <c r="R203" s="105">
-        <v>2000</v>
-      </c>
-      <c r="S203" s="107">
-        <v>4000</v>
+        <v>695</v>
+      </c>
+      <c r="P203" s="105" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q203" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="R203" s="105" t="s">
+        <v>694</v>
+      </c>
+      <c r="S203" s="107" t="s">
+        <v>691</v>
       </c>
       <c r="T203" s="30" t="s">
         <v>22</v>
@@ -21796,19 +21804,19 @@
         <v>22</v>
       </c>
       <c r="X203" s="13" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="Y203" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
       <c r="A204" s="103" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B204" s="104">
         <v>45</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D204" s="30" t="s">
         <v>22</v>
@@ -21816,20 +21824,20 @@
       <c r="E204" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F204" s="105">
-        <v>15000</v>
-      </c>
-      <c r="G204" s="105">
-        <v>0</v>
-      </c>
-      <c r="H204" s="105">
-        <v>15000</v>
+      <c r="F204" s="105" t="s">
+        <v>699</v>
+      </c>
+      <c r="G204" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="H204" s="105" t="s">
+        <v>699</v>
       </c>
       <c r="I204" s="30" t="s">
         <v>23</v>
       </c>
       <c r="J204" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K204" s="104">
         <v>22</v>
@@ -21844,19 +21852,19 @@
         <v>45</v>
       </c>
       <c r="O204" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="P204" s="105">
-        <v>0</v>
-      </c>
-      <c r="Q204" s="105">
-        <v>0</v>
-      </c>
-      <c r="R204" s="105">
-        <v>0</v>
-      </c>
-      <c r="S204" s="107">
-        <v>15000</v>
+        <v>698</v>
+      </c>
+      <c r="P204" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q204" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="R204" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="S204" s="107" t="s">
+        <v>699</v>
       </c>
       <c r="T204" s="30" t="s">
         <v>22</v>
@@ -21871,19 +21879,19 @@
         <v>22</v>
       </c>
       <c r="X204" s="13" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="Y204" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
       <c r="A205" s="103" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B205" s="104">
         <v>59</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D205" s="30" t="s">
         <v>22</v>
@@ -21891,20 +21899,20 @@
       <c r="E205" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F205" s="105">
-        <v>4000</v>
-      </c>
-      <c r="G205" s="105">
-        <v>0</v>
-      </c>
-      <c r="H205" s="105">
-        <v>4000</v>
+      <c r="F205" s="105" t="s">
+        <v>691</v>
+      </c>
+      <c r="G205" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="H205" s="105" t="s">
+        <v>691</v>
       </c>
       <c r="I205" s="30" t="s">
         <v>23</v>
       </c>
       <c r="J205" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K205" s="104">
         <v>30</v>
@@ -21919,25 +21927,25 @@
         <v>64</v>
       </c>
       <c r="O205" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="P205" s="105">
-        <v>0</v>
-      </c>
-      <c r="Q205" s="105">
-        <v>0</v>
-      </c>
-      <c r="R205" s="105">
-        <v>0</v>
-      </c>
-      <c r="S205" s="107">
-        <v>4000</v>
+        <v>419</v>
+      </c>
+      <c r="P205" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q205" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="R205" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="S205" s="107" t="s">
+        <v>691</v>
       </c>
       <c r="T205" s="30" t="s">
         <v>23</v>
       </c>
       <c r="U205" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V205" s="104">
         <v>24</v>
@@ -21946,19 +21954,19 @@
         <v>22</v>
       </c>
       <c r="X205" s="13" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="Y205" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="103" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B206" s="104">
         <v>55</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D206" s="30" t="s">
         <v>22</v>
@@ -21966,20 +21974,20 @@
       <c r="E206" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F206" s="105">
-        <v>10000</v>
-      </c>
-      <c r="G206" s="105">
-        <v>0</v>
-      </c>
-      <c r="H206" s="105">
-        <v>10000</v>
+      <c r="F206" s="105" t="s">
+        <v>705</v>
+      </c>
+      <c r="G206" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="H206" s="105" t="s">
+        <v>705</v>
       </c>
       <c r="I206" s="30" t="s">
         <v>23</v>
       </c>
       <c r="J206" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K206" s="104">
         <v>25</v>
@@ -21994,25 +22002,25 @@
         <v>62</v>
       </c>
       <c r="O206" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="P206" s="105">
-        <v>35000</v>
-      </c>
-      <c r="Q206" s="105">
-        <v>0</v>
-      </c>
-      <c r="R206" s="105">
-        <v>35000</v>
-      </c>
-      <c r="S206" s="107">
-        <v>45000</v>
+        <v>706</v>
+      </c>
+      <c r="P206" s="105" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q206" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="R206" s="105" t="s">
+        <v>707</v>
+      </c>
+      <c r="S206" s="107" t="s">
+        <v>708</v>
       </c>
       <c r="T206" s="30" t="s">
         <v>23</v>
       </c>
       <c r="U206" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V206" s="14">
         <v>15</v>
@@ -22021,19 +22029,19 @@
         <v>22</v>
       </c>
       <c r="X206" s="13" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="Y206" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="103" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="B207" s="104">
         <v>55</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D207" s="30" t="s">
         <v>22</v>
@@ -22041,14 +22049,14 @@
       <c r="E207" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F207" s="105">
-        <v>10000</v>
-      </c>
-      <c r="G207" s="105">
-        <v>0</v>
-      </c>
-      <c r="H207" s="105">
-        <v>10000</v>
+      <c r="F207" s="105" t="s">
+        <v>705</v>
+      </c>
+      <c r="G207" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="H207" s="105" t="s">
+        <v>705</v>
       </c>
       <c r="I207" s="30" t="s">
         <v>23</v>
@@ -22069,25 +22077,25 @@
         <v>62</v>
       </c>
       <c r="O207" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="P207" s="105">
-        <v>35000</v>
-      </c>
-      <c r="Q207" s="105">
-        <v>0</v>
-      </c>
-      <c r="R207" s="105">
-        <v>35000</v>
-      </c>
-      <c r="S207" s="107">
-        <v>45000</v>
+        <v>706</v>
+      </c>
+      <c r="P207" s="105" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q207" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="R207" s="105" t="s">
+        <v>707</v>
+      </c>
+      <c r="S207" s="107" t="s">
+        <v>708</v>
       </c>
       <c r="T207" s="30" t="s">
         <v>23</v>
       </c>
       <c r="U207" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V207" s="14">
         <v>15</v>
@@ -22096,19 +22104,19 @@
         <v>22</v>
       </c>
       <c r="X207" s="13" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="Y207" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="103" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="B208" s="104">
         <v>55</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D208" s="30" t="s">
         <v>22</v>
@@ -22116,14 +22124,14 @@
       <c r="E208" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F208" s="105">
-        <v>0</v>
-      </c>
-      <c r="G208" s="105">
-        <v>0</v>
-      </c>
-      <c r="H208" s="105">
-        <v>0</v>
+      <c r="F208" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="G208" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="H208" s="105" t="s">
+        <v>684</v>
       </c>
       <c r="I208" s="30" t="s">
         <v>23</v>
@@ -22144,25 +22152,25 @@
         <v>62</v>
       </c>
       <c r="O208" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="P208" s="105">
-        <v>0</v>
-      </c>
-      <c r="Q208" s="105">
-        <v>0</v>
-      </c>
-      <c r="R208" s="105">
-        <v>0</v>
-      </c>
-      <c r="S208" s="107">
-        <v>0</v>
+        <v>706</v>
+      </c>
+      <c r="P208" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q208" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="R208" s="105" t="s">
+        <v>684</v>
+      </c>
+      <c r="S208" s="107" t="s">
+        <v>684</v>
       </c>
       <c r="T208" s="30" t="s">
         <v>23</v>
       </c>
       <c r="U208" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V208" s="14">
         <v>15</v>
@@ -22171,19 +22179,19 @@
         <v>22</v>
       </c>
       <c r="X208" s="13" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="Y208" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="103" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="B209" s="108">
         <v>70</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>47</v>
@@ -22219,7 +22227,7 @@
         <v>64</v>
       </c>
       <c r="O209" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P209" s="16">
         <v>8000</v>
@@ -22246,19 +22254,19 @@
         <v>22</v>
       </c>
       <c r="X209" s="13" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="Y209" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="103" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="B210" s="109">
         <v>68.75</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>47</v>
@@ -22294,13 +22302,13 @@
         <v>59.25</v>
       </c>
       <c r="O210" s="6" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="P210" s="16">
         <v>88000</v>
       </c>
       <c r="Q210" s="16">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="R210" s="16">
         <v>81500</v>
@@ -22321,19 +22329,19 @@
         <v>22</v>
       </c>
       <c r="X210" s="13" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="Y210" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="103" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="B211" s="110">
         <v>59.92</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="D211" s="111" t="s">
         <v>22</v>
@@ -22369,7 +22377,7 @@
         <v>65</v>
       </c>
       <c r="O211" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P211" s="16">
         <v>0</v>
@@ -22396,19 +22404,19 @@
         <v>55</v>
       </c>
       <c r="X211" s="53" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="Y211" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="103" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="B212" s="110">
         <v>63.08</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D212" s="111" t="s">
         <v>22</v>
@@ -22471,62 +22479,34 @@
         <v>22</v>
       </c>
       <c r="X212" s="13" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="Y212" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="15">
-      <c r="A213" s="114" t="s">
-        <v>719</v>
-      </c>
+      <c r="A213" s="6"/>
       <c r="B213" s="29"/>
-      <c r="C213" s="115" t="s">
-        <v>719</v>
-      </c>
-      <c r="D213" s="114" t="s">
-        <v>719</v>
-      </c>
-      <c r="E213" s="114" t="s">
-        <v>719</v>
-      </c>
+      <c r="C213" s="30"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
-      <c r="I213" s="114" t="s">
-        <v>719</v>
-      </c>
-      <c r="J213" s="114" t="s">
-        <v>719</v>
-      </c>
-      <c r="K213" s="116" t="s">
-        <v>719</v>
-      </c>
-      <c r="L213" s="114" t="s">
-        <v>719</v>
-      </c>
-      <c r="M213" s="114" t="s">
-        <v>719</v>
-      </c>
+      <c r="I213" s="6"/>
+      <c r="J213" s="6"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="6"/>
+      <c r="M213" s="6"/>
       <c r="N213" s="2"/>
-      <c r="O213" s="115" t="s">
-        <v>719</v>
-      </c>
+      <c r="O213" s="30"/>
       <c r="P213" s="5"/>
       <c r="Q213" s="5"/>
       <c r="R213" s="5"/>
       <c r="S213" s="7"/>
-      <c r="T213" s="114" t="s">
-        <v>719</v>
-      </c>
-      <c r="U213" s="114" t="s">
-        <v>719</v>
-      </c>
-      <c r="V213" s="116" t="s">
-        <v>719</v>
-      </c>
-      <c r="W213" s="114" t="s">
-        <v>719</v>
-      </c>
+      <c r="T213" s="6"/>
+      <c r="U213" s="6"/>
+      <c r="V213" s="2"/>
+      <c r="W213" s="6"/>
       <c r="X213" s="4"/>
       <c r="Y213" s="4"/>
     </row>
@@ -28119,7 +28099,7 @@
       <c r="X420" s="4"/>
       <c r="Y420" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5">
       <c r="A421" s="6"/>
       <c r="B421" s="29"/>
       <c r="C421" s="30"/>
@@ -28146,7 +28126,7 @@
       <c r="X421" s="4"/>
       <c r="Y421" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5">
       <c r="A422" s="6"/>
       <c r="B422" s="29"/>
       <c r="C422" s="30"/>
@@ -28173,7 +28153,7 @@
       <c r="X422" s="4"/>
       <c r="Y422" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5">
       <c r="A423" s="6"/>
       <c r="B423" s="29"/>
       <c r="C423" s="30"/>
@@ -28200,7 +28180,7 @@
       <c r="X423" s="4"/>
       <c r="Y423" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5">
       <c r="A424" s="6"/>
       <c r="B424" s="29"/>
       <c r="C424" s="30"/>
@@ -28227,7 +28207,7 @@
       <c r="X424" s="4"/>
       <c r="Y424" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5">
       <c r="A425" s="6"/>
       <c r="B425" s="29"/>
       <c r="C425" s="30"/>
@@ -28254,7 +28234,7 @@
       <c r="X425" s="4"/>
       <c r="Y425" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5">
       <c r="A426" s="6"/>
       <c r="B426" s="29"/>
       <c r="C426" s="30"/>
@@ -28281,7 +28261,7 @@
       <c r="X426" s="4"/>
       <c r="Y426" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5">
       <c r="A427" s="6"/>
       <c r="B427" s="29"/>
       <c r="C427" s="30"/>
@@ -28308,7 +28288,7 @@
       <c r="X427" s="4"/>
       <c r="Y427" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5">
       <c r="A428" s="6"/>
       <c r="B428" s="29"/>
       <c r="C428" s="30"/>
@@ -28335,7 +28315,7 @@
       <c r="X428" s="4"/>
       <c r="Y428" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5">
       <c r="A429" s="6"/>
       <c r="B429" s="29"/>
       <c r="C429" s="30"/>
@@ -28362,7 +28342,7 @@
       <c r="X429" s="4"/>
       <c r="Y429" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5">
       <c r="A430" s="6"/>
       <c r="B430" s="29"/>
       <c r="C430" s="30"/>
@@ -28389,7 +28369,7 @@
       <c r="X430" s="4"/>
       <c r="Y430" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5">
       <c r="A431" s="6"/>
       <c r="B431" s="29"/>
       <c r="C431" s="30"/>
@@ -28416,7 +28396,7 @@
       <c r="X431" s="4"/>
       <c r="Y431" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5">
       <c r="A432" s="6"/>
       <c r="B432" s="29"/>
       <c r="C432" s="30"/>
@@ -28443,7 +28423,7 @@
       <c r="X432" s="4"/>
       <c r="Y432" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5">
       <c r="A433" s="6"/>
       <c r="B433" s="29"/>
       <c r="C433" s="30"/>
@@ -28470,7 +28450,7 @@
       <c r="X433" s="4"/>
       <c r="Y433" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5">
       <c r="A434" s="6"/>
       <c r="B434" s="29"/>
       <c r="C434" s="30"/>
@@ -28497,7 +28477,7 @@
       <c r="X434" s="4"/>
       <c r="Y434" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5">
       <c r="A435" s="6"/>
       <c r="B435" s="29"/>
       <c r="C435" s="30"/>
@@ -28524,7 +28504,7 @@
       <c r="X435" s="4"/>
       <c r="Y435" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5">
       <c r="A436" s="6"/>
       <c r="B436" s="29"/>
       <c r="C436" s="30"/>
@@ -28551,7 +28531,7 @@
       <c r="X436" s="4"/>
       <c r="Y436" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5">
       <c r="A437" s="6"/>
       <c r="B437" s="29"/>
       <c r="C437" s="30"/>
@@ -28578,7 +28558,7 @@
       <c r="X437" s="4"/>
       <c r="Y437" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5">
       <c r="A438" s="6"/>
       <c r="B438" s="29"/>
       <c r="C438" s="30"/>
@@ -28605,7 +28585,7 @@
       <c r="X438" s="4"/>
       <c r="Y438" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5">
       <c r="A439" s="6"/>
       <c r="B439" s="29"/>
       <c r="C439" s="30"/>
@@ -28632,7 +28612,7 @@
       <c r="X439" s="4"/>
       <c r="Y439" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5">
       <c r="A440" s="6"/>
       <c r="B440" s="29"/>
       <c r="C440" s="30"/>
@@ -28659,7 +28639,7 @@
       <c r="X440" s="4"/>
       <c r="Y440" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5">
       <c r="A441" s="6"/>
       <c r="B441" s="29"/>
       <c r="C441" s="30"/>
@@ -28686,7 +28666,7 @@
       <c r="X441" s="4"/>
       <c r="Y441" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5">
       <c r="A442" s="6"/>
       <c r="B442" s="29"/>
       <c r="C442" s="30"/>
@@ -28713,7 +28693,7 @@
       <c r="X442" s="4"/>
       <c r="Y442" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5">
       <c r="A443" s="6"/>
       <c r="B443" s="29"/>
       <c r="C443" s="30"/>
@@ -28740,7 +28720,7 @@
       <c r="X443" s="4"/>
       <c r="Y443" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5">
       <c r="A444" s="6"/>
       <c r="B444" s="29"/>
       <c r="C444" s="30"/>
@@ -28767,7 +28747,7 @@
       <c r="X444" s="4"/>
       <c r="Y444" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5">
       <c r="A445" s="6"/>
       <c r="B445" s="29"/>
       <c r="C445" s="30"/>
@@ -28794,7 +28774,7 @@
       <c r="X445" s="4"/>
       <c r="Y445" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5">
       <c r="A446" s="6"/>
       <c r="B446" s="29"/>
       <c r="C446" s="30"/>
@@ -28821,7 +28801,7 @@
       <c r="X446" s="4"/>
       <c r="Y446" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5">
       <c r="A447" s="6"/>
       <c r="B447" s="29"/>
       <c r="C447" s="30"/>
@@ -28848,7 +28828,7 @@
       <c r="X447" s="4"/>
       <c r="Y447" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5">
       <c r="A448" s="6"/>
       <c r="B448" s="29"/>
       <c r="C448" s="30"/>
@@ -28875,7 +28855,7 @@
       <c r="X448" s="4"/>
       <c r="Y448" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5">
       <c r="A449" s="6"/>
       <c r="B449" s="29"/>
       <c r="C449" s="30"/>
@@ -28902,7 +28882,7 @@
       <c r="X449" s="4"/>
       <c r="Y449" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5">
       <c r="A450" s="6"/>
       <c r="B450" s="29"/>
       <c r="C450" s="30"/>
@@ -28929,7 +28909,7 @@
       <c r="X450" s="4"/>
       <c r="Y450" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5">
       <c r="A451" s="6"/>
       <c r="B451" s="29"/>
       <c r="C451" s="30"/>
@@ -28956,7 +28936,7 @@
       <c r="X451" s="4"/>
       <c r="Y451" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5">
       <c r="A452" s="6"/>
       <c r="B452" s="29"/>
       <c r="C452" s="30"/>
@@ -28983,7 +28963,7 @@
       <c r="X452" s="4"/>
       <c r="Y452" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="19.5">
       <c r="A453" s="6"/>
       <c r="B453" s="29"/>
       <c r="C453" s="30"/>
@@ -29010,7 +28990,7 @@
       <c r="X453" s="4"/>
       <c r="Y453" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="19.5">
       <c r="A454" s="6"/>
       <c r="B454" s="29"/>
       <c r="C454" s="30"/>
@@ -29037,7 +29017,7 @@
       <c r="X454" s="4"/>
       <c r="Y454" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="19.5">
       <c r="A455" s="6"/>
       <c r="B455" s="29"/>
       <c r="C455" s="30"/>
@@ -29064,7 +29044,7 @@
       <c r="X455" s="4"/>
       <c r="Y455" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="19.5">
       <c r="A456" s="6"/>
       <c r="B456" s="29"/>
       <c r="C456" s="30"/>
@@ -29091,7 +29071,7 @@
       <c r="X456" s="4"/>
       <c r="Y456" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="19.5">
       <c r="A457" s="6"/>
       <c r="B457" s="29"/>
       <c r="C457" s="30"/>
@@ -29118,7 +29098,7 @@
       <c r="X457" s="4"/>
       <c r="Y457" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="19.5">
       <c r="A458" s="6"/>
       <c r="B458" s="29"/>
       <c r="C458" s="30"/>
@@ -29145,7 +29125,7 @@
       <c r="X458" s="4"/>
       <c r="Y458" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="19.5">
       <c r="A459" s="6"/>
       <c r="B459" s="29"/>
       <c r="C459" s="30"/>
@@ -29172,7 +29152,7 @@
       <c r="X459" s="4"/>
       <c r="Y459" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="19.5">
       <c r="A460" s="6"/>
       <c r="B460" s="29"/>
       <c r="C460" s="30"/>
@@ -29199,7 +29179,7 @@
       <c r="X460" s="4"/>
       <c r="Y460" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="19.5">
       <c r="A461" s="6"/>
       <c r="B461" s="29"/>
       <c r="C461" s="30"/>
@@ -29226,7 +29206,7 @@
       <c r="X461" s="4"/>
       <c r="Y461" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="19.5">
       <c r="A462" s="6"/>
       <c r="B462" s="29"/>
       <c r="C462" s="30"/>
@@ -29253,7 +29233,7 @@
       <c r="X462" s="4"/>
       <c r="Y462" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="19.5">
       <c r="A463" s="6"/>
       <c r="B463" s="29"/>
       <c r="C463" s="30"/>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -9807,7 +9807,7 @@
         <v>309</v>
       </c>
       <c r="T56" s="46" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="U56" s="46" t="s">
         <v>22</v>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="729">
   <si>
     <t>Will be Eligible Test Scenarios</t>
   </si>
@@ -7884,7 +7884,7 @@
         <v>151</v>
       </c>
       <c r="K32" s="58">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L32" s="41" t="s">
         <v>46</v>
@@ -8499,8 +8499,8 @@
       <c r="J40" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="K40" s="58" t="s">
-        <v>28</v>
+      <c r="K40" s="58">
+        <v>50</v>
       </c>
       <c r="L40" s="41" t="s">
         <v>46</v>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -8379,7 +8379,7 @@
         <v>151</v>
       </c>
       <c r="V38" s="45">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W38" s="46" t="s">
         <v>23</v>
@@ -17309,7 +17309,7 @@
         <v>24</v>
       </c>
       <c r="V156" s="45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W156" s="46" t="s">
         <v>23</v>
@@ -17540,7 +17540,7 @@
         <v>24</v>
       </c>
       <c r="V159" s="45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W159" s="46" t="s">
         <v>23</v>
@@ -18389,7 +18389,7 @@
         <v>24</v>
       </c>
       <c r="V170" s="45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W170" s="46" t="s">
         <v>23</v>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="729">
   <si>
     <t>Will be Eligible Test Scenarios</t>
   </si>
@@ -5745,7 +5745,7 @@
         <v>144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="8">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="8">
       <c r="A3" s="34" t="s">
         <v>145</v>
       </c>
@@ -5780,7 +5780,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="121.5">
       <c r="A4" s="39" t="s">
         <v>147</v>
       </c>
@@ -5855,7 +5855,7 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="57">
       <c r="A5" s="48" t="s">
         <v>153</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="57">
       <c r="A6" s="39" t="s">
         <v>157</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="121.5">
       <c r="A7" s="39" t="s">
         <v>160</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="121.5">
       <c r="A8" s="39" t="s">
         <v>165</v>
       </c>
@@ -6163,7 +6163,7 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="57">
       <c r="A9" s="39" t="s">
         <v>170</v>
       </c>
@@ -6240,7 +6240,7 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="134.25">
       <c r="A10" s="39" t="s">
         <v>172</v>
       </c>
@@ -6319,7 +6319,7 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="134.25">
       <c r="A11" s="39" t="s">
         <v>176</v>
       </c>
@@ -6396,7 +6396,7 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="57">
       <c r="A12" s="39" t="s">
         <v>179</v>
       </c>
@@ -6473,7 +6473,7 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="57">
       <c r="A13" s="39" t="s">
         <v>182</v>
       </c>
@@ -6550,7 +6550,7 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="57">
       <c r="A14" s="39" t="s">
         <v>185</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="57">
       <c r="A15" s="39" t="s">
         <v>187</v>
       </c>
@@ -6704,7 +6704,7 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="57">
       <c r="A16" s="39" t="s">
         <v>190</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="121.5">
       <c r="A17" s="39" t="s">
         <v>194</v>
       </c>
@@ -6858,7 +6858,7 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="57">
       <c r="A18" s="39" t="s">
         <v>198</v>
       </c>
@@ -6935,7 +6935,7 @@
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="198">
       <c r="A19" s="39" t="s">
         <v>200</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="62" t="s">
         <v>203</v>
       </c>
@@ -7047,7 +7047,7 @@
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="147">
       <c r="A21" s="39" t="s">
         <v>204</v>
       </c>
@@ -7124,7 +7124,7 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="147">
       <c r="A22" s="39" t="s">
         <v>208</v>
       </c>
@@ -7201,7 +7201,7 @@
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="147">
       <c r="A23" s="39" t="s">
         <v>211</v>
       </c>
@@ -7278,7 +7278,7 @@
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="147">
       <c r="A24" s="39" t="s">
         <v>213</v>
       </c>
@@ -7355,7 +7355,7 @@
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="147">
       <c r="A25" s="39" t="s">
         <v>215</v>
       </c>
@@ -7432,7 +7432,7 @@
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="159.75">
       <c r="A26" s="39" t="s">
         <v>217</v>
       </c>
@@ -7509,7 +7509,7 @@
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="62" t="s">
         <v>219</v>
       </c>
@@ -7544,7 +7544,7 @@
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="121.5">
       <c r="A28" s="39" t="s">
         <v>220</v>
       </c>
@@ -7621,7 +7621,7 @@
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="121.5">
       <c r="A29" s="39" t="s">
         <v>223</v>
       </c>
@@ -7916,8 +7916,8 @@
       <c r="U32" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="V32" s="61" t="s">
-        <v>28</v>
+      <c r="V32" s="61">
+        <v>50</v>
       </c>
       <c r="W32" s="46" t="s">
         <v>55</v>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="729">
   <si>
     <t>Will be Eligible Test Scenarios</t>
   </si>
@@ -7883,8 +7883,8 @@
       <c r="J32" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="K32" s="58" t="s">
-        <v>28</v>
+      <c r="K32" s="58">
+        <v>50</v>
       </c>
       <c r="L32" s="41" t="s">
         <v>46</v>
@@ -7916,8 +7916,8 @@
       <c r="U32" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="V32" s="61">
-        <v>50</v>
+      <c r="V32" s="61" t="s">
+        <v>28</v>
       </c>
       <c r="W32" s="46" t="s">
         <v>55</v>
@@ -8499,8 +8499,8 @@
       <c r="J40" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="K40" s="58" t="s">
-        <v>28</v>
+      <c r="K40" s="58">
+        <v>50</v>
       </c>
       <c r="L40" s="41" t="s">
         <v>46</v>

--- a/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
+++ b/__tests__/utils/ScenariosWith2023Q3RatesAndThresholds.xlsx
@@ -5843,7 +5843,7 @@
         <v>151</v>
       </c>
       <c r="V4" s="45">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="W4" s="46" t="s">
         <v>23</v>
@@ -6074,7 +6074,7 @@
         <v>24</v>
       </c>
       <c r="V7" s="45">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="W7" s="46" t="s">
         <v>23</v>
@@ -7609,7 +7609,7 @@
         <v>24</v>
       </c>
       <c r="V28" s="45">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="W28" s="46" t="s">
         <v>23</v>
@@ -7994,7 +7994,7 @@
         <v>24</v>
       </c>
       <c r="V33" s="45">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="W33" s="46" t="s">
         <v>23</v>
@@ -8225,7 +8225,7 @@
         <v>24</v>
       </c>
       <c r="V36" s="45">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="W36" s="46" t="s">
         <v>23</v>
@@ -8302,7 +8302,7 @@
         <v>24</v>
       </c>
       <c r="V37" s="71">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W37" s="57" t="s">
         <v>23</v>
@@ -8379,7 +8379,7 @@
         <v>151</v>
       </c>
       <c r="V38" s="45">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W38" s="46" t="s">
         <v>23</v>
@@ -8766,7 +8766,7 @@
         <v>24</v>
       </c>
       <c r="V43" s="45">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W43" s="46" t="s">
         <v>23</v>
@@ -9001,7 +9001,7 @@
         <v>151</v>
       </c>
       <c r="V46" s="45">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W46" s="46" t="s">
         <v>23</v>
@@ -10116,7 +10116,7 @@
         <v>24</v>
       </c>
       <c r="V61" s="45">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="W61" s="46" t="s">
         <v>23</v>
@@ -10193,7 +10193,7 @@
         <v>24</v>
       </c>
       <c r="V62" s="45">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W62" s="46" t="s">
         <v>23</v>
@@ -10270,7 +10270,7 @@
         <v>24</v>
       </c>
       <c r="V63" s="45">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W63" s="46" t="s">
         <v>23</v>
@@ -10655,7 +10655,7 @@
         <v>24</v>
       </c>
       <c r="V68" s="45">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="W68" s="46" t="s">
         <v>23</v>
@@ -12153,7 +12153,7 @@
         <v>24</v>
       </c>
       <c r="V88" s="45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W88" s="46" t="s">
         <v>23</v>
@@ -12615,7 +12615,7 @@
         <v>24</v>
       </c>
       <c r="V94" s="45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W94" s="46" t="s">
         <v>23</v>
@@ -12692,7 +12692,7 @@
         <v>24</v>
       </c>
       <c r="V95" s="45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W95" s="46" t="s">
         <v>23</v>
@@ -12769,7 +12769,7 @@
         <v>24</v>
       </c>
       <c r="V96" s="45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W96" s="46" t="s">
         <v>55</v>
@@ -12846,7 +12846,7 @@
         <v>24</v>
       </c>
       <c r="V97" s="45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W97" s="46" t="s">
         <v>23</v>
@@ -13693,7 +13693,7 @@
         <v>24</v>
       </c>
       <c r="V108" s="45">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W108" s="46" t="s">
         <v>23</v>
@@ -14155,7 +14155,7 @@
         <v>24</v>
       </c>
       <c r="V114" s="45">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W114" s="46" t="s">
         <v>23</v>
@@ -14386,7 +14386,7 @@
         <v>24</v>
       </c>
       <c r="V117" s="45">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="W117" s="46" t="s">
         <v>23</v>
@@ -17309,7 +17309,7 @@
         <v>24</v>
       </c>
       <c r="V156" s="45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W156" s="46" t="s">
         <v>23</v>
@@ -17540,7 +17540,7 @@
         <v>24</v>
       </c>
       <c r="V159" s="45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W159" s="46" t="s">
         <v>23</v>
@@ -18389,7 +18389,7 @@
         <v>24</v>
       </c>
       <c r="V170" s="45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W170" s="46" t="s">
         <v>23</v>
